--- a/StimuliTable-Encoding_8-blocks_40-pairs_grid-loc_12345-delays.xlsx
+++ b/StimuliTable-Encoding_8-blocks_40-pairs_grid-loc_12345-delays.xlsx
@@ -555,28 +555,28 @@
         <v>5</v>
       </c>
       <c r="O2">
-        <v>0.0390625</v>
+        <v>0.1171875</v>
       </c>
       <c r="P2">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="Q2">
-        <v>-0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="R2">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="S2">
         <v>0.1171875</v>
       </c>
       <c r="T2">
-        <v>0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="U2">
         <v>-0.1953125</v>
       </c>
       <c r="V2">
-        <v>-0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -608,22 +608,22 @@
         <v>0.1953125</v>
       </c>
       <c r="P3">
-        <v>0.06944444444444445</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="Q3">
         <v>0.1171875</v>
       </c>
       <c r="R3">
-        <v>0.06944444444444445</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="S3">
         <v>0.1953125</v>
       </c>
       <c r="T3">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="U3">
-        <v>-0.0390625</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V3">
         <v>-0.2083333333333333</v>
@@ -655,28 +655,28 @@
         <v>4</v>
       </c>
       <c r="O4">
-        <v>0.1171875</v>
+        <v>-0.0390625</v>
       </c>
       <c r="P4">
         <v>-0.2083333333333333</v>
       </c>
       <c r="Q4">
-        <v>0.0390625</v>
+        <v>-0.0390625</v>
       </c>
       <c r="R4">
-        <v>-0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="S4">
-        <v>0.1171875</v>
+        <v>0.0390625</v>
       </c>
       <c r="T4">
-        <v>-0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="U4">
-        <v>-0.1953125</v>
+        <v>0.1953125</v>
       </c>
       <c r="V4">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -705,28 +705,28 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="P5">
         <v>0.06944444444444445</v>
       </c>
       <c r="Q5">
-        <v>-0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="R5">
         <v>0.06944444444444445</v>
       </c>
       <c r="S5">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="T5">
         <v>-0.06944444444444445</v>
       </c>
       <c r="U5">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V5">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -755,28 +755,28 @@
         <v>4</v>
       </c>
       <c r="O6">
-        <v>-0.1953125</v>
+        <v>0.0390625</v>
       </c>
       <c r="P6">
-        <v>0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="Q6">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="R6">
-        <v>0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="S6">
-        <v>-0.1953125</v>
+        <v>0.0390625</v>
       </c>
       <c r="T6">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="U6">
         <v>0.1953125</v>
       </c>
       <c r="V6">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -808,22 +808,22 @@
         <v>0.1953125</v>
       </c>
       <c r="P7">
-        <v>0.06944444444444445</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="Q7">
         <v>0.1171875</v>
       </c>
       <c r="R7">
-        <v>0.06944444444444445</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="S7">
         <v>0.1953125</v>
       </c>
       <c r="T7">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="U7">
-        <v>-0.0390625</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V7">
         <v>-0.2083333333333333</v>
@@ -855,28 +855,28 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0390625</v>
+        <v>0.1171875</v>
       </c>
       <c r="P8">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="Q8">
-        <v>-0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="R8">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="S8">
         <v>0.1171875</v>
       </c>
       <c r="T8">
-        <v>0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="U8">
         <v>-0.1953125</v>
       </c>
       <c r="V8">
-        <v>-0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -905,28 +905,28 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.1171875</v>
+        <v>-0.0390625</v>
       </c>
       <c r="P9">
         <v>-0.2083333333333333</v>
       </c>
       <c r="Q9">
-        <v>0.0390625</v>
+        <v>-0.0390625</v>
       </c>
       <c r="R9">
-        <v>-0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="S9">
-        <v>0.1171875</v>
+        <v>0.0390625</v>
       </c>
       <c r="T9">
-        <v>-0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="U9">
-        <v>-0.1953125</v>
+        <v>0.1953125</v>
       </c>
       <c r="V9">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -955,25 +955,25 @@
         <v>2</v>
       </c>
       <c r="O10">
-        <v>-0.1171875</v>
+        <v>0.1953125</v>
       </c>
       <c r="P10">
-        <v>-0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="Q10">
-        <v>-0.1953125</v>
+        <v>0.1953125</v>
       </c>
       <c r="R10">
         <v>-0.06944444444444445</v>
       </c>
       <c r="S10">
-        <v>-0.0390625</v>
+        <v>0.1171875</v>
       </c>
       <c r="T10">
-        <v>-0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="U10">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V10">
         <v>0.2083333333333333</v>
@@ -1005,28 +1005,28 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>-0.1953125</v>
+        <v>0.0390625</v>
       </c>
       <c r="P11">
-        <v>0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="Q11">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="R11">
-        <v>0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="S11">
-        <v>-0.1953125</v>
+        <v>0.0390625</v>
       </c>
       <c r="T11">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="U11">
         <v>0.1953125</v>
       </c>
       <c r="V11">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1055,25 +1055,25 @@
         <v>1</v>
       </c>
       <c r="O12">
-        <v>-0.1171875</v>
+        <v>0.0390625</v>
       </c>
       <c r="P12">
         <v>-0.2083333333333333</v>
       </c>
       <c r="Q12">
-        <v>-0.1953125</v>
+        <v>-0.0390625</v>
       </c>
       <c r="R12">
         <v>-0.2083333333333333</v>
       </c>
       <c r="S12">
-        <v>-0.1171875</v>
+        <v>0.0390625</v>
       </c>
       <c r="T12">
         <v>-0.06944444444444445</v>
       </c>
       <c r="U12">
-        <v>0.1171875</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V12">
         <v>0.2083333333333333</v>
@@ -1105,25 +1105,25 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>-0.1171875</v>
+        <v>0.1953125</v>
       </c>
       <c r="P13">
-        <v>-0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="Q13">
-        <v>-0.1953125</v>
+        <v>0.1953125</v>
       </c>
       <c r="R13">
         <v>-0.06944444444444445</v>
       </c>
       <c r="S13">
-        <v>-0.0390625</v>
+        <v>0.1171875</v>
       </c>
       <c r="T13">
-        <v>-0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="U13">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V13">
         <v>0.2083333333333333</v>
@@ -1155,25 +1155,25 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>-0.1171875</v>
+        <v>0.0390625</v>
       </c>
       <c r="P14">
         <v>-0.2083333333333333</v>
       </c>
       <c r="Q14">
-        <v>-0.1953125</v>
+        <v>-0.0390625</v>
       </c>
       <c r="R14">
         <v>-0.2083333333333333</v>
       </c>
       <c r="S14">
-        <v>-0.1171875</v>
+        <v>0.0390625</v>
       </c>
       <c r="T14">
         <v>-0.06944444444444445</v>
       </c>
       <c r="U14">
-        <v>0.1171875</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V14">
         <v>0.2083333333333333</v>
@@ -1205,28 +1205,28 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="P15">
         <v>0.06944444444444445</v>
       </c>
       <c r="Q15">
-        <v>-0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="R15">
         <v>0.06944444444444445</v>
       </c>
       <c r="S15">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="T15">
         <v>-0.06944444444444445</v>
       </c>
       <c r="U15">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V15">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1255,28 +1255,28 @@
         <v>3</v>
       </c>
       <c r="O16">
-        <v>-0.1171875</v>
+        <v>0.0390625</v>
       </c>
       <c r="P16">
-        <v>0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="Q16">
+        <v>0.0390625</v>
+      </c>
+      <c r="R16">
+        <v>0.06944444444444445</v>
+      </c>
+      <c r="S16">
         <v>-0.0390625</v>
       </c>
-      <c r="R16">
-        <v>0.2083333333333333</v>
-      </c>
-      <c r="S16">
-        <v>-0.1953125</v>
-      </c>
       <c r="T16">
-        <v>0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="U16">
-        <v>0.1171875</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V16">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1305,25 +1305,25 @@
         <v>5</v>
       </c>
       <c r="O17">
-        <v>0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="P17">
-        <v>0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="Q17">
+        <v>0.1171875</v>
+      </c>
+      <c r="R17">
+        <v>0.2083333333333333</v>
+      </c>
+      <c r="S17">
+        <v>0.1953125</v>
+      </c>
+      <c r="T17">
+        <v>0.06944444444444445</v>
+      </c>
+      <c r="U17">
         <v>-0.0390625</v>
-      </c>
-      <c r="R17">
-        <v>0.06944444444444445</v>
-      </c>
-      <c r="S17">
-        <v>0.1171875</v>
-      </c>
-      <c r="T17">
-        <v>0.06944444444444445</v>
-      </c>
-      <c r="U17">
-        <v>-0.1953125</v>
       </c>
       <c r="V17">
         <v>-0.2083333333333333</v>
@@ -1355,28 +1355,28 @@
         <v>3</v>
       </c>
       <c r="O18">
-        <v>-0.0390625</v>
+        <v>-0.1953125</v>
       </c>
       <c r="P18">
-        <v>-0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="Q18">
-        <v>-0.0390625</v>
+        <v>-0.1171875</v>
       </c>
       <c r="R18">
-        <v>-0.06944444444444445</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="S18">
-        <v>0.0390625</v>
+        <v>-0.1953125</v>
       </c>
       <c r="T18">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="U18">
         <v>0.1953125</v>
       </c>
       <c r="V18">
-        <v>0.06944444444444445</v>
+        <v>-0.06944444444444445</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -1405,22 +1405,22 @@
         <v>1</v>
       </c>
       <c r="O19">
-        <v>0.0390625</v>
+        <v>0.1171875</v>
       </c>
       <c r="P19">
         <v>-0.06944444444444445</v>
       </c>
       <c r="Q19">
-        <v>-0.0390625</v>
+        <v>0.1171875</v>
       </c>
       <c r="R19">
-        <v>-0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="S19">
-        <v>0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="T19">
-        <v>0.06944444444444445</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="U19">
         <v>-0.1953125</v>
@@ -1455,28 +1455,28 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>-0.1171875</v>
+        <v>0.0390625</v>
       </c>
       <c r="P20">
-        <v>0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="Q20">
+        <v>0.0390625</v>
+      </c>
+      <c r="R20">
+        <v>0.06944444444444445</v>
+      </c>
+      <c r="S20">
         <v>-0.0390625</v>
       </c>
-      <c r="R20">
-        <v>0.2083333333333333</v>
-      </c>
-      <c r="S20">
-        <v>-0.1953125</v>
-      </c>
       <c r="T20">
-        <v>0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="U20">
-        <v>0.1171875</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V20">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.0390625</v>
+        <v>0.1171875</v>
       </c>
       <c r="P21">
         <v>-0.06944444444444445</v>
       </c>
       <c r="Q21">
-        <v>-0.0390625</v>
+        <v>0.1171875</v>
       </c>
       <c r="R21">
-        <v>-0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="S21">
-        <v>0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="T21">
-        <v>0.06944444444444445</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="U21">
         <v>-0.1953125</v>
@@ -1555,28 +1555,28 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>-0.0390625</v>
+        <v>-0.1953125</v>
       </c>
       <c r="P22">
-        <v>-0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="Q22">
-        <v>-0.0390625</v>
+        <v>-0.1171875</v>
       </c>
       <c r="R22">
-        <v>-0.06944444444444445</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="S22">
-        <v>0.0390625</v>
+        <v>-0.1953125</v>
       </c>
       <c r="T22">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="U22">
         <v>0.1953125</v>
       </c>
       <c r="V22">
-        <v>0.06944444444444445</v>
+        <v>-0.06944444444444445</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -1605,25 +1605,25 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="P23">
-        <v>0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="Q23">
+        <v>0.1171875</v>
+      </c>
+      <c r="R23">
+        <v>0.2083333333333333</v>
+      </c>
+      <c r="S23">
+        <v>0.1953125</v>
+      </c>
+      <c r="T23">
+        <v>0.06944444444444445</v>
+      </c>
+      <c r="U23">
         <v>-0.0390625</v>
-      </c>
-      <c r="R23">
-        <v>0.06944444444444445</v>
-      </c>
-      <c r="S23">
-        <v>0.1171875</v>
-      </c>
-      <c r="T23">
-        <v>0.06944444444444445</v>
-      </c>
-      <c r="U23">
-        <v>-0.1953125</v>
       </c>
       <c r="V23">
         <v>-0.2083333333333333</v>
@@ -1655,28 +1655,28 @@
         <v>5</v>
       </c>
       <c r="O24">
-        <v>-0.1171875</v>
+        <v>0.1953125</v>
       </c>
       <c r="P24">
-        <v>-0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="Q24">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="R24">
         <v>-0.2083333333333333</v>
       </c>
       <c r="S24">
-        <v>-0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="T24">
         <v>-0.06944444444444445</v>
       </c>
       <c r="U24">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V24">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -1705,13 +1705,13 @@
         <v>2</v>
       </c>
       <c r="O25">
-        <v>0.1171875</v>
+        <v>-0.0390625</v>
       </c>
       <c r="P25">
-        <v>0.06944444444444445</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="Q25">
-        <v>0.1953125</v>
+        <v>-0.0390625</v>
       </c>
       <c r="R25">
         <v>0.06944444444444445</v>
@@ -1720,13 +1720,13 @@
         <v>0.0390625</v>
       </c>
       <c r="T25">
-        <v>0.06944444444444445</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="U25">
-        <v>-0.1953125</v>
+        <v>0.1953125</v>
       </c>
       <c r="V25">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -1755,28 +1755,28 @@
         <v>2</v>
       </c>
       <c r="O26">
-        <v>-0.1953125</v>
+        <v>-0.1171875</v>
       </c>
       <c r="P26">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="Q26">
+        <v>-0.0390625</v>
+      </c>
+      <c r="R26">
+        <v>0.06944444444444445</v>
+      </c>
+      <c r="S26">
         <v>-0.1171875</v>
       </c>
-      <c r="R26">
-        <v>0.2083333333333333</v>
-      </c>
-      <c r="S26">
-        <v>-0.1953125</v>
-      </c>
       <c r="T26">
-        <v>0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="U26">
-        <v>0.1171875</v>
+        <v>0.1953125</v>
       </c>
       <c r="V26">
-        <v>-0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="27" spans="1:22">
@@ -1808,25 +1808,25 @@
         <v>-0.0390625</v>
       </c>
       <c r="P27">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="Q27">
+        <v>0.0390625</v>
+      </c>
+      <c r="R27">
+        <v>0.2083333333333333</v>
+      </c>
+      <c r="S27">
         <v>-0.0390625</v>
       </c>
-      <c r="R27">
-        <v>-0.06944444444444445</v>
-      </c>
-      <c r="S27">
-        <v>0.0390625</v>
-      </c>
       <c r="T27">
-        <v>-0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="U27">
         <v>0.1953125</v>
       </c>
       <c r="V27">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="28" spans="1:22">
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="O28">
-        <v>0.1171875</v>
+        <v>-0.0390625</v>
       </c>
       <c r="P28">
-        <v>0.06944444444444445</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="Q28">
-        <v>0.1953125</v>
+        <v>-0.0390625</v>
       </c>
       <c r="R28">
         <v>0.06944444444444445</v>
@@ -1870,13 +1870,13 @@
         <v>0.0390625</v>
       </c>
       <c r="T28">
-        <v>0.06944444444444445</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="U28">
-        <v>-0.1953125</v>
+        <v>0.1953125</v>
       </c>
       <c r="V28">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -1905,28 +1905,28 @@
         <v>0</v>
       </c>
       <c r="O29">
-        <v>-0.1953125</v>
+        <v>-0.1171875</v>
       </c>
       <c r="P29">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="Q29">
+        <v>-0.0390625</v>
+      </c>
+      <c r="R29">
+        <v>0.06944444444444445</v>
+      </c>
+      <c r="S29">
         <v>-0.1171875</v>
       </c>
-      <c r="R29">
-        <v>0.2083333333333333</v>
-      </c>
-      <c r="S29">
-        <v>-0.1953125</v>
-      </c>
       <c r="T29">
-        <v>0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="U29">
-        <v>0.1171875</v>
+        <v>0.1953125</v>
       </c>
       <c r="V29">
-        <v>-0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -1955,28 +1955,28 @@
         <v>0</v>
       </c>
       <c r="O30">
-        <v>-0.1171875</v>
+        <v>0.1953125</v>
       </c>
       <c r="P30">
-        <v>-0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="Q30">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="R30">
         <v>-0.2083333333333333</v>
       </c>
       <c r="S30">
-        <v>-0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="T30">
         <v>-0.06944444444444445</v>
       </c>
       <c r="U30">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V30">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -2005,19 +2005,19 @@
         <v>1</v>
       </c>
       <c r="O31">
-        <v>-0.0390625</v>
+        <v>-0.1171875</v>
       </c>
       <c r="P31">
         <v>0.06944444444444445</v>
       </c>
       <c r="Q31">
-        <v>0.0390625</v>
+        <v>-0.1953125</v>
       </c>
       <c r="R31">
         <v>0.06944444444444445</v>
       </c>
       <c r="S31">
-        <v>-0.0390625</v>
+        <v>-0.1171875</v>
       </c>
       <c r="T31">
         <v>0.2083333333333333</v>
@@ -2026,7 +2026,7 @@
         <v>0.1953125</v>
       </c>
       <c r="V31">
-        <v>-0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -2058,25 +2058,25 @@
         <v>-0.0390625</v>
       </c>
       <c r="P32">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="Q32">
+        <v>0.0390625</v>
+      </c>
+      <c r="R32">
+        <v>0.2083333333333333</v>
+      </c>
+      <c r="S32">
         <v>-0.0390625</v>
       </c>
-      <c r="R32">
-        <v>-0.06944444444444445</v>
-      </c>
-      <c r="S32">
-        <v>0.0390625</v>
-      </c>
       <c r="T32">
-        <v>-0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="U32">
         <v>0.1953125</v>
       </c>
       <c r="V32">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -2105,19 +2105,19 @@
         <v>0</v>
       </c>
       <c r="O33">
-        <v>-0.0390625</v>
+        <v>-0.1171875</v>
       </c>
       <c r="P33">
         <v>0.06944444444444445</v>
       </c>
       <c r="Q33">
-        <v>0.0390625</v>
+        <v>-0.1953125</v>
       </c>
       <c r="R33">
         <v>0.06944444444444445</v>
       </c>
       <c r="S33">
-        <v>-0.0390625</v>
+        <v>-0.1171875</v>
       </c>
       <c r="T33">
         <v>0.2083333333333333</v>
@@ -2126,7 +2126,7 @@
         <v>0.1953125</v>
       </c>
       <c r="V33">
-        <v>-0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -2155,28 +2155,28 @@
         <v>3</v>
       </c>
       <c r="O34">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="P34">
-        <v>0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="Q34">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="R34">
-        <v>0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="S34">
-        <v>0.1171875</v>
+        <v>-0.1953125</v>
       </c>
       <c r="T34">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="U34">
-        <v>-0.1171875</v>
+        <v>0.1953125</v>
       </c>
       <c r="V34">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="35" spans="1:22">
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="O35">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="P35">
         <v>0.06944444444444445</v>
       </c>
       <c r="Q35">
-        <v>-0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="R35">
         <v>0.06944444444444445</v>
       </c>
       <c r="S35">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="T35">
         <v>-0.06944444444444445</v>
       </c>
       <c r="U35">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V35">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -2255,25 +2255,25 @@
         <v>2</v>
       </c>
       <c r="O36">
-        <v>-0.0390625</v>
+        <v>-0.1953125</v>
       </c>
       <c r="P36">
         <v>-0.06944444444444445</v>
       </c>
       <c r="Q36">
-        <v>0.0390625</v>
+        <v>-0.1171875</v>
       </c>
       <c r="R36">
         <v>-0.06944444444444445</v>
       </c>
       <c r="S36">
-        <v>-0.0390625</v>
+        <v>-0.1953125</v>
       </c>
       <c r="T36">
         <v>0.06944444444444445</v>
       </c>
       <c r="U36">
-        <v>0.1953125</v>
+        <v>0.0390625</v>
       </c>
       <c r="V36">
         <v>0.2083333333333333</v>
@@ -2305,28 +2305,28 @@
         <v>4</v>
       </c>
       <c r="O37">
-        <v>0.1171875</v>
+        <v>-0.0390625</v>
       </c>
       <c r="P37">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="Q37">
-        <v>0.1953125</v>
+        <v>0.0390625</v>
       </c>
       <c r="R37">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="S37">
-        <v>0.1171875</v>
+        <v>-0.0390625</v>
       </c>
       <c r="T37">
-        <v>0.06944444444444445</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="U37">
-        <v>-0.1953125</v>
+        <v>0.1953125</v>
       </c>
       <c r="V37">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="38" spans="1:22">
@@ -2355,28 +2355,28 @@
         <v>0</v>
       </c>
       <c r="O38">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="P38">
-        <v>0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="Q38">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="R38">
-        <v>0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="S38">
-        <v>0.1171875</v>
+        <v>-0.1953125</v>
       </c>
       <c r="T38">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="U38">
-        <v>-0.1171875</v>
+        <v>0.1953125</v>
       </c>
       <c r="V38">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="39" spans="1:22">
@@ -2405,25 +2405,25 @@
         <v>0</v>
       </c>
       <c r="O39">
-        <v>-0.0390625</v>
+        <v>-0.1953125</v>
       </c>
       <c r="P39">
         <v>-0.06944444444444445</v>
       </c>
       <c r="Q39">
-        <v>0.0390625</v>
+        <v>-0.1171875</v>
       </c>
       <c r="R39">
         <v>-0.06944444444444445</v>
       </c>
       <c r="S39">
-        <v>-0.0390625</v>
+        <v>-0.1953125</v>
       </c>
       <c r="T39">
         <v>0.06944444444444445</v>
       </c>
       <c r="U39">
-        <v>0.1953125</v>
+        <v>0.0390625</v>
       </c>
       <c r="V39">
         <v>0.2083333333333333</v>
@@ -2455,25 +2455,25 @@
         <v>4</v>
       </c>
       <c r="O40">
-        <v>-0.1953125</v>
+        <v>-0.0390625</v>
       </c>
       <c r="P40">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="Q40">
-        <v>-0.1953125</v>
+        <v>-0.0390625</v>
       </c>
       <c r="R40">
-        <v>0.06944444444444445</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="S40">
         <v>-0.1171875</v>
       </c>
       <c r="T40">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="U40">
-        <v>0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="V40">
         <v>-0.2083333333333333</v>
@@ -2505,28 +2505,28 @@
         <v>0</v>
       </c>
       <c r="O41">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="P41">
         <v>0.06944444444444445</v>
       </c>
       <c r="Q41">
-        <v>-0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="R41">
         <v>0.06944444444444445</v>
       </c>
       <c r="S41">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="T41">
         <v>-0.06944444444444445</v>
       </c>
       <c r="U41">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V41">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="42" spans="1:22">
@@ -2555,28 +2555,28 @@
         <v>0</v>
       </c>
       <c r="O42">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="P42">
         <v>0.06944444444444445</v>
       </c>
       <c r="Q42">
-        <v>-0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="R42">
         <v>0.06944444444444445</v>
       </c>
       <c r="S42">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="T42">
         <v>-0.06944444444444445</v>
       </c>
       <c r="U42">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V42">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="43" spans="1:22">
@@ -2605,7 +2605,7 @@
         <v>5</v>
       </c>
       <c r="O43">
-        <v>0.1171875</v>
+        <v>0.1953125</v>
       </c>
       <c r="P43">
         <v>0.06944444444444445</v>
@@ -2614,13 +2614,13 @@
         <v>0.1171875</v>
       </c>
       <c r="R43">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="S43">
-        <v>0.1171875</v>
+        <v>0.1953125</v>
       </c>
       <c r="T43">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="U43">
         <v>-0.1953125</v>
@@ -2658,22 +2658,22 @@
         <v>-0.1953125</v>
       </c>
       <c r="P44">
-        <v>0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="Q44">
-        <v>-0.1953125</v>
+        <v>-0.1171875</v>
       </c>
       <c r="R44">
         <v>0.2083333333333333</v>
       </c>
       <c r="S44">
-        <v>-0.1171875</v>
+        <v>-0.1953125</v>
       </c>
       <c r="T44">
         <v>0.06944444444444445</v>
       </c>
       <c r="U44">
-        <v>0.1953125</v>
+        <v>0.1171875</v>
       </c>
       <c r="V44">
         <v>0.06944444444444445</v>
@@ -2705,25 +2705,25 @@
         <v>0</v>
       </c>
       <c r="O45">
-        <v>-0.1953125</v>
+        <v>-0.0390625</v>
       </c>
       <c r="P45">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="Q45">
-        <v>-0.1953125</v>
+        <v>-0.0390625</v>
       </c>
       <c r="R45">
-        <v>0.06944444444444445</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="S45">
         <v>-0.1171875</v>
       </c>
       <c r="T45">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="U45">
-        <v>0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="V45">
         <v>-0.2083333333333333</v>
@@ -2755,28 +2755,28 @@
         <v>4</v>
       </c>
       <c r="O46">
-        <v>0.1171875</v>
+        <v>-0.0390625</v>
       </c>
       <c r="P46">
-        <v>0.06944444444444445</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="Q46">
-        <v>0.1953125</v>
+        <v>0.0390625</v>
       </c>
       <c r="R46">
-        <v>0.06944444444444445</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="S46">
-        <v>0.0390625</v>
+        <v>-0.0390625</v>
       </c>
       <c r="T46">
-        <v>0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="U46">
-        <v>-0.1953125</v>
+        <v>0.1953125</v>
       </c>
       <c r="V46">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="47" spans="1:22">
@@ -2805,28 +2805,28 @@
         <v>5</v>
       </c>
       <c r="O47">
-        <v>0.1171875</v>
+        <v>-0.1171875</v>
       </c>
       <c r="P47">
         <v>0.2083333333333333</v>
       </c>
       <c r="Q47">
-        <v>0.0390625</v>
+        <v>-0.0390625</v>
       </c>
       <c r="R47">
         <v>0.2083333333333333</v>
       </c>
       <c r="S47">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="T47">
         <v>0.2083333333333333</v>
       </c>
       <c r="U47">
-        <v>-0.1953125</v>
+        <v>0.1953125</v>
       </c>
       <c r="V47">
-        <v>0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="48" spans="1:22">
@@ -2855,28 +2855,28 @@
         <v>3</v>
       </c>
       <c r="O48">
-        <v>-0.1953125</v>
+        <v>0.0390625</v>
       </c>
       <c r="P48">
-        <v>0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="Q48">
-        <v>-0.1171875</v>
+        <v>-0.0390625</v>
       </c>
       <c r="R48">
-        <v>0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="S48">
-        <v>-0.1953125</v>
+        <v>0.0390625</v>
       </c>
       <c r="T48">
         <v>0.06944444444444445</v>
       </c>
       <c r="U48">
-        <v>0.1171875</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V48">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="49" spans="1:22">
@@ -2905,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="O49">
-        <v>0.1171875</v>
+        <v>0.1953125</v>
       </c>
       <c r="P49">
         <v>0.06944444444444445</v>
@@ -2914,13 +2914,13 @@
         <v>0.1171875</v>
       </c>
       <c r="R49">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="S49">
-        <v>0.1171875</v>
+        <v>0.1953125</v>
       </c>
       <c r="T49">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="U49">
         <v>-0.1953125</v>
@@ -2958,22 +2958,22 @@
         <v>-0.1953125</v>
       </c>
       <c r="P50">
-        <v>0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="Q50">
-        <v>-0.1953125</v>
+        <v>-0.1171875</v>
       </c>
       <c r="R50">
         <v>0.2083333333333333</v>
       </c>
       <c r="S50">
-        <v>-0.1171875</v>
+        <v>-0.1953125</v>
       </c>
       <c r="T50">
         <v>0.06944444444444445</v>
       </c>
       <c r="U50">
-        <v>0.1953125</v>
+        <v>0.1171875</v>
       </c>
       <c r="V50">
         <v>0.06944444444444445</v>
@@ -3005,28 +3005,28 @@
         <v>0</v>
       </c>
       <c r="O51">
-        <v>0.1171875</v>
+        <v>-0.0390625</v>
       </c>
       <c r="P51">
-        <v>0.06944444444444445</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="Q51">
-        <v>0.1953125</v>
+        <v>0.0390625</v>
       </c>
       <c r="R51">
-        <v>0.06944444444444445</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="S51">
-        <v>0.0390625</v>
+        <v>-0.0390625</v>
       </c>
       <c r="T51">
-        <v>0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="U51">
-        <v>-0.1953125</v>
+        <v>0.1953125</v>
       </c>
       <c r="V51">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="52" spans="1:22">
@@ -3055,28 +3055,28 @@
         <v>0</v>
       </c>
       <c r="O52">
-        <v>-0.1953125</v>
+        <v>0.0390625</v>
       </c>
       <c r="P52">
-        <v>0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="Q52">
-        <v>-0.1171875</v>
+        <v>-0.0390625</v>
       </c>
       <c r="R52">
-        <v>0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="S52">
-        <v>-0.1953125</v>
+        <v>0.0390625</v>
       </c>
       <c r="T52">
         <v>0.06944444444444445</v>
       </c>
       <c r="U52">
-        <v>0.1171875</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V52">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="53" spans="1:22">
@@ -3105,28 +3105,28 @@
         <v>0</v>
       </c>
       <c r="O53">
-        <v>0.1171875</v>
+        <v>-0.1171875</v>
       </c>
       <c r="P53">
         <v>0.2083333333333333</v>
       </c>
       <c r="Q53">
-        <v>0.0390625</v>
+        <v>-0.0390625</v>
       </c>
       <c r="R53">
         <v>0.2083333333333333</v>
       </c>
       <c r="S53">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="T53">
         <v>0.2083333333333333</v>
       </c>
       <c r="U53">
-        <v>-0.1953125</v>
+        <v>0.1953125</v>
       </c>
       <c r="V53">
-        <v>0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="54" spans="1:22">
@@ -3155,7 +3155,7 @@
         <v>1</v>
       </c>
       <c r="O54">
-        <v>-0.0390625</v>
+        <v>-0.1171875</v>
       </c>
       <c r="P54">
         <v>0.2083333333333333</v>
@@ -3164,10 +3164,10 @@
         <v>-0.1171875</v>
       </c>
       <c r="R54">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="S54">
-        <v>0.0390625</v>
+        <v>-0.0390625</v>
       </c>
       <c r="T54">
         <v>0.2083333333333333</v>
@@ -3205,19 +3205,19 @@
         <v>3</v>
       </c>
       <c r="O55">
-        <v>0.1953125</v>
+        <v>0.1171875</v>
       </c>
       <c r="P55">
         <v>-0.06944444444444445</v>
       </c>
       <c r="Q55">
-        <v>0.1953125</v>
+        <v>0.1171875</v>
       </c>
       <c r="R55">
         <v>-0.2083333333333333</v>
       </c>
       <c r="S55">
-        <v>0.1171875</v>
+        <v>0.0390625</v>
       </c>
       <c r="T55">
         <v>-0.06944444444444445</v>
@@ -3226,7 +3226,7 @@
         <v>-0.1953125</v>
       </c>
       <c r="V55">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="56" spans="1:22">
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="O56">
-        <v>-0.0390625</v>
+        <v>-0.1171875</v>
       </c>
       <c r="P56">
         <v>0.2083333333333333</v>
@@ -3264,10 +3264,10 @@
         <v>-0.1171875</v>
       </c>
       <c r="R56">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="S56">
-        <v>0.0390625</v>
+        <v>-0.0390625</v>
       </c>
       <c r="T56">
         <v>0.2083333333333333</v>
@@ -3305,28 +3305,28 @@
         <v>2</v>
       </c>
       <c r="O57">
-        <v>0.0390625</v>
+        <v>-0.1171875</v>
       </c>
       <c r="P57">
-        <v>-0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="Q57">
-        <v>0.1171875</v>
+        <v>-0.1953125</v>
       </c>
       <c r="R57">
-        <v>-0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="S57">
-        <v>0.0390625</v>
+        <v>-0.1171875</v>
       </c>
       <c r="T57">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="U57">
         <v>0.1953125</v>
       </c>
       <c r="V57">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="58" spans="1:22">
@@ -3355,22 +3355,22 @@
         <v>2</v>
       </c>
       <c r="O58">
-        <v>-0.1953125</v>
+        <v>-0.1171875</v>
       </c>
       <c r="P58">
         <v>0.06944444444444445</v>
       </c>
       <c r="Q58">
-        <v>-0.1953125</v>
+        <v>-0.0390625</v>
       </c>
       <c r="R58">
-        <v>-0.06944444444444445</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="S58">
         <v>-0.1171875</v>
       </c>
       <c r="T58">
-        <v>0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="U58">
         <v>0.1953125</v>
@@ -3405,19 +3405,19 @@
         <v>0</v>
       </c>
       <c r="O59">
-        <v>0.1953125</v>
+        <v>0.1171875</v>
       </c>
       <c r="P59">
         <v>-0.06944444444444445</v>
       </c>
       <c r="Q59">
-        <v>0.1953125</v>
+        <v>0.1171875</v>
       </c>
       <c r="R59">
         <v>-0.2083333333333333</v>
       </c>
       <c r="S59">
-        <v>0.1171875</v>
+        <v>0.0390625</v>
       </c>
       <c r="T59">
         <v>-0.06944444444444445</v>
@@ -3426,7 +3426,7 @@
         <v>-0.1953125</v>
       </c>
       <c r="V59">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="60" spans="1:22">
@@ -3455,28 +3455,28 @@
         <v>0</v>
       </c>
       <c r="O60">
-        <v>0.0390625</v>
+        <v>-0.1171875</v>
       </c>
       <c r="P60">
-        <v>-0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="Q60">
-        <v>0.1171875</v>
+        <v>-0.1953125</v>
       </c>
       <c r="R60">
-        <v>-0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="S60">
-        <v>0.0390625</v>
+        <v>-0.1171875</v>
       </c>
       <c r="T60">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="U60">
         <v>0.1953125</v>
       </c>
       <c r="V60">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="61" spans="1:22">
@@ -3505,22 +3505,22 @@
         <v>0</v>
       </c>
       <c r="O61">
-        <v>-0.1953125</v>
+        <v>-0.1171875</v>
       </c>
       <c r="P61">
         <v>0.06944444444444445</v>
       </c>
       <c r="Q61">
-        <v>-0.1953125</v>
+        <v>-0.0390625</v>
       </c>
       <c r="R61">
-        <v>-0.06944444444444445</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="S61">
         <v>-0.1171875</v>
       </c>
       <c r="T61">
-        <v>0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="U61">
         <v>0.1953125</v>
@@ -3555,25 +3555,25 @@
         <v>1</v>
       </c>
       <c r="O62">
-        <v>0.1171875</v>
+        <v>0.0390625</v>
       </c>
       <c r="P62">
-        <v>0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="Q62">
-        <v>0.0390625</v>
+        <v>0.1171875</v>
       </c>
       <c r="R62">
-        <v>0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="S62">
-        <v>0.1171875</v>
+        <v>0.0390625</v>
       </c>
       <c r="T62">
-        <v>-0.06944444444444445</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="U62">
-        <v>-0.1953125</v>
+        <v>0.1953125</v>
       </c>
       <c r="V62">
         <v>-0.2083333333333333</v>
@@ -3605,7 +3605,7 @@
         <v>1</v>
       </c>
       <c r="O63">
-        <v>0.1953125</v>
+        <v>0.0390625</v>
       </c>
       <c r="P63">
         <v>0.06944444444444445</v>
@@ -3617,16 +3617,16 @@
         <v>0.06944444444444445</v>
       </c>
       <c r="S63">
-        <v>0.1953125</v>
+        <v>0.0390625</v>
       </c>
       <c r="T63">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="U63">
         <v>-0.1953125</v>
       </c>
       <c r="V63">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="64" spans="1:22">
@@ -3655,25 +3655,25 @@
         <v>0</v>
       </c>
       <c r="O64">
-        <v>0.1171875</v>
+        <v>0.0390625</v>
       </c>
       <c r="P64">
-        <v>0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="Q64">
-        <v>0.0390625</v>
+        <v>0.1171875</v>
       </c>
       <c r="R64">
-        <v>0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="S64">
-        <v>0.1171875</v>
+        <v>0.0390625</v>
       </c>
       <c r="T64">
-        <v>-0.06944444444444445</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="U64">
-        <v>-0.1953125</v>
+        <v>0.1953125</v>
       </c>
       <c r="V64">
         <v>-0.2083333333333333</v>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="O65">
-        <v>0.1953125</v>
+        <v>0.0390625</v>
       </c>
       <c r="P65">
         <v>0.06944444444444445</v>
@@ -3717,16 +3717,16 @@
         <v>0.06944444444444445</v>
       </c>
       <c r="S65">
-        <v>0.1953125</v>
+        <v>0.0390625</v>
       </c>
       <c r="T65">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="U65">
         <v>-0.1953125</v>
       </c>
       <c r="V65">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="66" spans="1:22">
@@ -3755,28 +3755,28 @@
         <v>0</v>
       </c>
       <c r="O66">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="P66">
         <v>0.06944444444444445</v>
       </c>
       <c r="Q66">
-        <v>-0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="R66">
         <v>0.06944444444444445</v>
       </c>
       <c r="S66">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="T66">
         <v>-0.06944444444444445</v>
       </c>
       <c r="U66">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V66">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="67" spans="1:22">
@@ -3811,16 +3811,16 @@
         <v>-0.2083333333333333</v>
       </c>
       <c r="Q67">
+        <v>-0.1171875</v>
+      </c>
+      <c r="R67">
+        <v>-0.06944444444444445</v>
+      </c>
+      <c r="S67">
         <v>-0.0390625</v>
       </c>
-      <c r="R67">
-        <v>-0.2083333333333333</v>
-      </c>
-      <c r="S67">
-        <v>-0.1171875</v>
-      </c>
       <c r="T67">
-        <v>-0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="U67">
         <v>0.1171875</v>
@@ -3855,16 +3855,16 @@
         <v>4</v>
       </c>
       <c r="O68">
-        <v>0.1171875</v>
+        <v>0.1953125</v>
       </c>
       <c r="P68">
-        <v>-0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="Q68">
-        <v>0.0390625</v>
+        <v>0.1171875</v>
       </c>
       <c r="R68">
-        <v>-0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="S68">
         <v>0.1953125</v>
@@ -3876,7 +3876,7 @@
         <v>-0.1953125</v>
       </c>
       <c r="V68">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="69" spans="1:22">
@@ -3905,28 +3905,28 @@
         <v>5</v>
       </c>
       <c r="O69">
-        <v>-0.0390625</v>
+        <v>0.1171875</v>
       </c>
       <c r="P69">
-        <v>0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="Q69">
-        <v>-0.0390625</v>
+        <v>0.1171875</v>
       </c>
       <c r="R69">
         <v>-0.06944444444444445</v>
       </c>
       <c r="S69">
-        <v>-0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="T69">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="U69">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V69">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="70" spans="1:22">
@@ -3955,25 +3955,25 @@
         <v>3</v>
       </c>
       <c r="O70">
+        <v>-0.1171875</v>
+      </c>
+      <c r="P70">
+        <v>-0.06944444444444445</v>
+      </c>
+      <c r="Q70">
         <v>-0.0390625</v>
       </c>
-      <c r="P70">
-        <v>-0.2083333333333333</v>
-      </c>
-      <c r="Q70">
-        <v>0.0390625</v>
-      </c>
       <c r="R70">
-        <v>-0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="S70">
-        <v>-0.0390625</v>
+        <v>-0.1953125</v>
       </c>
       <c r="T70">
         <v>-0.06944444444444445</v>
       </c>
       <c r="U70">
-        <v>0.1953125</v>
+        <v>0.1171875</v>
       </c>
       <c r="V70">
         <v>0.2083333333333333</v>
@@ -4005,28 +4005,28 @@
         <v>5</v>
       </c>
       <c r="O71">
-        <v>0.0390625</v>
+        <v>-0.1953125</v>
       </c>
       <c r="P71">
-        <v>0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="Q71">
-        <v>0.0390625</v>
+        <v>-0.1953125</v>
       </c>
       <c r="R71">
-        <v>0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="S71">
-        <v>-0.0390625</v>
+        <v>-0.1171875</v>
       </c>
       <c r="T71">
-        <v>0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="U71">
-        <v>-0.1171875</v>
+        <v>0.1953125</v>
       </c>
       <c r="V71">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="72" spans="1:22">
@@ -4061,16 +4061,16 @@
         <v>-0.2083333333333333</v>
       </c>
       <c r="Q72">
+        <v>-0.1171875</v>
+      </c>
+      <c r="R72">
+        <v>-0.06944444444444445</v>
+      </c>
+      <c r="S72">
         <v>-0.0390625</v>
       </c>
-      <c r="R72">
-        <v>-0.2083333333333333</v>
-      </c>
-      <c r="S72">
-        <v>-0.1171875</v>
-      </c>
       <c r="T72">
-        <v>-0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="U72">
         <v>0.1171875</v>
@@ -4105,16 +4105,16 @@
         <v>0</v>
       </c>
       <c r="O73">
-        <v>0.1171875</v>
+        <v>0.1953125</v>
       </c>
       <c r="P73">
-        <v>-0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="Q73">
-        <v>0.0390625</v>
+        <v>0.1171875</v>
       </c>
       <c r="R73">
-        <v>-0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="S73">
         <v>0.1953125</v>
@@ -4126,7 +4126,7 @@
         <v>-0.1953125</v>
       </c>
       <c r="V73">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="74" spans="1:22">
@@ -4155,25 +4155,25 @@
         <v>0</v>
       </c>
       <c r="O74">
+        <v>-0.1171875</v>
+      </c>
+      <c r="P74">
+        <v>-0.06944444444444445</v>
+      </c>
+      <c r="Q74">
         <v>-0.0390625</v>
       </c>
-      <c r="P74">
-        <v>-0.2083333333333333</v>
-      </c>
-      <c r="Q74">
-        <v>0.0390625</v>
-      </c>
       <c r="R74">
-        <v>-0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="S74">
-        <v>-0.0390625</v>
+        <v>-0.1953125</v>
       </c>
       <c r="T74">
         <v>-0.06944444444444445</v>
       </c>
       <c r="U74">
-        <v>0.1953125</v>
+        <v>0.1171875</v>
       </c>
       <c r="V74">
         <v>0.2083333333333333</v>
@@ -4205,28 +4205,28 @@
         <v>0</v>
       </c>
       <c r="O75">
-        <v>-0.0390625</v>
+        <v>0.1171875</v>
       </c>
       <c r="P75">
-        <v>0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="Q75">
-        <v>-0.0390625</v>
+        <v>0.1171875</v>
       </c>
       <c r="R75">
         <v>-0.06944444444444445</v>
       </c>
       <c r="S75">
-        <v>-0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="T75">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="U75">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V75">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="76" spans="1:22">
@@ -4255,28 +4255,28 @@
         <v>3</v>
       </c>
       <c r="O76">
-        <v>-0.1953125</v>
+        <v>0.1171875</v>
       </c>
       <c r="P76">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="Q76">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="R76">
-        <v>-0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="S76">
-        <v>-0.1953125</v>
+        <v>0.0390625</v>
       </c>
       <c r="T76">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="U76">
-        <v>0.0390625</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V76">
-        <v>0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
     </row>
     <row r="77" spans="1:22">
@@ -4305,28 +4305,28 @@
         <v>0</v>
       </c>
       <c r="O77">
-        <v>0.0390625</v>
+        <v>-0.1953125</v>
       </c>
       <c r="P77">
-        <v>0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="Q77">
-        <v>0.0390625</v>
+        <v>-0.1953125</v>
       </c>
       <c r="R77">
-        <v>0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="S77">
-        <v>-0.0390625</v>
+        <v>-0.1171875</v>
       </c>
       <c r="T77">
-        <v>0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="U77">
-        <v>-0.1171875</v>
+        <v>0.1953125</v>
       </c>
       <c r="V77">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="78" spans="1:22">
@@ -4373,7 +4373,7 @@
         <v>-0.06944444444444445</v>
       </c>
       <c r="U78">
-        <v>0.1953125</v>
+        <v>0.0390625</v>
       </c>
       <c r="V78">
         <v>0.06944444444444445</v>
@@ -4405,28 +4405,28 @@
         <v>1</v>
       </c>
       <c r="O79">
-        <v>0.1171875</v>
+        <v>-0.0390625</v>
       </c>
       <c r="P79">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="Q79">
-        <v>0.1171875</v>
+        <v>-0.0390625</v>
       </c>
       <c r="R79">
-        <v>0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="S79">
         <v>0.0390625</v>
       </c>
       <c r="T79">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="U79">
-        <v>-0.1953125</v>
+        <v>0.1953125</v>
       </c>
       <c r="V79">
-        <v>0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="80" spans="1:22">
@@ -4455,28 +4455,28 @@
         <v>0</v>
       </c>
       <c r="O80">
-        <v>-0.1953125</v>
+        <v>0.1171875</v>
       </c>
       <c r="P80">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="Q80">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="R80">
-        <v>-0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="S80">
-        <v>-0.1953125</v>
+        <v>0.0390625</v>
       </c>
       <c r="T80">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="U80">
-        <v>0.0390625</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V80">
-        <v>0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
     </row>
     <row r="81" spans="1:22">
@@ -4505,28 +4505,28 @@
         <v>0</v>
       </c>
       <c r="O81">
-        <v>0.1171875</v>
+        <v>-0.0390625</v>
       </c>
       <c r="P81">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="Q81">
-        <v>0.1171875</v>
+        <v>-0.0390625</v>
       </c>
       <c r="R81">
-        <v>0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="S81">
         <v>0.0390625</v>
       </c>
       <c r="T81">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="U81">
-        <v>-0.1953125</v>
+        <v>0.1953125</v>
       </c>
       <c r="V81">
-        <v>0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="82" spans="1:22">
@@ -4558,10 +4558,10 @@
         <v>0.0390625</v>
       </c>
       <c r="P82">
-        <v>-0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="Q82">
-        <v>0.0390625</v>
+        <v>-0.0390625</v>
       </c>
       <c r="R82">
         <v>-0.2083333333333333</v>
@@ -4570,13 +4570,13 @@
         <v>0.0390625</v>
       </c>
       <c r="T82">
-        <v>0.06944444444444445</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="U82">
         <v>-0.1953125</v>
       </c>
       <c r="V82">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="83" spans="1:22">
@@ -4605,28 +4605,28 @@
         <v>2</v>
       </c>
       <c r="O83">
-        <v>-0.1171875</v>
+        <v>-0.0390625</v>
       </c>
       <c r="P83">
-        <v>-0.06944444444444445</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="Q83">
-        <v>-0.1171875</v>
+        <v>0.0390625</v>
       </c>
       <c r="R83">
         <v>0.06944444444444445</v>
       </c>
       <c r="S83">
-        <v>-0.1171875</v>
+        <v>-0.0390625</v>
       </c>
       <c r="T83">
-        <v>-0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="U83">
         <v>0.1953125</v>
       </c>
       <c r="V83">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="84" spans="1:22">
@@ -4673,7 +4673,7 @@
         <v>-0.06944444444444445</v>
       </c>
       <c r="U84">
-        <v>0.1953125</v>
+        <v>0.0390625</v>
       </c>
       <c r="V84">
         <v>0.06944444444444445</v>
@@ -4708,10 +4708,10 @@
         <v>0.0390625</v>
       </c>
       <c r="P85">
-        <v>-0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="Q85">
-        <v>0.0390625</v>
+        <v>-0.0390625</v>
       </c>
       <c r="R85">
         <v>-0.2083333333333333</v>
@@ -4720,13 +4720,13 @@
         <v>0.0390625</v>
       </c>
       <c r="T85">
-        <v>0.06944444444444445</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="U85">
         <v>-0.1953125</v>
       </c>
       <c r="V85">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="86" spans="1:22">
@@ -4755,28 +4755,28 @@
         <v>0</v>
       </c>
       <c r="O86">
-        <v>-0.1171875</v>
+        <v>-0.0390625</v>
       </c>
       <c r="P86">
-        <v>-0.06944444444444445</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="Q86">
-        <v>-0.1171875</v>
+        <v>0.0390625</v>
       </c>
       <c r="R86">
         <v>0.06944444444444445</v>
       </c>
       <c r="S86">
-        <v>-0.1171875</v>
+        <v>-0.0390625</v>
       </c>
       <c r="T86">
-        <v>-0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="U86">
         <v>0.1953125</v>
       </c>
       <c r="V86">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="87" spans="1:22">
@@ -4805,28 +4805,28 @@
         <v>1</v>
       </c>
       <c r="O87">
-        <v>-0.1953125</v>
+        <v>-0.0390625</v>
       </c>
       <c r="P87">
-        <v>-0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="Q87">
-        <v>-0.1953125</v>
+        <v>-0.1171875</v>
       </c>
       <c r="R87">
-        <v>-0.06944444444444445</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="S87">
-        <v>-0.1171875</v>
+        <v>-0.0390625</v>
       </c>
       <c r="T87">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="U87">
-        <v>0.1171875</v>
+        <v>0.1953125</v>
       </c>
       <c r="V87">
-        <v>0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="88" spans="1:22">
@@ -4855,28 +4855,28 @@
         <v>1</v>
       </c>
       <c r="O88">
-        <v>-0.1171875</v>
+        <v>0.0390625</v>
       </c>
       <c r="P88">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="Q88">
-        <v>-0.1171875</v>
+        <v>0.0390625</v>
       </c>
       <c r="R88">
-        <v>-0.06944444444444445</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="S88">
         <v>-0.0390625</v>
       </c>
       <c r="T88">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="U88">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V88">
-        <v>0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
     </row>
     <row r="89" spans="1:22">
@@ -4905,28 +4905,28 @@
         <v>0</v>
       </c>
       <c r="O89">
-        <v>-0.1953125</v>
+        <v>-0.0390625</v>
       </c>
       <c r="P89">
-        <v>-0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="Q89">
-        <v>-0.1953125</v>
+        <v>-0.1171875</v>
       </c>
       <c r="R89">
-        <v>-0.06944444444444445</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="S89">
-        <v>-0.1171875</v>
+        <v>-0.0390625</v>
       </c>
       <c r="T89">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="U89">
-        <v>0.1171875</v>
+        <v>0.1953125</v>
       </c>
       <c r="V89">
-        <v>0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="90" spans="1:22">
@@ -4955,28 +4955,28 @@
         <v>0</v>
       </c>
       <c r="O90">
-        <v>-0.1171875</v>
+        <v>0.0390625</v>
       </c>
       <c r="P90">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="Q90">
-        <v>-0.1171875</v>
+        <v>0.0390625</v>
       </c>
       <c r="R90">
-        <v>-0.06944444444444445</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="S90">
         <v>-0.0390625</v>
       </c>
       <c r="T90">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="U90">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V90">
-        <v>0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
     </row>
     <row r="91" spans="1:22">
@@ -5005,28 +5005,28 @@
         <v>4</v>
       </c>
       <c r="O91">
-        <v>-0.1953125</v>
+        <v>0.0390625</v>
       </c>
       <c r="P91">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="Q91">
+        <v>0.1171875</v>
+      </c>
+      <c r="R91">
+        <v>-0.2083333333333333</v>
+      </c>
+      <c r="S91">
+        <v>0.0390625</v>
+      </c>
+      <c r="T91">
+        <v>-0.06944444444444445</v>
+      </c>
+      <c r="U91">
         <v>-0.1171875</v>
       </c>
-      <c r="R91">
-        <v>0.2083333333333333</v>
-      </c>
-      <c r="S91">
-        <v>-0.1953125</v>
-      </c>
-      <c r="T91">
-        <v>0.06944444444444445</v>
-      </c>
-      <c r="U91">
-        <v>0.1953125</v>
-      </c>
       <c r="V91">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="92" spans="1:22">
@@ -5055,25 +5055,25 @@
         <v>2</v>
       </c>
       <c r="O92">
-        <v>0.0390625</v>
+        <v>-0.1953125</v>
       </c>
       <c r="P92">
         <v>-0.2083333333333333</v>
       </c>
       <c r="Q92">
-        <v>-0.0390625</v>
+        <v>-0.1953125</v>
       </c>
       <c r="R92">
-        <v>-0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="S92">
-        <v>0.0390625</v>
+        <v>-0.1171875</v>
       </c>
       <c r="T92">
-        <v>-0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="U92">
-        <v>-0.1953125</v>
+        <v>0.1171875</v>
       </c>
       <c r="V92">
         <v>0.2083333333333333</v>
@@ -5114,19 +5114,19 @@
         <v>-0.1953125</v>
       </c>
       <c r="R93">
-        <v>0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="S93">
-        <v>-0.1953125</v>
+        <v>-0.1171875</v>
       </c>
       <c r="T93">
-        <v>-0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="U93">
-        <v>0.1953125</v>
+        <v>0.1171875</v>
       </c>
       <c r="V93">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="94" spans="1:22">
@@ -5155,28 +5155,28 @@
         <v>0</v>
       </c>
       <c r="O94">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="P94">
         <v>0.06944444444444445</v>
       </c>
       <c r="Q94">
-        <v>-0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="R94">
         <v>0.06944444444444445</v>
       </c>
       <c r="S94">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="T94">
         <v>-0.06944444444444445</v>
       </c>
       <c r="U94">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V94">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="95" spans="1:22">
@@ -5205,28 +5205,28 @@
         <v>0</v>
       </c>
       <c r="O95">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="P95">
         <v>0.06944444444444445</v>
       </c>
       <c r="Q95">
-        <v>-0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="R95">
         <v>0.06944444444444445</v>
       </c>
       <c r="S95">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="T95">
         <v>-0.06944444444444445</v>
       </c>
       <c r="U95">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V95">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="96" spans="1:22">
@@ -5255,28 +5255,28 @@
         <v>0</v>
       </c>
       <c r="O96">
-        <v>-0.1953125</v>
+        <v>0.0390625</v>
       </c>
       <c r="P96">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="Q96">
+        <v>0.1171875</v>
+      </c>
+      <c r="R96">
+        <v>-0.2083333333333333</v>
+      </c>
+      <c r="S96">
+        <v>0.0390625</v>
+      </c>
+      <c r="T96">
+        <v>-0.06944444444444445</v>
+      </c>
+      <c r="U96">
         <v>-0.1171875</v>
       </c>
-      <c r="R96">
-        <v>0.2083333333333333</v>
-      </c>
-      <c r="S96">
-        <v>-0.1953125</v>
-      </c>
-      <c r="T96">
-        <v>0.06944444444444445</v>
-      </c>
-      <c r="U96">
-        <v>0.1953125</v>
-      </c>
       <c r="V96">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="97" spans="1:22">
@@ -5314,19 +5314,19 @@
         <v>-0.1953125</v>
       </c>
       <c r="R97">
-        <v>0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="S97">
-        <v>-0.1953125</v>
+        <v>-0.1171875</v>
       </c>
       <c r="T97">
-        <v>-0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="U97">
-        <v>0.1953125</v>
+        <v>0.1171875</v>
       </c>
       <c r="V97">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="98" spans="1:22">
@@ -5355,19 +5355,19 @@
         <v>3</v>
       </c>
       <c r="O98">
-        <v>0.1953125</v>
+        <v>0.1171875</v>
       </c>
       <c r="P98">
-        <v>-0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="Q98">
-        <v>0.1953125</v>
+        <v>0.1171875</v>
       </c>
       <c r="R98">
-        <v>0.06944444444444445</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="S98">
-        <v>0.1953125</v>
+        <v>0.0390625</v>
       </c>
       <c r="T98">
         <v>-0.2083333333333333</v>
@@ -5376,7 +5376,7 @@
         <v>-0.1953125</v>
       </c>
       <c r="V98">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="99" spans="1:22">
@@ -5405,25 +5405,25 @@
         <v>4</v>
       </c>
       <c r="O99">
-        <v>0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="P99">
-        <v>0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="Q99">
-        <v>0.0390625</v>
+        <v>0.1171875</v>
       </c>
       <c r="R99">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="S99">
-        <v>0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="T99">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="U99">
-        <v>-0.1953125</v>
+        <v>-0.1171875</v>
       </c>
       <c r="V99">
         <v>-0.2083333333333333</v>
@@ -5455,28 +5455,28 @@
         <v>5</v>
       </c>
       <c r="O100">
-        <v>0.1171875</v>
+        <v>0.0390625</v>
       </c>
       <c r="P100">
-        <v>-0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="Q100">
-        <v>0.1171875</v>
+        <v>-0.0390625</v>
       </c>
       <c r="R100">
-        <v>-0.06944444444444445</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="S100">
-        <v>0.0390625</v>
+        <v>0.1171875</v>
       </c>
       <c r="T100">
-        <v>-0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="U100">
         <v>-0.1953125</v>
       </c>
       <c r="V100">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="101" spans="1:22">
@@ -5505,16 +5505,16 @@
         <v>1</v>
       </c>
       <c r="O101">
-        <v>0.1953125</v>
+        <v>0.0390625</v>
       </c>
       <c r="P101">
         <v>-0.2083333333333333</v>
       </c>
       <c r="Q101">
-        <v>0.1953125</v>
+        <v>-0.0390625</v>
       </c>
       <c r="R101">
-        <v>-0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="S101">
         <v>0.1171875</v>
@@ -5523,10 +5523,10 @@
         <v>-0.2083333333333333</v>
       </c>
       <c r="U101">
-        <v>-0.1953125</v>
+        <v>0.1953125</v>
       </c>
       <c r="V101">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="102" spans="1:22">
@@ -5555,19 +5555,19 @@
         <v>0</v>
       </c>
       <c r="O102">
-        <v>0.1953125</v>
+        <v>0.1171875</v>
       </c>
       <c r="P102">
-        <v>-0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="Q102">
-        <v>0.1953125</v>
+        <v>0.1171875</v>
       </c>
       <c r="R102">
-        <v>0.06944444444444445</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="S102">
-        <v>0.1953125</v>
+        <v>0.0390625</v>
       </c>
       <c r="T102">
         <v>-0.2083333333333333</v>
@@ -5576,7 +5576,7 @@
         <v>-0.1953125</v>
       </c>
       <c r="V102">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="103" spans="1:22">
@@ -5605,16 +5605,16 @@
         <v>0</v>
       </c>
       <c r="O103">
-        <v>0.1953125</v>
+        <v>0.0390625</v>
       </c>
       <c r="P103">
         <v>-0.2083333333333333</v>
       </c>
       <c r="Q103">
-        <v>0.1953125</v>
+        <v>-0.0390625</v>
       </c>
       <c r="R103">
-        <v>-0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="S103">
         <v>0.1171875</v>
@@ -5623,10 +5623,10 @@
         <v>-0.2083333333333333</v>
       </c>
       <c r="U103">
-        <v>-0.1953125</v>
+        <v>0.1953125</v>
       </c>
       <c r="V103">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="104" spans="1:22">
@@ -5655,25 +5655,25 @@
         <v>0</v>
       </c>
       <c r="O104">
-        <v>0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="P104">
-        <v>0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="Q104">
-        <v>0.0390625</v>
+        <v>0.1171875</v>
       </c>
       <c r="R104">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="S104">
-        <v>0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="T104">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="U104">
-        <v>-0.1953125</v>
+        <v>-0.1171875</v>
       </c>
       <c r="V104">
         <v>-0.2083333333333333</v>
@@ -5705,28 +5705,28 @@
         <v>2</v>
       </c>
       <c r="O105">
+        <v>-0.1171875</v>
+      </c>
+      <c r="P105">
+        <v>-0.2083333333333333</v>
+      </c>
+      <c r="Q105">
+        <v>-0.1171875</v>
+      </c>
+      <c r="R105">
+        <v>-0.06944444444444445</v>
+      </c>
+      <c r="S105">
         <v>-0.0390625</v>
       </c>
-      <c r="P105">
-        <v>0.06944444444444445</v>
-      </c>
-      <c r="Q105">
-        <v>-0.0390625</v>
-      </c>
-      <c r="R105">
-        <v>0.2083333333333333</v>
-      </c>
-      <c r="S105">
-        <v>-0.1171875</v>
-      </c>
       <c r="T105">
-        <v>0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="U105">
-        <v>0.1953125</v>
+        <v>0.1171875</v>
       </c>
       <c r="V105">
-        <v>-0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="106" spans="1:22">
@@ -5755,28 +5755,28 @@
         <v>0</v>
       </c>
       <c r="O106">
-        <v>0.1171875</v>
+        <v>0.0390625</v>
       </c>
       <c r="P106">
-        <v>-0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="Q106">
-        <v>0.1171875</v>
+        <v>-0.0390625</v>
       </c>
       <c r="R106">
-        <v>-0.06944444444444445</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="S106">
-        <v>0.0390625</v>
+        <v>0.1171875</v>
       </c>
       <c r="T106">
-        <v>-0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="U106">
         <v>-0.1953125</v>
       </c>
       <c r="V106">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="107" spans="1:22">
@@ -5805,28 +5805,28 @@
         <v>1</v>
       </c>
       <c r="O107">
-        <v>0.0390625</v>
+        <v>0.1171875</v>
       </c>
       <c r="P107">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="Q107">
         <v>0.0390625</v>
       </c>
       <c r="R107">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="S107">
-        <v>-0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="T107">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="U107">
-        <v>0.1953125</v>
+        <v>-0.1171875</v>
       </c>
       <c r="V107">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="108" spans="1:22">
@@ -5855,28 +5855,28 @@
         <v>0</v>
       </c>
       <c r="O108">
+        <v>-0.1171875</v>
+      </c>
+      <c r="P108">
+        <v>-0.2083333333333333</v>
+      </c>
+      <c r="Q108">
+        <v>-0.1171875</v>
+      </c>
+      <c r="R108">
+        <v>-0.06944444444444445</v>
+      </c>
+      <c r="S108">
         <v>-0.0390625</v>
       </c>
-      <c r="P108">
-        <v>0.06944444444444445</v>
-      </c>
-      <c r="Q108">
-        <v>-0.0390625</v>
-      </c>
-      <c r="R108">
-        <v>0.2083333333333333</v>
-      </c>
-      <c r="S108">
-        <v>-0.1171875</v>
-      </c>
       <c r="T108">
-        <v>0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="U108">
-        <v>0.1953125</v>
+        <v>0.1171875</v>
       </c>
       <c r="V108">
-        <v>-0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="109" spans="1:22">
@@ -5905,28 +5905,28 @@
         <v>0</v>
       </c>
       <c r="O109">
-        <v>0.0390625</v>
+        <v>0.1171875</v>
       </c>
       <c r="P109">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="Q109">
         <v>0.0390625</v>
       </c>
       <c r="R109">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="S109">
-        <v>-0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="T109">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="U109">
-        <v>0.1953125</v>
+        <v>-0.1171875</v>
       </c>
       <c r="V109">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="110" spans="1:22">
@@ -5958,22 +5958,22 @@
         <v>0.0390625</v>
       </c>
       <c r="P110">
-        <v>0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="Q110">
-        <v>-0.0390625</v>
+        <v>0.0390625</v>
       </c>
       <c r="R110">
         <v>0.06944444444444445</v>
       </c>
       <c r="S110">
-        <v>0.0390625</v>
+        <v>0.1171875</v>
       </c>
       <c r="T110">
         <v>0.2083333333333333</v>
       </c>
       <c r="U110">
-        <v>-0.1953125</v>
+        <v>0.1953125</v>
       </c>
       <c r="V110">
         <v>-0.2083333333333333</v>
@@ -6005,28 +6005,28 @@
         <v>2</v>
       </c>
       <c r="O111">
-        <v>-0.0390625</v>
+        <v>-0.1953125</v>
       </c>
       <c r="P111">
-        <v>0.06944444444444445</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="Q111">
         <v>-0.1171875</v>
       </c>
       <c r="R111">
-        <v>0.06944444444444445</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="S111">
-        <v>0.0390625</v>
+        <v>-0.1953125</v>
       </c>
       <c r="T111">
-        <v>0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="U111">
         <v>0.1953125</v>
       </c>
       <c r="V111">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="112" spans="1:22">
@@ -6058,25 +6058,25 @@
         <v>0.0390625</v>
       </c>
       <c r="P112">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="Q112">
         <v>0.0390625</v>
       </c>
       <c r="R112">
-        <v>-0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="S112">
-        <v>0.1171875</v>
+        <v>-0.0390625</v>
       </c>
       <c r="T112">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="U112">
         <v>-0.1953125</v>
       </c>
       <c r="V112">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="113" spans="1:22">
@@ -6105,19 +6105,19 @@
         <v>4</v>
       </c>
       <c r="O113">
-        <v>0.1953125</v>
+        <v>0.1171875</v>
       </c>
       <c r="P113">
         <v>0.06944444444444445</v>
       </c>
       <c r="Q113">
-        <v>0.1171875</v>
+        <v>0.1953125</v>
       </c>
       <c r="R113">
         <v>0.06944444444444445</v>
       </c>
       <c r="S113">
-        <v>0.1953125</v>
+        <v>0.1171875</v>
       </c>
       <c r="T113">
         <v>-0.06944444444444445</v>
@@ -6155,28 +6155,28 @@
         <v>0</v>
       </c>
       <c r="O114">
-        <v>-0.0390625</v>
+        <v>-0.1953125</v>
       </c>
       <c r="P114">
-        <v>0.06944444444444445</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="Q114">
         <v>-0.1171875</v>
       </c>
       <c r="R114">
-        <v>0.06944444444444445</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="S114">
-        <v>0.0390625</v>
+        <v>-0.1953125</v>
       </c>
       <c r="T114">
-        <v>0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="U114">
         <v>0.1953125</v>
       </c>
       <c r="V114">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="115" spans="1:22">
@@ -6205,13 +6205,13 @@
         <v>3</v>
       </c>
       <c r="O115">
-        <v>0.1171875</v>
+        <v>0.0390625</v>
       </c>
       <c r="P115">
-        <v>-0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="Q115">
-        <v>0.1953125</v>
+        <v>0.0390625</v>
       </c>
       <c r="R115">
         <v>-0.2083333333333333</v>
@@ -6223,7 +6223,7 @@
         <v>-0.06944444444444445</v>
       </c>
       <c r="U115">
-        <v>-0.0390625</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V115">
         <v>0.2083333333333333</v>
@@ -6258,22 +6258,22 @@
         <v>0.0390625</v>
       </c>
       <c r="P116">
-        <v>0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="Q116">
-        <v>-0.0390625</v>
+        <v>0.0390625</v>
       </c>
       <c r="R116">
         <v>0.06944444444444445</v>
       </c>
       <c r="S116">
-        <v>0.0390625</v>
+        <v>0.1171875</v>
       </c>
       <c r="T116">
         <v>0.2083333333333333</v>
       </c>
       <c r="U116">
-        <v>-0.1953125</v>
+        <v>0.1953125</v>
       </c>
       <c r="V116">
         <v>-0.2083333333333333</v>
@@ -6308,25 +6308,25 @@
         <v>0.0390625</v>
       </c>
       <c r="P117">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="Q117">
         <v>0.0390625</v>
       </c>
       <c r="R117">
-        <v>-0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="S117">
-        <v>0.1171875</v>
+        <v>-0.0390625</v>
       </c>
       <c r="T117">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="U117">
         <v>-0.1953125</v>
       </c>
       <c r="V117">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="118" spans="1:22">
@@ -6355,19 +6355,19 @@
         <v>0</v>
       </c>
       <c r="O118">
-        <v>0.1953125</v>
+        <v>0.1171875</v>
       </c>
       <c r="P118">
         <v>0.06944444444444445</v>
       </c>
       <c r="Q118">
-        <v>0.1171875</v>
+        <v>0.1953125</v>
       </c>
       <c r="R118">
         <v>0.06944444444444445</v>
       </c>
       <c r="S118">
-        <v>0.1953125</v>
+        <v>0.1171875</v>
       </c>
       <c r="T118">
         <v>-0.06944444444444445</v>
@@ -6405,13 +6405,13 @@
         <v>0</v>
       </c>
       <c r="O119">
-        <v>0.1171875</v>
+        <v>0.0390625</v>
       </c>
       <c r="P119">
-        <v>-0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="Q119">
-        <v>0.1953125</v>
+        <v>0.0390625</v>
       </c>
       <c r="R119">
         <v>-0.2083333333333333</v>
@@ -6423,7 +6423,7 @@
         <v>-0.06944444444444445</v>
       </c>
       <c r="U119">
-        <v>-0.0390625</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V119">
         <v>0.2083333333333333</v>
@@ -6455,28 +6455,28 @@
         <v>3</v>
       </c>
       <c r="O120">
-        <v>0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="P120">
-        <v>-0.06944444444444445</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="Q120">
-        <v>0.0390625</v>
+        <v>0.1171875</v>
       </c>
       <c r="R120">
         <v>0.06944444444444445</v>
       </c>
       <c r="S120">
-        <v>0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="T120">
-        <v>-0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="U120">
         <v>-0.1953125</v>
       </c>
       <c r="V120">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="121" spans="1:22">
@@ -6505,28 +6505,28 @@
         <v>0</v>
       </c>
       <c r="O121">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="P121">
         <v>0.06944444444444445</v>
       </c>
       <c r="Q121">
-        <v>-0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="R121">
         <v>0.06944444444444445</v>
       </c>
       <c r="S121">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="T121">
         <v>-0.06944444444444445</v>
       </c>
       <c r="U121">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V121">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="122" spans="1:22">
@@ -6555,28 +6555,28 @@
         <v>5</v>
       </c>
       <c r="O122">
-        <v>-0.0390625</v>
+        <v>0.1171875</v>
       </c>
       <c r="P122">
-        <v>-0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="Q122">
-        <v>0.0390625</v>
+        <v>0.1171875</v>
       </c>
       <c r="R122">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="S122">
-        <v>-0.1171875</v>
+        <v>0.1953125</v>
       </c>
       <c r="T122">
-        <v>-0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="U122">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V122">
-        <v>0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="123" spans="1:22">
@@ -6605,28 +6605,28 @@
         <v>1</v>
       </c>
       <c r="O123">
-        <v>0.1171875</v>
+        <v>0.1953125</v>
       </c>
       <c r="P123">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="Q123">
         <v>0.1953125</v>
       </c>
       <c r="R123">
-        <v>-0.06944444444444445</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="S123">
         <v>0.1171875</v>
       </c>
       <c r="T123">
-        <v>0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="U123">
         <v>-0.1953125</v>
       </c>
       <c r="V123">
-        <v>0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="124" spans="1:22">
@@ -6655,28 +6655,28 @@
         <v>0</v>
       </c>
       <c r="O124">
-        <v>0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="P124">
-        <v>-0.06944444444444445</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="Q124">
-        <v>0.0390625</v>
+        <v>0.1171875</v>
       </c>
       <c r="R124">
         <v>0.06944444444444445</v>
       </c>
       <c r="S124">
-        <v>0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="T124">
-        <v>-0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="U124">
         <v>-0.1953125</v>
       </c>
       <c r="V124">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="125" spans="1:22">
@@ -6705,28 +6705,28 @@
         <v>0</v>
       </c>
       <c r="O125">
-        <v>0.1171875</v>
+        <v>0.1953125</v>
       </c>
       <c r="P125">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="Q125">
         <v>0.1953125</v>
       </c>
       <c r="R125">
-        <v>-0.06944444444444445</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="S125">
         <v>0.1171875</v>
       </c>
       <c r="T125">
-        <v>0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="U125">
         <v>-0.1953125</v>
       </c>
       <c r="V125">
-        <v>0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="126" spans="1:22">
@@ -6755,28 +6755,28 @@
         <v>2</v>
       </c>
       <c r="O126">
-        <v>-0.1953125</v>
+        <v>0.1171875</v>
       </c>
       <c r="P126">
         <v>-0.06944444444444445</v>
       </c>
       <c r="Q126">
-        <v>-0.1171875</v>
+        <v>0.0390625</v>
       </c>
       <c r="R126">
         <v>-0.06944444444444445</v>
       </c>
       <c r="S126">
-        <v>-0.1953125</v>
+        <v>0.1171875</v>
       </c>
       <c r="T126">
-        <v>0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="U126">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V126">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="127" spans="1:22">
@@ -6805,28 +6805,28 @@
         <v>0</v>
       </c>
       <c r="O127">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="P127">
         <v>0.06944444444444445</v>
       </c>
       <c r="Q127">
-        <v>-0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="R127">
         <v>0.06944444444444445</v>
       </c>
       <c r="S127">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="T127">
         <v>-0.06944444444444445</v>
       </c>
       <c r="U127">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V127">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="128" spans="1:22">
@@ -6855,28 +6855,28 @@
         <v>0</v>
       </c>
       <c r="O128">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="P128">
         <v>0.06944444444444445</v>
       </c>
       <c r="Q128">
-        <v>-0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="R128">
         <v>0.06944444444444445</v>
       </c>
       <c r="S128">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="T128">
         <v>-0.06944444444444445</v>
       </c>
       <c r="U128">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V128">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="129" spans="1:22">
@@ -6905,28 +6905,28 @@
         <v>0</v>
       </c>
       <c r="O129">
-        <v>-0.1953125</v>
+        <v>0.1171875</v>
       </c>
       <c r="P129">
         <v>-0.06944444444444445</v>
       </c>
       <c r="Q129">
-        <v>-0.1171875</v>
+        <v>0.0390625</v>
       </c>
       <c r="R129">
         <v>-0.06944444444444445</v>
       </c>
       <c r="S129">
-        <v>-0.1953125</v>
+        <v>0.1171875</v>
       </c>
       <c r="T129">
-        <v>0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="U129">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V129">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="130" spans="1:22">
@@ -6955,28 +6955,28 @@
         <v>4</v>
       </c>
       <c r="O130">
+        <v>-0.1953125</v>
+      </c>
+      <c r="P130">
+        <v>0.2083333333333333</v>
+      </c>
+      <c r="Q130">
+        <v>-0.1953125</v>
+      </c>
+      <c r="R130">
+        <v>0.06944444444444445</v>
+      </c>
+      <c r="S130">
         <v>-0.1171875</v>
       </c>
-      <c r="P130">
-        <v>-0.06944444444444445</v>
-      </c>
-      <c r="Q130">
-        <v>-0.1171875</v>
-      </c>
-      <c r="R130">
-        <v>0.06944444444444445</v>
-      </c>
-      <c r="S130">
-        <v>-0.1953125</v>
-      </c>
       <c r="T130">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="U130">
         <v>0.1953125</v>
       </c>
       <c r="V130">
-        <v>0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
     </row>
     <row r="131" spans="1:22">
@@ -7005,28 +7005,28 @@
         <v>2</v>
       </c>
       <c r="O131">
-        <v>-0.1953125</v>
+        <v>0.0390625</v>
       </c>
       <c r="P131">
-        <v>0.06944444444444445</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="Q131">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="R131">
-        <v>0.06944444444444445</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="S131">
-        <v>-0.1953125</v>
+        <v>-0.0390625</v>
       </c>
       <c r="T131">
         <v>-0.06944444444444445</v>
       </c>
       <c r="U131">
-        <v>0.1171875</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V131">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="132" spans="1:22">
@@ -7055,28 +7055,28 @@
         <v>0</v>
       </c>
       <c r="O132">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="P132">
         <v>0.06944444444444445</v>
       </c>
       <c r="Q132">
-        <v>-0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="R132">
         <v>0.06944444444444445</v>
       </c>
       <c r="S132">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="T132">
         <v>-0.06944444444444445</v>
       </c>
       <c r="U132">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V132">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="133" spans="1:22">
@@ -7105,28 +7105,28 @@
         <v>4</v>
       </c>
       <c r="O133">
-        <v>0.1953125</v>
+        <v>-0.1171875</v>
       </c>
       <c r="P133">
         <v>-0.06944444444444445</v>
       </c>
       <c r="Q133">
-        <v>0.1953125</v>
+        <v>-0.1171875</v>
       </c>
       <c r="R133">
         <v>0.06944444444444445</v>
       </c>
       <c r="S133">
-        <v>0.1171875</v>
+        <v>-0.1953125</v>
       </c>
       <c r="T133">
         <v>-0.06944444444444445</v>
       </c>
       <c r="U133">
-        <v>-0.1953125</v>
+        <v>0.1953125</v>
       </c>
       <c r="V133">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="134" spans="1:22">
@@ -7155,28 +7155,28 @@
         <v>0</v>
       </c>
       <c r="O134">
-        <v>-0.1953125</v>
+        <v>0.0390625</v>
       </c>
       <c r="P134">
-        <v>0.06944444444444445</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="Q134">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="R134">
-        <v>0.06944444444444445</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="S134">
-        <v>-0.1953125</v>
+        <v>-0.0390625</v>
       </c>
       <c r="T134">
         <v>-0.06944444444444445</v>
       </c>
       <c r="U134">
-        <v>0.1171875</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V134">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="135" spans="1:22">
@@ -7205,28 +7205,28 @@
         <v>0</v>
       </c>
       <c r="O135">
+        <v>-0.1953125</v>
+      </c>
+      <c r="P135">
+        <v>0.2083333333333333</v>
+      </c>
+      <c r="Q135">
+        <v>-0.1953125</v>
+      </c>
+      <c r="R135">
+        <v>0.06944444444444445</v>
+      </c>
+      <c r="S135">
         <v>-0.1171875</v>
       </c>
-      <c r="P135">
-        <v>-0.06944444444444445</v>
-      </c>
-      <c r="Q135">
-        <v>-0.1171875</v>
-      </c>
-      <c r="R135">
-        <v>0.06944444444444445</v>
-      </c>
-      <c r="S135">
-        <v>-0.1953125</v>
-      </c>
       <c r="T135">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="U135">
         <v>0.1953125</v>
       </c>
       <c r="V135">
-        <v>0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
     </row>
     <row r="136" spans="1:22">
@@ -7255,28 +7255,28 @@
         <v>0</v>
       </c>
       <c r="O136">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="P136">
         <v>0.06944444444444445</v>
       </c>
       <c r="Q136">
-        <v>-0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="R136">
         <v>0.06944444444444445</v>
       </c>
       <c r="S136">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="T136">
         <v>-0.06944444444444445</v>
       </c>
       <c r="U136">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V136">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="137" spans="1:22">
@@ -7305,25 +7305,25 @@
         <v>2</v>
       </c>
       <c r="O137">
-        <v>0.1171875</v>
+        <v>-0.1171875</v>
       </c>
       <c r="P137">
-        <v>-0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="Q137">
-        <v>0.0390625</v>
+        <v>-0.1171875</v>
       </c>
       <c r="R137">
-        <v>-0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="S137">
-        <v>0.1171875</v>
+        <v>-0.0390625</v>
       </c>
       <c r="T137">
         <v>-0.06944444444444445</v>
       </c>
       <c r="U137">
-        <v>-0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="V137">
         <v>0.2083333333333333</v>
@@ -7355,28 +7355,28 @@
         <v>0</v>
       </c>
       <c r="O138">
-        <v>0.1953125</v>
+        <v>-0.1171875</v>
       </c>
       <c r="P138">
         <v>-0.06944444444444445</v>
       </c>
       <c r="Q138">
-        <v>0.1953125</v>
+        <v>-0.1171875</v>
       </c>
       <c r="R138">
         <v>0.06944444444444445</v>
       </c>
       <c r="S138">
-        <v>0.1171875</v>
+        <v>-0.1953125</v>
       </c>
       <c r="T138">
         <v>-0.06944444444444445</v>
       </c>
       <c r="U138">
-        <v>-0.1953125</v>
+        <v>0.1953125</v>
       </c>
       <c r="V138">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="139" spans="1:22">
@@ -7408,25 +7408,25 @@
         <v>0.1171875</v>
       </c>
       <c r="P139">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="Q139">
-        <v>0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="R139">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="S139">
         <v>0.1171875</v>
       </c>
       <c r="T139">
-        <v>0.06944444444444445</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="U139">
         <v>-0.1953125</v>
       </c>
       <c r="V139">
-        <v>-0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
     </row>
     <row r="140" spans="1:22">
@@ -7455,25 +7455,25 @@
         <v>0</v>
       </c>
       <c r="O140">
-        <v>0.1171875</v>
+        <v>-0.1171875</v>
       </c>
       <c r="P140">
-        <v>-0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="Q140">
-        <v>0.0390625</v>
+        <v>-0.1171875</v>
       </c>
       <c r="R140">
-        <v>-0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="S140">
-        <v>0.1171875</v>
+        <v>-0.0390625</v>
       </c>
       <c r="T140">
         <v>-0.06944444444444445</v>
       </c>
       <c r="U140">
-        <v>-0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="V140">
         <v>0.2083333333333333</v>
@@ -7508,25 +7508,25 @@
         <v>0.1171875</v>
       </c>
       <c r="P141">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="Q141">
-        <v>0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="R141">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="S141">
         <v>0.1171875</v>
       </c>
       <c r="T141">
-        <v>0.06944444444444445</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="U141">
         <v>-0.1953125</v>
       </c>
       <c r="V141">
-        <v>-0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
     </row>
     <row r="142" spans="1:22">
@@ -7555,28 +7555,28 @@
         <v>5</v>
       </c>
       <c r="O142">
-        <v>-0.1171875</v>
+        <v>-0.1953125</v>
       </c>
       <c r="P142">
         <v>0.06944444444444445</v>
       </c>
       <c r="Q142">
-        <v>-0.1171875</v>
+        <v>-0.1953125</v>
       </c>
       <c r="R142">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="S142">
-        <v>-0.0390625</v>
+        <v>-0.1953125</v>
       </c>
       <c r="T142">
-        <v>0.06944444444444445</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="U142">
         <v>0.1953125</v>
       </c>
       <c r="V142">
-        <v>-0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="143" spans="1:22">
@@ -7605,28 +7605,28 @@
         <v>3</v>
       </c>
       <c r="O143">
-        <v>-0.1953125</v>
+        <v>0.0390625</v>
       </c>
       <c r="P143">
-        <v>-0.06944444444444445</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="Q143">
-        <v>-0.1171875</v>
+        <v>0.0390625</v>
       </c>
       <c r="R143">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="S143">
-        <v>-0.1953125</v>
+        <v>0.0390625</v>
       </c>
       <c r="T143">
-        <v>-0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="U143">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V143">
-        <v>-0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="144" spans="1:22">
@@ -7655,28 +7655,28 @@
         <v>1</v>
       </c>
       <c r="O144">
-        <v>-0.1171875</v>
+        <v>0.0390625</v>
       </c>
       <c r="P144">
-        <v>0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="Q144">
-        <v>-0.1953125</v>
+        <v>-0.0390625</v>
       </c>
       <c r="R144">
-        <v>0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="S144">
-        <v>-0.1171875</v>
+        <v>0.0390625</v>
       </c>
       <c r="T144">
         <v>-0.06944444444444445</v>
       </c>
       <c r="U144">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V144">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="145" spans="1:22">
@@ -7708,7 +7708,7 @@
         <v>0.1953125</v>
       </c>
       <c r="P145">
-        <v>-0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="Q145">
         <v>0.1953125</v>
@@ -7720,7 +7720,7 @@
         <v>0.1171875</v>
       </c>
       <c r="T145">
-        <v>-0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="U145">
         <v>-0.1171875</v>
@@ -7755,28 +7755,28 @@
         <v>0</v>
       </c>
       <c r="O146">
-        <v>-0.1171875</v>
+        <v>0.0390625</v>
       </c>
       <c r="P146">
-        <v>0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="Q146">
-        <v>-0.1953125</v>
+        <v>-0.0390625</v>
       </c>
       <c r="R146">
-        <v>0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="S146">
-        <v>-0.1171875</v>
+        <v>0.0390625</v>
       </c>
       <c r="T146">
         <v>-0.06944444444444445</v>
       </c>
       <c r="U146">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V146">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="147" spans="1:22">
@@ -7805,28 +7805,28 @@
         <v>0</v>
       </c>
       <c r="O147">
-        <v>-0.1953125</v>
+        <v>0.0390625</v>
       </c>
       <c r="P147">
-        <v>-0.06944444444444445</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="Q147">
-        <v>-0.1171875</v>
+        <v>0.0390625</v>
       </c>
       <c r="R147">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="S147">
-        <v>-0.1953125</v>
+        <v>0.0390625</v>
       </c>
       <c r="T147">
-        <v>-0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="U147">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V147">
-        <v>-0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="148" spans="1:22">
@@ -7855,28 +7855,28 @@
         <v>0</v>
       </c>
       <c r="O148">
-        <v>-0.1171875</v>
+        <v>-0.1953125</v>
       </c>
       <c r="P148">
         <v>0.06944444444444445</v>
       </c>
       <c r="Q148">
-        <v>-0.1171875</v>
+        <v>-0.1953125</v>
       </c>
       <c r="R148">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="S148">
-        <v>-0.0390625</v>
+        <v>-0.1953125</v>
       </c>
       <c r="T148">
-        <v>0.06944444444444445</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="U148">
         <v>0.1953125</v>
       </c>
       <c r="V148">
-        <v>-0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="149" spans="1:22">
@@ -7905,25 +7905,25 @@
         <v>4</v>
       </c>
       <c r="O149">
+        <v>-0.0390625</v>
+      </c>
+      <c r="P149">
+        <v>-0.06944444444444445</v>
+      </c>
+      <c r="Q149">
+        <v>-0.0390625</v>
+      </c>
+      <c r="R149">
+        <v>-0.2083333333333333</v>
+      </c>
+      <c r="S149">
         <v>-0.1171875</v>
       </c>
-      <c r="P149">
-        <v>-0.2083333333333333</v>
-      </c>
-      <c r="Q149">
-        <v>-0.1171875</v>
-      </c>
-      <c r="R149">
-        <v>-0.06944444444444445</v>
-      </c>
-      <c r="S149">
-        <v>-0.0390625</v>
-      </c>
       <c r="T149">
-        <v>-0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="U149">
-        <v>0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="V149">
         <v>0.2083333333333333</v>
@@ -7955,13 +7955,13 @@
         <v>1</v>
       </c>
       <c r="O150">
-        <v>0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="P150">
         <v>-0.2083333333333333</v>
       </c>
       <c r="Q150">
-        <v>0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="R150">
         <v>-0.06944444444444445</v>
@@ -7976,7 +7976,7 @@
         <v>-0.1953125</v>
       </c>
       <c r="V150">
-        <v>0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
     </row>
     <row r="151" spans="1:22">
@@ -8008,7 +8008,7 @@
         <v>0.1953125</v>
       </c>
       <c r="P151">
-        <v>-0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="Q151">
         <v>0.1953125</v>
@@ -8020,7 +8020,7 @@
         <v>0.1171875</v>
       </c>
       <c r="T151">
-        <v>-0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="U151">
         <v>-0.1171875</v>
@@ -8055,13 +8055,13 @@
         <v>0</v>
       </c>
       <c r="O152">
-        <v>0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="P152">
         <v>-0.2083333333333333</v>
       </c>
       <c r="Q152">
-        <v>0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="R152">
         <v>-0.06944444444444445</v>
@@ -8076,7 +8076,7 @@
         <v>-0.1953125</v>
       </c>
       <c r="V152">
-        <v>0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
     </row>
     <row r="153" spans="1:22">
@@ -8105,25 +8105,25 @@
         <v>5</v>
       </c>
       <c r="O153">
-        <v>-0.1953125</v>
+        <v>0.1171875</v>
       </c>
       <c r="P153">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="Q153">
-        <v>-0.1953125</v>
+        <v>0.1171875</v>
       </c>
       <c r="R153">
-        <v>0.06944444444444445</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="S153">
-        <v>-0.1171875</v>
+        <v>0.1953125</v>
       </c>
       <c r="T153">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="U153">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V153">
         <v>-0.06944444444444445</v>
@@ -8155,25 +8155,25 @@
         <v>0</v>
       </c>
       <c r="O154">
+        <v>-0.0390625</v>
+      </c>
+      <c r="P154">
+        <v>-0.06944444444444445</v>
+      </c>
+      <c r="Q154">
+        <v>-0.0390625</v>
+      </c>
+      <c r="R154">
+        <v>-0.2083333333333333</v>
+      </c>
+      <c r="S154">
         <v>-0.1171875</v>
       </c>
-      <c r="P154">
-        <v>-0.2083333333333333</v>
-      </c>
-      <c r="Q154">
-        <v>-0.1171875</v>
-      </c>
-      <c r="R154">
-        <v>-0.06944444444444445</v>
-      </c>
-      <c r="S154">
-        <v>-0.0390625</v>
-      </c>
       <c r="T154">
-        <v>-0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="U154">
-        <v>0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="V154">
         <v>0.2083333333333333</v>
@@ -8205,28 +8205,28 @@
         <v>2</v>
       </c>
       <c r="O155">
-        <v>-0.1171875</v>
+        <v>0.1953125</v>
       </c>
       <c r="P155">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="Q155">
-        <v>-0.1953125</v>
+        <v>0.1171875</v>
       </c>
       <c r="R155">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="S155">
-        <v>-0.1171875</v>
+        <v>0.1953125</v>
       </c>
       <c r="T155">
-        <v>0.06944444444444445</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="U155">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V155">
-        <v>-0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="156" spans="1:22">
@@ -8255,28 +8255,28 @@
         <v>3</v>
       </c>
       <c r="O156">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="P156">
         <v>0.2083333333333333</v>
       </c>
       <c r="Q156">
-        <v>0.1953125</v>
+        <v>-0.1171875</v>
       </c>
       <c r="R156">
-        <v>0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="S156">
-        <v>0.1171875</v>
+        <v>-0.1953125</v>
       </c>
       <c r="T156">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="U156">
-        <v>-0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="V156">
-        <v>-0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
     </row>
     <row r="157" spans="1:22">
@@ -8305,25 +8305,25 @@
         <v>3</v>
       </c>
       <c r="O157">
-        <v>0.1171875</v>
+        <v>-0.1171875</v>
       </c>
       <c r="P157">
         <v>-0.06944444444444445</v>
       </c>
       <c r="Q157">
-        <v>0.0390625</v>
+        <v>-0.1953125</v>
       </c>
       <c r="R157">
         <v>-0.06944444444444445</v>
       </c>
       <c r="S157">
-        <v>0.1171875</v>
+        <v>-0.1171875</v>
       </c>
       <c r="T157">
-        <v>-0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="U157">
-        <v>-0.1953125</v>
+        <v>0.1953125</v>
       </c>
       <c r="V157">
         <v>0.2083333333333333</v>
@@ -8355,28 +8355,28 @@
         <v>0</v>
       </c>
       <c r="O158">
-        <v>-0.1171875</v>
+        <v>0.1953125</v>
       </c>
       <c r="P158">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="Q158">
-        <v>-0.1953125</v>
+        <v>0.1171875</v>
       </c>
       <c r="R158">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="S158">
-        <v>-0.1171875</v>
+        <v>0.1953125</v>
       </c>
       <c r="T158">
-        <v>0.06944444444444445</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="U158">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V158">
-        <v>-0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="159" spans="1:22">
@@ -8405,25 +8405,25 @@
         <v>0</v>
       </c>
       <c r="O159">
-        <v>-0.1953125</v>
+        <v>0.1171875</v>
       </c>
       <c r="P159">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="Q159">
-        <v>-0.1953125</v>
+        <v>0.1171875</v>
       </c>
       <c r="R159">
-        <v>0.06944444444444445</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="S159">
-        <v>-0.1171875</v>
+        <v>0.1953125</v>
       </c>
       <c r="T159">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="U159">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V159">
         <v>-0.06944444444444445</v>
@@ -8455,28 +8455,28 @@
         <v>0</v>
       </c>
       <c r="O160">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="P160">
         <v>0.2083333333333333</v>
       </c>
       <c r="Q160">
-        <v>0.1953125</v>
+        <v>-0.1171875</v>
       </c>
       <c r="R160">
-        <v>0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="S160">
-        <v>0.1171875</v>
+        <v>-0.1953125</v>
       </c>
       <c r="T160">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="U160">
-        <v>-0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="V160">
-        <v>-0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
     </row>
     <row r="161" spans="1:22">
@@ -8505,25 +8505,25 @@
         <v>0</v>
       </c>
       <c r="O161">
-        <v>0.1171875</v>
+        <v>-0.1171875</v>
       </c>
       <c r="P161">
         <v>-0.06944444444444445</v>
       </c>
       <c r="Q161">
-        <v>0.0390625</v>
+        <v>-0.1953125</v>
       </c>
       <c r="R161">
         <v>-0.06944444444444445</v>
       </c>
       <c r="S161">
-        <v>0.1171875</v>
+        <v>-0.1171875</v>
       </c>
       <c r="T161">
-        <v>-0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="U161">
-        <v>-0.1953125</v>
+        <v>0.1953125</v>
       </c>
       <c r="V161">
         <v>0.2083333333333333</v>
@@ -8555,20 +8555,20 @@
         <v>4</v>
       </c>
       <c r="O162">
+        <v>-0.0390625</v>
+      </c>
+      <c r="P162">
+        <v>-0.2083333333333333</v>
+      </c>
+      <c r="Q162">
         <v>-0.1171875</v>
       </c>
-      <c r="P162">
-        <v>0.06944444444444445</v>
-      </c>
-      <c r="Q162">
+      <c r="R162">
+        <v>-0.2083333333333333</v>
+      </c>
+      <c r="S162">
         <v>-0.0390625</v>
       </c>
-      <c r="R162">
-        <v>0.06944444444444445</v>
-      </c>
-      <c r="S162">
-        <v>-0.1171875</v>
-      </c>
       <c r="T162">
         <v>-0.06944444444444445</v>
       </c>
@@ -8576,7 +8576,7 @@
         <v>0.1953125</v>
       </c>
       <c r="V162">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="163" spans="1:22">
@@ -8605,25 +8605,25 @@
         <v>1</v>
       </c>
       <c r="O163">
-        <v>0.1953125</v>
+        <v>-0.1171875</v>
       </c>
       <c r="P163">
         <v>0.06944444444444445</v>
       </c>
       <c r="Q163">
-        <v>0.1171875</v>
+        <v>-0.1953125</v>
       </c>
       <c r="R163">
         <v>0.06944444444444445</v>
       </c>
       <c r="S163">
-        <v>0.1953125</v>
+        <v>-0.0390625</v>
       </c>
       <c r="T163">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="U163">
-        <v>-0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="V163">
         <v>-0.2083333333333333</v>
@@ -8655,28 +8655,28 @@
         <v>0</v>
       </c>
       <c r="O164">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="P164">
         <v>0.06944444444444445</v>
       </c>
       <c r="Q164">
-        <v>-0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="R164">
         <v>0.06944444444444445</v>
       </c>
       <c r="S164">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="T164">
         <v>-0.06944444444444445</v>
       </c>
       <c r="U164">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V164">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="165" spans="1:22">
@@ -8705,28 +8705,28 @@
         <v>0</v>
       </c>
       <c r="O165">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="P165">
         <v>0.06944444444444445</v>
       </c>
       <c r="Q165">
-        <v>-0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="R165">
         <v>0.06944444444444445</v>
       </c>
       <c r="S165">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="T165">
         <v>-0.06944444444444445</v>
       </c>
       <c r="U165">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V165">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="166" spans="1:22">
@@ -8755,28 +8755,28 @@
         <v>5</v>
       </c>
       <c r="O166">
-        <v>0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="P166">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="Q166">
-        <v>0.1171875</v>
+        <v>0.1953125</v>
       </c>
       <c r="R166">
-        <v>0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="S166">
-        <v>0.0390625</v>
+        <v>0.1171875</v>
       </c>
       <c r="T166">
-        <v>0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="U166">
         <v>-0.1953125</v>
       </c>
       <c r="V166">
-        <v>-0.06944444444444445</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="167" spans="1:22">
@@ -8805,20 +8805,20 @@
         <v>0</v>
       </c>
       <c r="O167">
+        <v>-0.0390625</v>
+      </c>
+      <c r="P167">
+        <v>-0.2083333333333333</v>
+      </c>
+      <c r="Q167">
         <v>-0.1171875</v>
       </c>
-      <c r="P167">
-        <v>0.06944444444444445</v>
-      </c>
-      <c r="Q167">
+      <c r="R167">
+        <v>-0.2083333333333333</v>
+      </c>
+      <c r="S167">
         <v>-0.0390625</v>
       </c>
-      <c r="R167">
-        <v>0.06944444444444445</v>
-      </c>
-      <c r="S167">
-        <v>-0.1171875</v>
-      </c>
       <c r="T167">
         <v>-0.06944444444444445</v>
       </c>
@@ -8826,7 +8826,7 @@
         <v>0.1953125</v>
       </c>
       <c r="V167">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="168" spans="1:22">
@@ -8855,28 +8855,28 @@
         <v>4</v>
       </c>
       <c r="O168">
+        <v>0.0390625</v>
+      </c>
+      <c r="P168">
+        <v>0.06944444444444445</v>
+      </c>
+      <c r="Q168">
+        <v>0.1171875</v>
+      </c>
+      <c r="R168">
+        <v>0.06944444444444445</v>
+      </c>
+      <c r="S168">
         <v>-0.0390625</v>
       </c>
-      <c r="P168">
-        <v>-0.2083333333333333</v>
-      </c>
-      <c r="Q168">
-        <v>-0.1171875</v>
-      </c>
-      <c r="R168">
-        <v>-0.2083333333333333</v>
-      </c>
-      <c r="S168">
-        <v>0.0390625</v>
-      </c>
       <c r="T168">
-        <v>-0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="U168">
-        <v>0.1171875</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V168">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="169" spans="1:22">
@@ -8905,22 +8905,22 @@
         <v>5</v>
       </c>
       <c r="O169">
-        <v>0.1953125</v>
+        <v>0.1171875</v>
       </c>
       <c r="P169">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="Q169">
-        <v>0.1953125</v>
+        <v>0.1171875</v>
       </c>
       <c r="R169">
-        <v>0.06944444444444445</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="S169">
-        <v>0.1171875</v>
+        <v>0.0390625</v>
       </c>
       <c r="T169">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="U169">
         <v>-0.1953125</v>
@@ -8958,25 +8958,25 @@
         <v>0.1171875</v>
       </c>
       <c r="P170">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="Q170">
-        <v>0.1953125</v>
+        <v>0.0390625</v>
       </c>
       <c r="R170">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="S170">
-        <v>0.1171875</v>
+        <v>0.1953125</v>
       </c>
       <c r="T170">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="U170">
         <v>-0.1953125</v>
       </c>
       <c r="V170">
-        <v>-0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="171" spans="1:22">
@@ -9005,22 +9005,22 @@
         <v>4</v>
       </c>
       <c r="O171">
-        <v>0.0390625</v>
+        <v>-0.0390625</v>
       </c>
       <c r="P171">
-        <v>-0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="Q171">
-        <v>0.1171875</v>
+        <v>0.0390625</v>
       </c>
       <c r="R171">
-        <v>-0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="S171">
-        <v>0.0390625</v>
+        <v>-0.1171875</v>
       </c>
       <c r="T171">
-        <v>0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="U171">
         <v>-0.1953125</v>
@@ -9055,28 +9055,28 @@
         <v>0</v>
       </c>
       <c r="O172">
-        <v>0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="P172">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="Q172">
-        <v>0.1171875</v>
+        <v>0.1953125</v>
       </c>
       <c r="R172">
-        <v>0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="S172">
-        <v>0.0390625</v>
+        <v>0.1171875</v>
       </c>
       <c r="T172">
-        <v>0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="U172">
         <v>-0.1953125</v>
       </c>
       <c r="V172">
-        <v>-0.06944444444444445</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="173" spans="1:22">
@@ -9105,28 +9105,28 @@
         <v>0</v>
       </c>
       <c r="O173">
+        <v>0.0390625</v>
+      </c>
+      <c r="P173">
+        <v>0.06944444444444445</v>
+      </c>
+      <c r="Q173">
+        <v>0.1171875</v>
+      </c>
+      <c r="R173">
+        <v>0.06944444444444445</v>
+      </c>
+      <c r="S173">
         <v>-0.0390625</v>
       </c>
-      <c r="P173">
-        <v>-0.2083333333333333</v>
-      </c>
-      <c r="Q173">
-        <v>-0.1171875</v>
-      </c>
-      <c r="R173">
-        <v>-0.2083333333333333</v>
-      </c>
-      <c r="S173">
-        <v>0.0390625</v>
-      </c>
       <c r="T173">
-        <v>-0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="U173">
-        <v>0.1171875</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V173">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="174" spans="1:22">
@@ -9158,25 +9158,25 @@
         <v>0.1171875</v>
       </c>
       <c r="P174">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="Q174">
-        <v>0.1953125</v>
+        <v>0.0390625</v>
       </c>
       <c r="R174">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="S174">
-        <v>0.1171875</v>
+        <v>0.1953125</v>
       </c>
       <c r="T174">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="U174">
         <v>-0.1953125</v>
       </c>
       <c r="V174">
-        <v>-0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="175" spans="1:22">
@@ -9205,22 +9205,22 @@
         <v>0</v>
       </c>
       <c r="O175">
-        <v>0.1953125</v>
+        <v>0.1171875</v>
       </c>
       <c r="P175">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="Q175">
-        <v>0.1953125</v>
+        <v>0.1171875</v>
       </c>
       <c r="R175">
-        <v>0.06944444444444445</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="S175">
-        <v>0.1171875</v>
+        <v>0.0390625</v>
       </c>
       <c r="T175">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="U175">
         <v>-0.1953125</v>
@@ -9255,22 +9255,22 @@
         <v>0</v>
       </c>
       <c r="O176">
-        <v>0.0390625</v>
+        <v>-0.0390625</v>
       </c>
       <c r="P176">
-        <v>-0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="Q176">
-        <v>0.1171875</v>
+        <v>0.0390625</v>
       </c>
       <c r="R176">
-        <v>-0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="S176">
-        <v>0.0390625</v>
+        <v>-0.1171875</v>
       </c>
       <c r="T176">
-        <v>0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="U176">
         <v>-0.1953125</v>
@@ -9305,28 +9305,28 @@
         <v>2</v>
       </c>
       <c r="O177">
-        <v>-0.1953125</v>
+        <v>0.1953125</v>
       </c>
       <c r="P177">
-        <v>0.06944444444444445</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="Q177">
-        <v>-0.1953125</v>
+        <v>0.1171875</v>
       </c>
       <c r="R177">
         <v>-0.06944444444444445</v>
       </c>
       <c r="S177">
-        <v>-0.1953125</v>
+        <v>0.1953125</v>
       </c>
       <c r="T177">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="U177">
-        <v>0.1953125</v>
+        <v>-0.1171875</v>
       </c>
       <c r="V177">
-        <v>0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="178" spans="1:22">
@@ -9355,28 +9355,28 @@
         <v>0</v>
       </c>
       <c r="O178">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="P178">
         <v>0.06944444444444445</v>
       </c>
       <c r="Q178">
-        <v>-0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="R178">
         <v>0.06944444444444445</v>
       </c>
       <c r="S178">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="T178">
         <v>-0.06944444444444445</v>
       </c>
       <c r="U178">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V178">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="179" spans="1:22">
@@ -9405,28 +9405,28 @@
         <v>2</v>
       </c>
       <c r="O179">
-        <v>-0.0390625</v>
+        <v>-0.1953125</v>
       </c>
       <c r="P179">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="Q179">
+        <v>-0.1953125</v>
+      </c>
+      <c r="R179">
+        <v>-0.06944444444444445</v>
+      </c>
+      <c r="S179">
         <v>-0.1171875</v>
       </c>
-      <c r="R179">
-        <v>0.2083333333333333</v>
-      </c>
-      <c r="S179">
-        <v>-0.0390625</v>
-      </c>
       <c r="T179">
-        <v>0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="U179">
-        <v>0.1953125</v>
+        <v>0.1171875</v>
       </c>
       <c r="V179">
-        <v>-0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="180" spans="1:22">
@@ -9455,28 +9455,28 @@
         <v>0</v>
       </c>
       <c r="O180">
-        <v>-0.1953125</v>
+        <v>0.1953125</v>
       </c>
       <c r="P180">
-        <v>0.06944444444444445</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="Q180">
-        <v>-0.1953125</v>
+        <v>0.1171875</v>
       </c>
       <c r="R180">
         <v>-0.06944444444444445</v>
       </c>
       <c r="S180">
-        <v>-0.1953125</v>
+        <v>0.1953125</v>
       </c>
       <c r="T180">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="U180">
-        <v>0.1953125</v>
+        <v>-0.1171875</v>
       </c>
       <c r="V180">
-        <v>0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="181" spans="1:22">
@@ -9508,22 +9508,22 @@
         <v>-0.1953125</v>
       </c>
       <c r="P181">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="Q181">
-        <v>-0.1953125</v>
+        <v>-0.1171875</v>
       </c>
       <c r="R181">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="S181">
-        <v>-0.1171875</v>
+        <v>-0.1953125</v>
       </c>
       <c r="T181">
-        <v>-0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="U181">
-        <v>0.1953125</v>
+        <v>0.0390625</v>
       </c>
       <c r="V181">
         <v>-0.2083333333333333</v>
@@ -9555,28 +9555,28 @@
         <v>0</v>
       </c>
       <c r="O182">
-        <v>-0.0390625</v>
+        <v>-0.1953125</v>
       </c>
       <c r="P182">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="Q182">
+        <v>-0.1953125</v>
+      </c>
+      <c r="R182">
+        <v>-0.06944444444444445</v>
+      </c>
+      <c r="S182">
         <v>-0.1171875</v>
       </c>
-      <c r="R182">
-        <v>0.2083333333333333</v>
-      </c>
-      <c r="S182">
-        <v>-0.0390625</v>
-      </c>
       <c r="T182">
-        <v>0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="U182">
-        <v>0.1953125</v>
+        <v>0.1171875</v>
       </c>
       <c r="V182">
-        <v>-0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="183" spans="1:22">
@@ -9605,25 +9605,25 @@
         <v>5</v>
       </c>
       <c r="O183">
-        <v>-0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="P183">
         <v>0.2083333333333333</v>
       </c>
       <c r="Q183">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="R183">
         <v>0.2083333333333333</v>
       </c>
       <c r="S183">
-        <v>0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="T183">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="U183">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V183">
         <v>-0.2083333333333333</v>
@@ -9655,13 +9655,13 @@
         <v>1</v>
       </c>
       <c r="O184">
-        <v>0.1953125</v>
+        <v>0.1171875</v>
       </c>
       <c r="P184">
         <v>-0.06944444444444445</v>
       </c>
       <c r="Q184">
-        <v>0.1171875</v>
+        <v>0.0390625</v>
       </c>
       <c r="R184">
         <v>-0.06944444444444445</v>
@@ -9670,7 +9670,7 @@
         <v>0.1953125</v>
       </c>
       <c r="T184">
-        <v>-0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="U184">
         <v>-0.1953125</v>
@@ -9708,22 +9708,22 @@
         <v>-0.1953125</v>
       </c>
       <c r="P185">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="Q185">
-        <v>-0.1953125</v>
+        <v>-0.1171875</v>
       </c>
       <c r="R185">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="S185">
-        <v>-0.1171875</v>
+        <v>-0.1953125</v>
       </c>
       <c r="T185">
-        <v>-0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="U185">
-        <v>0.1953125</v>
+        <v>0.0390625</v>
       </c>
       <c r="V185">
         <v>-0.2083333333333333</v>
@@ -9755,13 +9755,13 @@
         <v>0</v>
       </c>
       <c r="O186">
-        <v>0.1953125</v>
+        <v>0.1171875</v>
       </c>
       <c r="P186">
         <v>-0.06944444444444445</v>
       </c>
       <c r="Q186">
-        <v>0.1171875</v>
+        <v>0.0390625</v>
       </c>
       <c r="R186">
         <v>-0.06944444444444445</v>
@@ -9770,7 +9770,7 @@
         <v>0.1953125</v>
       </c>
       <c r="T186">
-        <v>-0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="U186">
         <v>-0.1953125</v>
@@ -9805,25 +9805,25 @@
         <v>2</v>
       </c>
       <c r="O187">
+        <v>-0.1171875</v>
+      </c>
+      <c r="P187">
+        <v>-0.2083333333333333</v>
+      </c>
+      <c r="Q187">
+        <v>-0.1171875</v>
+      </c>
+      <c r="R187">
+        <v>-0.06944444444444445</v>
+      </c>
+      <c r="S187">
         <v>-0.0390625</v>
       </c>
-      <c r="P187">
-        <v>-0.2083333333333333</v>
-      </c>
-      <c r="Q187">
-        <v>0.0390625</v>
-      </c>
-      <c r="R187">
-        <v>-0.2083333333333333</v>
-      </c>
-      <c r="S187">
-        <v>-0.1171875</v>
-      </c>
       <c r="T187">
         <v>-0.2083333333333333</v>
       </c>
       <c r="U187">
-        <v>0.1171875</v>
+        <v>0.1953125</v>
       </c>
       <c r="V187">
         <v>0.2083333333333333</v>
@@ -9855,10 +9855,10 @@
         <v>3</v>
       </c>
       <c r="O188">
-        <v>0.1171875</v>
+        <v>0.0390625</v>
       </c>
       <c r="P188">
-        <v>0.06944444444444445</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="Q188">
         <v>0.0390625</v>
@@ -9867,16 +9867,16 @@
         <v>0.06944444444444445</v>
       </c>
       <c r="S188">
-        <v>0.1953125</v>
+        <v>0.1171875</v>
       </c>
       <c r="T188">
-        <v>0.06944444444444445</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="U188">
         <v>-0.1953125</v>
       </c>
       <c r="V188">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="189" spans="1:22">
@@ -9905,25 +9905,25 @@
         <v>0</v>
       </c>
       <c r="O189">
-        <v>-0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="P189">
         <v>0.2083333333333333</v>
       </c>
       <c r="Q189">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="R189">
         <v>0.2083333333333333</v>
       </c>
       <c r="S189">
-        <v>0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="T189">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="U189">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V189">
         <v>-0.2083333333333333</v>
@@ -9955,25 +9955,25 @@
         <v>0</v>
       </c>
       <c r="O190">
+        <v>-0.1171875</v>
+      </c>
+      <c r="P190">
+        <v>-0.2083333333333333</v>
+      </c>
+      <c r="Q190">
+        <v>-0.1171875</v>
+      </c>
+      <c r="R190">
+        <v>-0.06944444444444445</v>
+      </c>
+      <c r="S190">
         <v>-0.0390625</v>
       </c>
-      <c r="P190">
-        <v>-0.2083333333333333</v>
-      </c>
-      <c r="Q190">
-        <v>0.0390625</v>
-      </c>
-      <c r="R190">
-        <v>-0.2083333333333333</v>
-      </c>
-      <c r="S190">
-        <v>-0.1171875</v>
-      </c>
       <c r="T190">
         <v>-0.2083333333333333</v>
       </c>
       <c r="U190">
-        <v>0.1171875</v>
+        <v>0.1953125</v>
       </c>
       <c r="V190">
         <v>0.2083333333333333</v>
@@ -10005,28 +10005,28 @@
         <v>1</v>
       </c>
       <c r="O191">
-        <v>-0.1953125</v>
+        <v>-0.0390625</v>
       </c>
       <c r="P191">
-        <v>-0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="Q191">
-        <v>-0.1171875</v>
+        <v>-0.0390625</v>
       </c>
       <c r="R191">
         <v>-0.2083333333333333</v>
       </c>
       <c r="S191">
-        <v>-0.1953125</v>
+        <v>0.0390625</v>
       </c>
       <c r="T191">
         <v>-0.06944444444444445</v>
       </c>
       <c r="U191">
-        <v>0.1171875</v>
+        <v>0.1953125</v>
       </c>
       <c r="V191">
-        <v>0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="192" spans="1:22">
@@ -10055,10 +10055,10 @@
         <v>0</v>
       </c>
       <c r="O192">
-        <v>0.1171875</v>
+        <v>0.0390625</v>
       </c>
       <c r="P192">
-        <v>0.06944444444444445</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="Q192">
         <v>0.0390625</v>
@@ -10067,16 +10067,16 @@
         <v>0.06944444444444445</v>
       </c>
       <c r="S192">
-        <v>0.1953125</v>
+        <v>0.1171875</v>
       </c>
       <c r="T192">
-        <v>0.06944444444444445</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="U192">
         <v>-0.1953125</v>
       </c>
       <c r="V192">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="193" spans="1:22">
@@ -10105,28 +10105,28 @@
         <v>0</v>
       </c>
       <c r="O193">
-        <v>-0.1953125</v>
+        <v>-0.0390625</v>
       </c>
       <c r="P193">
-        <v>-0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="Q193">
-        <v>-0.1171875</v>
+        <v>-0.0390625</v>
       </c>
       <c r="R193">
         <v>-0.2083333333333333</v>
       </c>
       <c r="S193">
-        <v>-0.1953125</v>
+        <v>0.0390625</v>
       </c>
       <c r="T193">
         <v>-0.06944444444444445</v>
       </c>
       <c r="U193">
-        <v>0.1171875</v>
+        <v>0.1953125</v>
       </c>
       <c r="V193">
-        <v>0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="194" spans="1:22">
@@ -10155,7 +10155,7 @@
         <v>4</v>
       </c>
       <c r="O194">
-        <v>0.1171875</v>
+        <v>-0.0390625</v>
       </c>
       <c r="P194">
         <v>-0.2083333333333333</v>
@@ -10167,13 +10167,13 @@
         <v>-0.2083333333333333</v>
       </c>
       <c r="S194">
-        <v>0.1953125</v>
+        <v>-0.0390625</v>
       </c>
       <c r="T194">
-        <v>-0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="U194">
-        <v>-0.0390625</v>
+        <v>0.1171875</v>
       </c>
       <c r="V194">
         <v>0.2083333333333333</v>
@@ -10205,28 +10205,28 @@
         <v>2</v>
       </c>
       <c r="O195">
-        <v>0.1953125</v>
+        <v>0.0390625</v>
       </c>
       <c r="P195">
-        <v>-0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="Q195">
-        <v>0.1953125</v>
+        <v>0.0390625</v>
       </c>
       <c r="R195">
         <v>-0.06944444444444445</v>
       </c>
       <c r="S195">
-        <v>0.1171875</v>
+        <v>0.0390625</v>
       </c>
       <c r="T195">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="U195">
-        <v>-0.1171875</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V195">
-        <v>0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="196" spans="1:22">
@@ -10258,25 +10258,25 @@
         <v>-0.1953125</v>
       </c>
       <c r="P196">
-        <v>-0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="Q196">
+        <v>-0.1953125</v>
+      </c>
+      <c r="R196">
+        <v>-0.06944444444444445</v>
+      </c>
+      <c r="S196">
         <v>-0.1171875</v>
       </c>
-      <c r="R196">
-        <v>-0.06944444444444445</v>
-      </c>
-      <c r="S196">
-        <v>-0.1953125</v>
-      </c>
       <c r="T196">
-        <v>0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="U196">
-        <v>0.1953125</v>
+        <v>0.0390625</v>
       </c>
       <c r="V196">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="197" spans="1:22">
@@ -10305,28 +10305,28 @@
         <v>0</v>
       </c>
       <c r="O197">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="P197">
         <v>0.06944444444444445</v>
       </c>
       <c r="Q197">
-        <v>-0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="R197">
         <v>0.06944444444444445</v>
       </c>
       <c r="S197">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="T197">
         <v>-0.06944444444444445</v>
       </c>
       <c r="U197">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V197">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="198" spans="1:22">
@@ -10355,28 +10355,28 @@
         <v>0</v>
       </c>
       <c r="O198">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="P198">
         <v>0.06944444444444445</v>
       </c>
       <c r="Q198">
-        <v>-0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="R198">
         <v>0.06944444444444445</v>
       </c>
       <c r="S198">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="T198">
         <v>-0.06944444444444445</v>
       </c>
       <c r="U198">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V198">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="199" spans="1:22">
@@ -10405,7 +10405,7 @@
         <v>0</v>
       </c>
       <c r="O199">
-        <v>0.1171875</v>
+        <v>-0.0390625</v>
       </c>
       <c r="P199">
         <v>-0.2083333333333333</v>
@@ -10417,13 +10417,13 @@
         <v>-0.2083333333333333</v>
       </c>
       <c r="S199">
-        <v>0.1953125</v>
+        <v>-0.0390625</v>
       </c>
       <c r="T199">
-        <v>-0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="U199">
-        <v>-0.0390625</v>
+        <v>0.1171875</v>
       </c>
       <c r="V199">
         <v>0.2083333333333333</v>
@@ -10455,28 +10455,28 @@
         <v>4</v>
       </c>
       <c r="O200">
-        <v>-0.1171875</v>
+        <v>0.0390625</v>
       </c>
       <c r="P200">
-        <v>0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="Q200">
         <v>-0.0390625</v>
       </c>
       <c r="R200">
-        <v>0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="S200">
-        <v>-0.1953125</v>
+        <v>0.0390625</v>
       </c>
       <c r="T200">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="U200">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V200">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="201" spans="1:22">
@@ -10508,25 +10508,25 @@
         <v>0.1953125</v>
       </c>
       <c r="P201">
-        <v>-0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="Q201">
         <v>0.1953125</v>
       </c>
       <c r="R201">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="S201">
-        <v>0.1171875</v>
+        <v>0.1953125</v>
       </c>
       <c r="T201">
-        <v>-0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="U201">
-        <v>-0.1171875</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V201">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="202" spans="1:22">
@@ -10558,25 +10558,25 @@
         <v>-0.1953125</v>
       </c>
       <c r="P202">
-        <v>-0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="Q202">
+        <v>-0.1953125</v>
+      </c>
+      <c r="R202">
+        <v>-0.06944444444444445</v>
+      </c>
+      <c r="S202">
         <v>-0.1171875</v>
       </c>
-      <c r="R202">
-        <v>-0.06944444444444445</v>
-      </c>
-      <c r="S202">
-        <v>-0.1953125</v>
-      </c>
       <c r="T202">
-        <v>0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="U202">
-        <v>0.1953125</v>
+        <v>0.0390625</v>
       </c>
       <c r="V202">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="203" spans="1:22">
@@ -10608,25 +10608,25 @@
         <v>0.1953125</v>
       </c>
       <c r="P203">
-        <v>-0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="Q203">
         <v>0.1953125</v>
       </c>
       <c r="R203">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="S203">
-        <v>0.1171875</v>
+        <v>0.1953125</v>
       </c>
       <c r="T203">
-        <v>-0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="U203">
-        <v>-0.1171875</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V203">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="204" spans="1:22">
@@ -10655,28 +10655,28 @@
         <v>3</v>
       </c>
       <c r="O204">
-        <v>-0.1953125</v>
+        <v>0.1953125</v>
       </c>
       <c r="P204">
-        <v>-0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="Q204">
-        <v>-0.1953125</v>
+        <v>0.1171875</v>
       </c>
       <c r="R204">
-        <v>0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="S204">
-        <v>-0.1953125</v>
+        <v>0.1953125</v>
       </c>
       <c r="T204">
-        <v>-0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="U204">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V204">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="205" spans="1:22">
@@ -10705,28 +10705,28 @@
         <v>0</v>
       </c>
       <c r="O205">
-        <v>-0.1171875</v>
+        <v>0.0390625</v>
       </c>
       <c r="P205">
-        <v>0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="Q205">
         <v>-0.0390625</v>
       </c>
       <c r="R205">
-        <v>0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="S205">
-        <v>-0.1953125</v>
+        <v>0.0390625</v>
       </c>
       <c r="T205">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="U205">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V205">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="206" spans="1:22">
@@ -10755,28 +10755,28 @@
         <v>5</v>
       </c>
       <c r="O206">
-        <v>0.0390625</v>
+        <v>0.1171875</v>
       </c>
       <c r="P206">
-        <v>0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="Q206">
-        <v>0.1171875</v>
+        <v>0.1953125</v>
       </c>
       <c r="R206">
-        <v>0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="S206">
-        <v>-0.0390625</v>
+        <v>0.1171875</v>
       </c>
       <c r="T206">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="U206">
-        <v>0.1953125</v>
+        <v>-0.1171875</v>
       </c>
       <c r="V206">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="207" spans="1:22">
@@ -10805,28 +10805,28 @@
         <v>1</v>
       </c>
       <c r="O207">
+        <v>-0.1171875</v>
+      </c>
+      <c r="P207">
+        <v>0.2083333333333333</v>
+      </c>
+      <c r="Q207">
         <v>-0.0390625</v>
       </c>
-      <c r="P207">
-        <v>-0.06944444444444445</v>
-      </c>
-      <c r="Q207">
-        <v>0.0390625</v>
-      </c>
       <c r="R207">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="S207">
-        <v>-0.0390625</v>
+        <v>-0.1953125</v>
       </c>
       <c r="T207">
-        <v>0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="U207">
         <v>0.1953125</v>
       </c>
       <c r="V207">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="208" spans="1:22">
@@ -10855,28 +10855,28 @@
         <v>0</v>
       </c>
       <c r="O208">
-        <v>-0.1953125</v>
+        <v>0.1953125</v>
       </c>
       <c r="P208">
-        <v>-0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="Q208">
-        <v>-0.1953125</v>
+        <v>0.1171875</v>
       </c>
       <c r="R208">
-        <v>0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="S208">
-        <v>-0.1953125</v>
+        <v>0.1953125</v>
       </c>
       <c r="T208">
-        <v>-0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="U208">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V208">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="209" spans="1:22">
@@ -10905,28 +10905,28 @@
         <v>0</v>
       </c>
       <c r="O209">
+        <v>-0.1171875</v>
+      </c>
+      <c r="P209">
+        <v>0.2083333333333333</v>
+      </c>
+      <c r="Q209">
         <v>-0.0390625</v>
       </c>
-      <c r="P209">
-        <v>-0.06944444444444445</v>
-      </c>
-      <c r="Q209">
-        <v>0.0390625</v>
-      </c>
       <c r="R209">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="S209">
-        <v>-0.0390625</v>
+        <v>-0.1953125</v>
       </c>
       <c r="T209">
-        <v>0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="U209">
         <v>0.1953125</v>
       </c>
       <c r="V209">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="210" spans="1:22">
@@ -10955,25 +10955,25 @@
         <v>2</v>
       </c>
       <c r="O210">
+        <v>-0.1171875</v>
+      </c>
+      <c r="P210">
+        <v>-0.2083333333333333</v>
+      </c>
+      <c r="Q210">
+        <v>-0.1171875</v>
+      </c>
+      <c r="R210">
+        <v>-0.06944444444444445</v>
+      </c>
+      <c r="S210">
         <v>-0.0390625</v>
       </c>
-      <c r="P210">
-        <v>-0.06944444444444445</v>
-      </c>
-      <c r="Q210">
-        <v>-0.0390625</v>
-      </c>
-      <c r="R210">
-        <v>-0.2083333333333333</v>
-      </c>
-      <c r="S210">
-        <v>-0.1171875</v>
-      </c>
       <c r="T210">
-        <v>-0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="U210">
-        <v>0.1953125</v>
+        <v>0.0390625</v>
       </c>
       <c r="V210">
         <v>0.2083333333333333</v>
@@ -11008,16 +11008,16 @@
         <v>-0.1953125</v>
       </c>
       <c r="P211">
-        <v>-0.06944444444444445</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="Q211">
         <v>-0.1953125</v>
       </c>
       <c r="R211">
-        <v>-0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="S211">
-        <v>-0.1953125</v>
+        <v>-0.1171875</v>
       </c>
       <c r="T211">
         <v>0.06944444444444445</v>
@@ -11026,7 +11026,7 @@
         <v>0.1953125</v>
       </c>
       <c r="V211">
-        <v>0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
     </row>
     <row r="212" spans="1:22">
@@ -11055,28 +11055,28 @@
         <v>0</v>
       </c>
       <c r="O212">
-        <v>0.0390625</v>
+        <v>0.1171875</v>
       </c>
       <c r="P212">
-        <v>0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="Q212">
-        <v>0.1171875</v>
+        <v>0.1953125</v>
       </c>
       <c r="R212">
-        <v>0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="S212">
-        <v>-0.0390625</v>
+        <v>0.1171875</v>
       </c>
       <c r="T212">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="U212">
-        <v>0.1953125</v>
+        <v>-0.1171875</v>
       </c>
       <c r="V212">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="213" spans="1:22">
@@ -11105,25 +11105,25 @@
         <v>0</v>
       </c>
       <c r="O213">
+        <v>-0.1171875</v>
+      </c>
+      <c r="P213">
+        <v>-0.2083333333333333</v>
+      </c>
+      <c r="Q213">
+        <v>-0.1171875</v>
+      </c>
+      <c r="R213">
+        <v>-0.06944444444444445</v>
+      </c>
+      <c r="S213">
         <v>-0.0390625</v>
       </c>
-      <c r="P213">
-        <v>-0.06944444444444445</v>
-      </c>
-      <c r="Q213">
-        <v>-0.0390625</v>
-      </c>
-      <c r="R213">
-        <v>-0.2083333333333333</v>
-      </c>
-      <c r="S213">
-        <v>-0.1171875</v>
-      </c>
       <c r="T213">
-        <v>-0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="U213">
-        <v>0.1953125</v>
+        <v>0.0390625</v>
       </c>
       <c r="V213">
         <v>0.2083333333333333</v>
@@ -11155,28 +11155,28 @@
         <v>5</v>
       </c>
       <c r="O214">
-        <v>0.1171875</v>
+        <v>-0.1171875</v>
       </c>
       <c r="P214">
-        <v>-0.06944444444444445</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="Q214">
-        <v>0.1171875</v>
+        <v>-0.1171875</v>
       </c>
       <c r="R214">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="S214">
-        <v>0.0390625</v>
+        <v>-0.0390625</v>
       </c>
       <c r="T214">
-        <v>-0.06944444444444445</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="U214">
-        <v>-0.1953125</v>
+        <v>0.1953125</v>
       </c>
       <c r="V214">
-        <v>0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="215" spans="1:22">
@@ -11208,16 +11208,16 @@
         <v>-0.1953125</v>
       </c>
       <c r="P215">
-        <v>-0.06944444444444445</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="Q215">
         <v>-0.1953125</v>
       </c>
       <c r="R215">
-        <v>-0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="S215">
-        <v>-0.1953125</v>
+        <v>-0.1171875</v>
       </c>
       <c r="T215">
         <v>0.06944444444444445</v>
@@ -11226,7 +11226,7 @@
         <v>0.1953125</v>
       </c>
       <c r="V215">
-        <v>0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
     </row>
     <row r="216" spans="1:22">
@@ -11255,28 +11255,28 @@
         <v>2</v>
       </c>
       <c r="O216">
-        <v>-0.1171875</v>
+        <v>0.1953125</v>
       </c>
       <c r="P216">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="Q216">
-        <v>-0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="R216">
-        <v>-0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="S216">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="T216">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="U216">
-        <v>0.1171875</v>
+        <v>0.0390625</v>
       </c>
       <c r="V216">
-        <v>0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="217" spans="1:22">
@@ -11305,28 +11305,28 @@
         <v>0</v>
       </c>
       <c r="O217">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="P217">
         <v>0.06944444444444445</v>
       </c>
       <c r="Q217">
-        <v>-0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="R217">
         <v>0.06944444444444445</v>
       </c>
       <c r="S217">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="T217">
         <v>-0.06944444444444445</v>
       </c>
       <c r="U217">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V217">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="218" spans="1:22">
@@ -11355,25 +11355,25 @@
         <v>4</v>
       </c>
       <c r="O218">
-        <v>0.0390625</v>
+        <v>-0.0390625</v>
       </c>
       <c r="P218">
         <v>0.2083333333333333</v>
       </c>
       <c r="Q218">
+        <v>-0.1171875</v>
+      </c>
+      <c r="R218">
+        <v>0.2083333333333333</v>
+      </c>
+      <c r="S218">
         <v>-0.0390625</v>
       </c>
-      <c r="R218">
-        <v>0.2083333333333333</v>
-      </c>
-      <c r="S218">
-        <v>0.0390625</v>
-      </c>
       <c r="T218">
         <v>0.06944444444444445</v>
       </c>
       <c r="U218">
-        <v>-0.1953125</v>
+        <v>0.1953125</v>
       </c>
       <c r="V218">
         <v>-0.2083333333333333</v>
@@ -11405,28 +11405,28 @@
         <v>0</v>
       </c>
       <c r="O219">
-        <v>-0.1171875</v>
+        <v>0.1953125</v>
       </c>
       <c r="P219">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="Q219">
-        <v>-0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="R219">
-        <v>-0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="S219">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="T219">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="U219">
-        <v>0.1171875</v>
+        <v>0.0390625</v>
       </c>
       <c r="V219">
-        <v>0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="220" spans="1:22">
@@ -11455,28 +11455,28 @@
         <v>0</v>
       </c>
       <c r="O220">
-        <v>0.1171875</v>
+        <v>-0.1171875</v>
       </c>
       <c r="P220">
-        <v>-0.06944444444444445</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="Q220">
-        <v>0.1171875</v>
+        <v>-0.1171875</v>
       </c>
       <c r="R220">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="S220">
-        <v>0.0390625</v>
+        <v>-0.0390625</v>
       </c>
       <c r="T220">
-        <v>-0.06944444444444445</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="U220">
-        <v>-0.1953125</v>
+        <v>0.1953125</v>
       </c>
       <c r="V220">
-        <v>0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="221" spans="1:22">
@@ -11505,22 +11505,22 @@
         <v>3</v>
       </c>
       <c r="O221">
+        <v>-0.0390625</v>
+      </c>
+      <c r="P221">
+        <v>0.06944444444444445</v>
+      </c>
+      <c r="Q221">
         <v>-0.1171875</v>
       </c>
-      <c r="P221">
-        <v>0.2083333333333333</v>
-      </c>
-      <c r="Q221">
-        <v>-0.1953125</v>
-      </c>
       <c r="R221">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="S221">
         <v>-0.0390625</v>
       </c>
       <c r="T221">
-        <v>0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="U221">
         <v>0.1953125</v>
@@ -11555,28 +11555,28 @@
         <v>1</v>
       </c>
       <c r="O222">
-        <v>-0.1953125</v>
+        <v>0.1953125</v>
       </c>
       <c r="P222">
-        <v>0.06944444444444445</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="Q222">
-        <v>-0.1953125</v>
+        <v>0.1953125</v>
       </c>
       <c r="R222">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="S222">
-        <v>-0.1171875</v>
+        <v>0.1953125</v>
       </c>
       <c r="T222">
-        <v>0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="U222">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V222">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="223" spans="1:22">
@@ -11605,25 +11605,25 @@
         <v>0</v>
       </c>
       <c r="O223">
-        <v>0.0390625</v>
+        <v>-0.0390625</v>
       </c>
       <c r="P223">
         <v>0.2083333333333333</v>
       </c>
       <c r="Q223">
+        <v>-0.1171875</v>
+      </c>
+      <c r="R223">
+        <v>0.2083333333333333</v>
+      </c>
+      <c r="S223">
         <v>-0.0390625</v>
       </c>
-      <c r="R223">
-        <v>0.2083333333333333</v>
-      </c>
-      <c r="S223">
-        <v>0.0390625</v>
-      </c>
       <c r="T223">
         <v>0.06944444444444445</v>
       </c>
       <c r="U223">
-        <v>-0.1953125</v>
+        <v>0.1953125</v>
       </c>
       <c r="V223">
         <v>-0.2083333333333333</v>
@@ -11655,28 +11655,28 @@
         <v>0</v>
       </c>
       <c r="O224">
-        <v>-0.1953125</v>
+        <v>0.1953125</v>
       </c>
       <c r="P224">
-        <v>0.06944444444444445</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="Q224">
-        <v>-0.1953125</v>
+        <v>0.1953125</v>
       </c>
       <c r="R224">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="S224">
-        <v>-0.1171875</v>
+        <v>0.1953125</v>
       </c>
       <c r="T224">
-        <v>0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="U224">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V224">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="225" spans="1:22">
@@ -11705,22 +11705,22 @@
         <v>0</v>
       </c>
       <c r="O225">
+        <v>-0.0390625</v>
+      </c>
+      <c r="P225">
+        <v>0.06944444444444445</v>
+      </c>
+      <c r="Q225">
         <v>-0.1171875</v>
       </c>
-      <c r="P225">
-        <v>0.2083333333333333</v>
-      </c>
-      <c r="Q225">
-        <v>-0.1953125</v>
-      </c>
       <c r="R225">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="S225">
         <v>-0.0390625</v>
       </c>
       <c r="T225">
-        <v>0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="U225">
         <v>0.1953125</v>
@@ -11755,28 +11755,28 @@
         <v>1</v>
       </c>
       <c r="O226">
-        <v>0.1171875</v>
+        <v>-0.1171875</v>
       </c>
       <c r="P226">
-        <v>-0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="Q226">
-        <v>0.0390625</v>
+        <v>-0.0390625</v>
       </c>
       <c r="R226">
-        <v>-0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="S226">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="T226">
-        <v>-0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="U226">
-        <v>-0.1953125</v>
+        <v>0.1953125</v>
       </c>
       <c r="V226">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="227" spans="1:22">
@@ -11805,25 +11805,25 @@
         <v>2</v>
       </c>
       <c r="O227">
-        <v>-0.0390625</v>
+        <v>0.1171875</v>
       </c>
       <c r="P227">
         <v>-0.06944444444444445</v>
       </c>
       <c r="Q227">
-        <v>0.0390625</v>
+        <v>0.1171875</v>
       </c>
       <c r="R227">
-        <v>-0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="S227">
-        <v>-0.0390625</v>
+        <v>0.0390625</v>
       </c>
       <c r="T227">
-        <v>-0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="U227">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V227">
         <v>0.2083333333333333</v>
@@ -11855,28 +11855,28 @@
         <v>0</v>
       </c>
       <c r="O228">
-        <v>0.1171875</v>
+        <v>-0.1171875</v>
       </c>
       <c r="P228">
-        <v>-0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="Q228">
-        <v>0.0390625</v>
+        <v>-0.0390625</v>
       </c>
       <c r="R228">
-        <v>-0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="S228">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="T228">
-        <v>-0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="U228">
-        <v>-0.1953125</v>
+        <v>0.1953125</v>
       </c>
       <c r="V228">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="229" spans="1:22">
@@ -11905,25 +11905,25 @@
         <v>1</v>
       </c>
       <c r="O229">
-        <v>-0.1953125</v>
+        <v>0.1953125</v>
       </c>
       <c r="P229">
-        <v>-0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="Q229">
+        <v>0.1953125</v>
+      </c>
+      <c r="R229">
+        <v>0.06944444444444445</v>
+      </c>
+      <c r="S229">
+        <v>0.1953125</v>
+      </c>
+      <c r="T229">
+        <v>-0.2083333333333333</v>
+      </c>
+      <c r="U229">
         <v>-0.1171875</v>
-      </c>
-      <c r="R229">
-        <v>-0.2083333333333333</v>
-      </c>
-      <c r="S229">
-        <v>-0.1953125</v>
-      </c>
-      <c r="T229">
-        <v>-0.06944444444444445</v>
-      </c>
-      <c r="U229">
-        <v>0.0390625</v>
       </c>
       <c r="V229">
         <v>0.2083333333333333</v>
@@ -11955,25 +11955,25 @@
         <v>0</v>
       </c>
       <c r="O230">
-        <v>-0.0390625</v>
+        <v>0.1171875</v>
       </c>
       <c r="P230">
         <v>-0.06944444444444445</v>
       </c>
       <c r="Q230">
-        <v>0.0390625</v>
+        <v>0.1171875</v>
       </c>
       <c r="R230">
-        <v>-0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="S230">
-        <v>-0.0390625</v>
+        <v>0.0390625</v>
       </c>
       <c r="T230">
-        <v>-0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="U230">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V230">
         <v>0.2083333333333333</v>
@@ -12005,25 +12005,25 @@
         <v>0</v>
       </c>
       <c r="O231">
-        <v>-0.1953125</v>
+        <v>0.1953125</v>
       </c>
       <c r="P231">
-        <v>-0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="Q231">
+        <v>0.1953125</v>
+      </c>
+      <c r="R231">
+        <v>0.06944444444444445</v>
+      </c>
+      <c r="S231">
+        <v>0.1953125</v>
+      </c>
+      <c r="T231">
+        <v>-0.2083333333333333</v>
+      </c>
+      <c r="U231">
         <v>-0.1171875</v>
-      </c>
-      <c r="R231">
-        <v>-0.2083333333333333</v>
-      </c>
-      <c r="S231">
-        <v>-0.1953125</v>
-      </c>
-      <c r="T231">
-        <v>-0.06944444444444445</v>
-      </c>
-      <c r="U231">
-        <v>0.0390625</v>
       </c>
       <c r="V231">
         <v>0.2083333333333333</v>
@@ -12055,28 +12055,28 @@
         <v>5</v>
       </c>
       <c r="O232">
-        <v>-0.1171875</v>
+        <v>-0.1953125</v>
       </c>
       <c r="P232">
-        <v>0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="Q232">
         <v>-0.1171875</v>
       </c>
       <c r="R232">
-        <v>-0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="S232">
-        <v>-0.0390625</v>
+        <v>-0.1953125</v>
       </c>
       <c r="T232">
-        <v>0.06944444444444445</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="U232">
-        <v>0.1953125</v>
+        <v>0.1171875</v>
       </c>
       <c r="V232">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="233" spans="1:22">
@@ -12105,28 +12105,28 @@
         <v>3</v>
       </c>
       <c r="O233">
-        <v>-0.0390625</v>
+        <v>-0.1953125</v>
       </c>
       <c r="P233">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="Q233">
-        <v>-0.1171875</v>
+        <v>-0.1953125</v>
       </c>
       <c r="R233">
         <v>0.2083333333333333</v>
       </c>
       <c r="S233">
-        <v>0.0390625</v>
+        <v>-0.1953125</v>
       </c>
       <c r="T233">
-        <v>0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="U233">
         <v>0.1953125</v>
       </c>
       <c r="V233">
-        <v>-0.06944444444444445</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="234" spans="1:22">
@@ -12155,25 +12155,25 @@
         <v>5</v>
       </c>
       <c r="O234">
-        <v>0.0390625</v>
+        <v>0.1171875</v>
       </c>
       <c r="P234">
-        <v>0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="Q234">
-        <v>-0.0390625</v>
+        <v>0.1171875</v>
       </c>
       <c r="R234">
         <v>0.06944444444444445</v>
       </c>
       <c r="S234">
-        <v>0.1171875</v>
+        <v>0.0390625</v>
       </c>
       <c r="T234">
-        <v>0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="U234">
-        <v>-0.1953125</v>
+        <v>-0.1171875</v>
       </c>
       <c r="V234">
         <v>-0.2083333333333333</v>
@@ -12205,28 +12205,28 @@
         <v>5</v>
       </c>
       <c r="O235">
-        <v>-0.0390625</v>
+        <v>0.1171875</v>
       </c>
       <c r="P235">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="Q235">
-        <v>-0.0390625</v>
+        <v>0.0390625</v>
       </c>
       <c r="R235">
         <v>0.06944444444444445</v>
       </c>
       <c r="S235">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="T235">
         <v>0.2083333333333333</v>
       </c>
       <c r="U235">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V235">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="236" spans="1:22">
@@ -12258,25 +12258,25 @@
         <v>-0.0390625</v>
       </c>
       <c r="P236">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="Q236">
-        <v>-0.1171875</v>
+        <v>0.0390625</v>
       </c>
       <c r="R236">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="S236">
         <v>-0.0390625</v>
       </c>
       <c r="T236">
-        <v>-0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="U236">
         <v>0.1953125</v>
       </c>
       <c r="V236">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="237" spans="1:22">
@@ -12305,28 +12305,28 @@
         <v>0</v>
       </c>
       <c r="O237">
-        <v>-0.0390625</v>
+        <v>-0.1953125</v>
       </c>
       <c r="P237">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="Q237">
-        <v>-0.1171875</v>
+        <v>-0.1953125</v>
       </c>
       <c r="R237">
         <v>0.2083333333333333</v>
       </c>
       <c r="S237">
-        <v>0.0390625</v>
+        <v>-0.1953125</v>
       </c>
       <c r="T237">
-        <v>0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="U237">
         <v>0.1953125</v>
       </c>
       <c r="V237">
-        <v>-0.06944444444444445</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="238" spans="1:22">
@@ -12355,28 +12355,28 @@
         <v>0</v>
       </c>
       <c r="O238">
-        <v>-0.1171875</v>
+        <v>-0.1953125</v>
       </c>
       <c r="P238">
-        <v>0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="Q238">
         <v>-0.1171875</v>
       </c>
       <c r="R238">
-        <v>-0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="S238">
-        <v>-0.0390625</v>
+        <v>-0.1953125</v>
       </c>
       <c r="T238">
-        <v>0.06944444444444445</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="U238">
-        <v>0.1953125</v>
+        <v>0.1171875</v>
       </c>
       <c r="V238">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="239" spans="1:22">
@@ -12408,25 +12408,25 @@
         <v>-0.0390625</v>
       </c>
       <c r="P239">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="Q239">
-        <v>-0.1171875</v>
+        <v>0.0390625</v>
       </c>
       <c r="R239">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="S239">
         <v>-0.0390625</v>
       </c>
       <c r="T239">
-        <v>-0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="U239">
         <v>0.1953125</v>
       </c>
       <c r="V239">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
     </row>
     <row r="240" spans="1:22">
@@ -12455,25 +12455,25 @@
         <v>0</v>
       </c>
       <c r="O240">
-        <v>0.0390625</v>
+        <v>0.1171875</v>
       </c>
       <c r="P240">
-        <v>0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="Q240">
-        <v>-0.0390625</v>
+        <v>0.1171875</v>
       </c>
       <c r="R240">
         <v>0.06944444444444445</v>
       </c>
       <c r="S240">
-        <v>0.1171875</v>
+        <v>0.0390625</v>
       </c>
       <c r="T240">
-        <v>0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="U240">
-        <v>-0.1953125</v>
+        <v>-0.1171875</v>
       </c>
       <c r="V240">
         <v>-0.2083333333333333</v>
@@ -12505,28 +12505,28 @@
         <v>0</v>
       </c>
       <c r="O241">
-        <v>-0.0390625</v>
+        <v>0.1171875</v>
       </c>
       <c r="P241">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="Q241">
-        <v>-0.0390625</v>
+        <v>0.0390625</v>
       </c>
       <c r="R241">
         <v>0.06944444444444445</v>
       </c>
       <c r="S241">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="T241">
         <v>0.2083333333333333</v>
       </c>
       <c r="U241">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V241">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="242" spans="1:22">
@@ -12555,28 +12555,28 @@
         <v>4</v>
       </c>
       <c r="O242">
-        <v>-0.1171875</v>
+        <v>0.1953125</v>
       </c>
       <c r="P242">
-        <v>0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="Q242">
-        <v>-0.1953125</v>
+        <v>0.1953125</v>
       </c>
       <c r="R242">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="S242">
-        <v>-0.1171875</v>
+        <v>0.1953125</v>
       </c>
       <c r="T242">
-        <v>0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="U242">
-        <v>0.1171875</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V242">
-        <v>-0.06944444444444445</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="243" spans="1:22">
@@ -12605,7 +12605,7 @@
         <v>4</v>
       </c>
       <c r="O243">
-        <v>-0.0390625</v>
+        <v>0.1171875</v>
       </c>
       <c r="P243">
         <v>0.06944444444444445</v>
@@ -12617,13 +12617,13 @@
         <v>0.06944444444444445</v>
       </c>
       <c r="S243">
-        <v>-0.1171875</v>
+        <v>0.1953125</v>
       </c>
       <c r="T243">
         <v>0.06944444444444445</v>
       </c>
       <c r="U243">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V243">
         <v>-0.2083333333333333</v>
@@ -12655,28 +12655,28 @@
         <v>1</v>
       </c>
       <c r="O244">
-        <v>0.1171875</v>
+        <v>0.0390625</v>
       </c>
       <c r="P244">
-        <v>0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="Q244">
         <v>0.1171875</v>
       </c>
       <c r="R244">
-        <v>0.2083333333333333</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="S244">
-        <v>0.0390625</v>
+        <v>-0.0390625</v>
       </c>
       <c r="T244">
-        <v>0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="U244">
         <v>-0.1953125</v>
       </c>
       <c r="V244">
-        <v>-0.2083333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="245" spans="1:22">
@@ -12705,28 +12705,28 @@
         <v>0</v>
       </c>
       <c r="O245">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="P245">
         <v>0.06944444444444445</v>
       </c>
       <c r="Q245">
-        <v>-0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="R245">
         <v>0.06944444444444445</v>
       </c>
       <c r="S245">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="T245">
         <v>-0.06944444444444445</v>
       </c>
       <c r="U245">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V245">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="246" spans="1:22">
@@ -12755,28 +12755,28 @@
         <v>0</v>
       </c>
       <c r="O246">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="P246">
         <v>0.06944444444444445</v>
       </c>
       <c r="Q246">
-        <v>-0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="R246">
         <v>0.06944444444444445</v>
       </c>
       <c r="S246">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="T246">
         <v>-0.06944444444444445</v>
       </c>
       <c r="U246">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V246">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="247" spans="1:22">
@@ -12805,28 +12805,28 @@
         <v>0</v>
       </c>
       <c r="O247">
-        <v>-0.1171875</v>
+        <v>0.1953125</v>
       </c>
       <c r="P247">
-        <v>0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="Q247">
-        <v>-0.1953125</v>
+        <v>0.1953125</v>
       </c>
       <c r="R247">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="S247">
-        <v>-0.1171875</v>
+        <v>0.1953125</v>
       </c>
       <c r="T247">
-        <v>0.06944444444444445</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="U247">
-        <v>0.1171875</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V247">
-        <v>-0.06944444444444445</v>
+        <v>0.06944444444444445</v>
       </c>
     </row>
     <row r="248" spans="1:22">
@@ -12855,7 +12855,7 @@
         <v>0</v>
       </c>
       <c r="O248">
-        <v>-0.0390625</v>
+        <v>0.1171875</v>
       </c>
       <c r="P248">
         <v>0.06944444444444445</v>
@@ -12867,13 +12867,13 @@
         <v>0.06944444444444445</v>
       </c>
       <c r="S248">
-        <v>-0.1171875</v>
+        <v>0.1953125</v>
       </c>
       <c r="T248">
         <v>0.06944444444444445</v>
       </c>
       <c r="U248">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V248">
         <v>-0.2083333333333333</v>
@@ -12905,28 +12905,28 @@
         <v>0</v>
       </c>
       <c r="O249">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="P249">
         <v>0.06944444444444445</v>
       </c>
       <c r="Q249">
-        <v>-0.0390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="R249">
         <v>0.06944444444444445</v>
       </c>
       <c r="S249">
-        <v>-0.1171875</v>
+        <v>0.1171875</v>
       </c>
       <c r="T249">
         <v>-0.06944444444444445</v>
       </c>
       <c r="U249">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V249">
-        <v>-0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="250" spans="1:22">
@@ -12955,25 +12955,25 @@
         <v>3</v>
       </c>
       <c r="O250">
-        <v>0.1953125</v>
+        <v>0.0390625</v>
       </c>
       <c r="P250">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="Q250">
-        <v>0.1953125</v>
+        <v>0.1171875</v>
       </c>
       <c r="R250">
         <v>0.06944444444444445</v>
       </c>
       <c r="S250">
-        <v>0.1171875</v>
+        <v>-0.0390625</v>
       </c>
       <c r="T250">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="U250">
-        <v>0.0390625</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V250">
         <v>-0.2083333333333333</v>
@@ -13005,25 +13005,25 @@
         <v>4</v>
       </c>
       <c r="O251">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="P251">
         <v>-0.06944444444444445</v>
       </c>
       <c r="Q251">
-        <v>0.1171875</v>
+        <v>-0.1171875</v>
       </c>
       <c r="R251">
         <v>-0.06944444444444445</v>
       </c>
       <c r="S251">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="T251">
         <v>0.06944444444444445</v>
       </c>
       <c r="U251">
-        <v>-0.1953125</v>
+        <v>0.1953125</v>
       </c>
       <c r="V251">
         <v>0.2083333333333333</v>
@@ -13055,22 +13055,22 @@
         <v>2</v>
       </c>
       <c r="O252">
-        <v>-0.0390625</v>
+        <v>-0.1953125</v>
       </c>
       <c r="P252">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="Q252">
-        <v>-0.0390625</v>
+        <v>-0.1953125</v>
       </c>
       <c r="R252">
-        <v>0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="S252">
-        <v>0.0390625</v>
+        <v>-0.1953125</v>
       </c>
       <c r="T252">
-        <v>0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="U252">
         <v>0.1953125</v>
@@ -13105,25 +13105,25 @@
         <v>3</v>
       </c>
       <c r="O253">
-        <v>0.1953125</v>
+        <v>-0.1171875</v>
       </c>
       <c r="P253">
         <v>0.2083333333333333</v>
       </c>
       <c r="Q253">
-        <v>0.1171875</v>
+        <v>-0.0390625</v>
       </c>
       <c r="R253">
         <v>0.2083333333333333</v>
       </c>
       <c r="S253">
-        <v>0.1953125</v>
+        <v>-0.1171875</v>
       </c>
       <c r="T253">
         <v>0.06944444444444445</v>
       </c>
       <c r="U253">
-        <v>-0.1953125</v>
+        <v>0.1953125</v>
       </c>
       <c r="V253">
         <v>-0.2083333333333333</v>
@@ -13155,25 +13155,25 @@
         <v>0</v>
       </c>
       <c r="O254">
-        <v>0.1953125</v>
+        <v>0.0390625</v>
       </c>
       <c r="P254">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="Q254">
-        <v>0.1953125</v>
+        <v>0.1171875</v>
       </c>
       <c r="R254">
         <v>0.06944444444444445</v>
       </c>
       <c r="S254">
-        <v>0.1171875</v>
+        <v>-0.0390625</v>
       </c>
       <c r="T254">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="U254">
-        <v>0.0390625</v>
+        <v>-0.1953125</v>
       </c>
       <c r="V254">
         <v>-0.2083333333333333</v>
@@ -13205,22 +13205,22 @@
         <v>0</v>
       </c>
       <c r="O255">
-        <v>-0.0390625</v>
+        <v>-0.1953125</v>
       </c>
       <c r="P255">
-        <v>0.2083333333333333</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="Q255">
-        <v>-0.0390625</v>
+        <v>-0.1953125</v>
       </c>
       <c r="R255">
-        <v>0.06944444444444445</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="S255">
-        <v>0.0390625</v>
+        <v>-0.1953125</v>
       </c>
       <c r="T255">
-        <v>0.2083333333333333</v>
+        <v>-0.06944444444444445</v>
       </c>
       <c r="U255">
         <v>0.1953125</v>
@@ -13255,25 +13255,25 @@
         <v>0</v>
       </c>
       <c r="O256">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="P256">
         <v>-0.06944444444444445</v>
       </c>
       <c r="Q256">
-        <v>0.1171875</v>
+        <v>-0.1171875</v>
       </c>
       <c r="R256">
         <v>-0.06944444444444445</v>
       </c>
       <c r="S256">
-        <v>0.1953125</v>
+        <v>-0.1953125</v>
       </c>
       <c r="T256">
         <v>0.06944444444444445</v>
       </c>
       <c r="U256">
-        <v>-0.1953125</v>
+        <v>0.1953125</v>
       </c>
       <c r="V256">
         <v>0.2083333333333333</v>
@@ -13305,25 +13305,25 @@
         <v>0</v>
       </c>
       <c r="O257">
-        <v>0.1953125</v>
+        <v>-0.1171875</v>
       </c>
       <c r="P257">
         <v>0.2083333333333333</v>
       </c>
       <c r="Q257">
-        <v>0.1171875</v>
+        <v>-0.0390625</v>
       </c>
       <c r="R257">
         <v>0.2083333333333333</v>
       </c>
       <c r="S257">
-        <v>0.1953125</v>
+        <v>-0.1171875</v>
       </c>
       <c r="T257">
         <v>0.06944444444444445</v>
       </c>
       <c r="U257">
-        <v>-0.1953125</v>
+        <v>0.1953125</v>
       </c>
       <c r="V257">
         <v>-0.2083333333333333</v>

--- a/StimuliTable-Encoding_8-blocks_40-pairs_grid-loc_12345-delays.xlsx
+++ b/StimuliTable-Encoding_8-blocks_40-pairs_grid-loc_12345-delays.xlsx
@@ -555,28 +555,28 @@
         <v>5</v>
       </c>
       <c r="O2">
-        <v>0.1171875</v>
+        <v>-0.078125</v>
       </c>
       <c r="P2">
-        <v>-0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q2">
-        <v>0.1953125</v>
+        <v>0.078125</v>
       </c>
       <c r="R2">
-        <v>-0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S2">
-        <v>0.1171875</v>
+        <v>-0.078125</v>
       </c>
       <c r="T2">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U2">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V2">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -605,28 +605,28 @@
         <v>3</v>
       </c>
       <c r="O3">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="P3">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q3">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="R3">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S3">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="T3">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U3">
-        <v>-0.1953125</v>
+        <v>0.234375</v>
       </c>
       <c r="V3">
-        <v>-0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -655,28 +655,28 @@
         <v>4</v>
       </c>
       <c r="O4">
-        <v>-0.0390625</v>
+        <v>-0.390625</v>
       </c>
       <c r="P4">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q4">
-        <v>-0.0390625</v>
+        <v>-0.234375</v>
       </c>
       <c r="R4">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S4">
-        <v>0.0390625</v>
+        <v>-0.390625</v>
       </c>
       <c r="T4">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U4">
-        <v>0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V4">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -705,28 +705,28 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="P5">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q5">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="R5">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S5">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="T5">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U5">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V5">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -755,28 +755,28 @@
         <v>4</v>
       </c>
       <c r="O6">
-        <v>0.0390625</v>
+        <v>0.390625</v>
       </c>
       <c r="P6">
-        <v>0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q6">
-        <v>0.1171875</v>
+        <v>0.234375</v>
       </c>
       <c r="R6">
-        <v>0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S6">
-        <v>0.0390625</v>
+        <v>0.390625</v>
       </c>
       <c r="T6">
-        <v>0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U6">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V6">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -805,28 +805,28 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="P7">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q7">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="R7">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S7">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="T7">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U7">
-        <v>-0.1953125</v>
+        <v>0.234375</v>
       </c>
       <c r="V7">
-        <v>-0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -855,28 +855,28 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.1171875</v>
+        <v>-0.078125</v>
       </c>
       <c r="P8">
-        <v>-0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q8">
-        <v>0.1953125</v>
+        <v>0.078125</v>
       </c>
       <c r="R8">
-        <v>-0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S8">
-        <v>0.1171875</v>
+        <v>-0.078125</v>
       </c>
       <c r="T8">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U8">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V8">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -905,28 +905,28 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>-0.0390625</v>
+        <v>-0.390625</v>
       </c>
       <c r="P9">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q9">
-        <v>-0.0390625</v>
+        <v>-0.234375</v>
       </c>
       <c r="R9">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S9">
-        <v>0.0390625</v>
+        <v>-0.390625</v>
       </c>
       <c r="T9">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U9">
-        <v>0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V9">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -955,28 +955,28 @@
         <v>2</v>
       </c>
       <c r="O10">
-        <v>0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="P10">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q10">
-        <v>0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="R10">
-        <v>-0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S10">
-        <v>0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="T10">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U10">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V10">
-        <v>0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1005,28 +1005,28 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.0390625</v>
+        <v>0.390625</v>
       </c>
       <c r="P11">
-        <v>0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q11">
-        <v>0.1171875</v>
+        <v>0.234375</v>
       </c>
       <c r="R11">
-        <v>0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S11">
-        <v>0.0390625</v>
+        <v>0.390625</v>
       </c>
       <c r="T11">
-        <v>0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U11">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V11">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1055,28 +1055,28 @@
         <v>1</v>
       </c>
       <c r="O12">
-        <v>0.0390625</v>
+        <v>-0.390625</v>
       </c>
       <c r="P12">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q12">
-        <v>-0.0390625</v>
+        <v>-0.234375</v>
       </c>
       <c r="R12">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S12">
-        <v>0.0390625</v>
+        <v>-0.390625</v>
       </c>
       <c r="T12">
-        <v>-0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U12">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V12">
-        <v>0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1105,28 +1105,28 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="P13">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q13">
-        <v>0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="R13">
-        <v>-0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S13">
-        <v>0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="T13">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U13">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V13">
-        <v>0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1155,28 +1155,28 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.0390625</v>
+        <v>-0.390625</v>
       </c>
       <c r="P14">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q14">
-        <v>-0.0390625</v>
+        <v>-0.234375</v>
       </c>
       <c r="R14">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S14">
-        <v>0.0390625</v>
+        <v>-0.390625</v>
       </c>
       <c r="T14">
-        <v>-0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U14">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V14">
-        <v>0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1205,28 +1205,28 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="P15">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q15">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="R15">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S15">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="T15">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U15">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V15">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1255,28 +1255,28 @@
         <v>3</v>
       </c>
       <c r="O16">
-        <v>0.0390625</v>
+        <v>0.390625</v>
       </c>
       <c r="P16">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q16">
-        <v>0.0390625</v>
+        <v>0.390625</v>
       </c>
       <c r="R16">
-        <v>0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S16">
-        <v>-0.0390625</v>
+        <v>0.234375</v>
       </c>
       <c r="T16">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U16">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V16">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1305,28 +1305,28 @@
         <v>5</v>
       </c>
       <c r="O17">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="P17">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q17">
-        <v>0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="R17">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S17">
-        <v>0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="T17">
-        <v>0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U17">
-        <v>-0.0390625</v>
+        <v>0.234375</v>
       </c>
       <c r="V17">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -1355,28 +1355,28 @@
         <v>3</v>
       </c>
       <c r="O18">
-        <v>-0.1953125</v>
+        <v>-0.078125</v>
       </c>
       <c r="P18">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q18">
-        <v>-0.1171875</v>
+        <v>-0.078125</v>
       </c>
       <c r="R18">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S18">
-        <v>-0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="T18">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U18">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V18">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -1405,28 +1405,28 @@
         <v>1</v>
       </c>
       <c r="O19">
-        <v>0.1171875</v>
+        <v>0.234375</v>
       </c>
       <c r="P19">
-        <v>-0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q19">
-        <v>0.1171875</v>
+        <v>0.234375</v>
       </c>
       <c r="R19">
-        <v>-0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S19">
-        <v>0.1953125</v>
+        <v>0.078125</v>
       </c>
       <c r="T19">
-        <v>-0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U19">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V19">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -1455,28 +1455,28 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.0390625</v>
+        <v>0.390625</v>
       </c>
       <c r="P20">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q20">
-        <v>0.0390625</v>
+        <v>0.390625</v>
       </c>
       <c r="R20">
-        <v>0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S20">
-        <v>-0.0390625</v>
+        <v>0.234375</v>
       </c>
       <c r="T20">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U20">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V20">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.1171875</v>
+        <v>0.234375</v>
       </c>
       <c r="P21">
-        <v>-0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q21">
-        <v>0.1171875</v>
+        <v>0.234375</v>
       </c>
       <c r="R21">
-        <v>-0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S21">
-        <v>0.1953125</v>
+        <v>0.078125</v>
       </c>
       <c r="T21">
-        <v>-0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U21">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V21">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -1555,28 +1555,28 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>-0.1953125</v>
+        <v>-0.078125</v>
       </c>
       <c r="P22">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q22">
-        <v>-0.1171875</v>
+        <v>-0.078125</v>
       </c>
       <c r="R22">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S22">
-        <v>-0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="T22">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U22">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V22">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -1605,28 +1605,28 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="P23">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q23">
-        <v>0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="R23">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S23">
-        <v>0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="T23">
-        <v>0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U23">
-        <v>-0.0390625</v>
+        <v>0.234375</v>
       </c>
       <c r="V23">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -1655,28 +1655,28 @@
         <v>5</v>
       </c>
       <c r="O24">
-        <v>0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="P24">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q24">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="R24">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S24">
-        <v>0.1953125</v>
+        <v>-0.078125</v>
       </c>
       <c r="T24">
-        <v>-0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U24">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V24">
-        <v>0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -1705,28 +1705,28 @@
         <v>2</v>
       </c>
       <c r="O25">
-        <v>-0.0390625</v>
+        <v>-0.390625</v>
       </c>
       <c r="P25">
-        <v>-0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q25">
-        <v>-0.0390625</v>
+        <v>-0.390625</v>
       </c>
       <c r="R25">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S25">
-        <v>0.0390625</v>
+        <v>-0.234375</v>
       </c>
       <c r="T25">
-        <v>-0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U25">
-        <v>0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V25">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -1755,28 +1755,28 @@
         <v>2</v>
       </c>
       <c r="O26">
-        <v>-0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="P26">
-        <v>0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q26">
-        <v>-0.0390625</v>
+        <v>-0.234375</v>
       </c>
       <c r="R26">
-        <v>0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S26">
-        <v>-0.1171875</v>
+        <v>-0.078125</v>
       </c>
       <c r="T26">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U26">
-        <v>0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V26">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="27" spans="1:22">
@@ -1805,28 +1805,28 @@
         <v>4</v>
       </c>
       <c r="O27">
-        <v>-0.0390625</v>
+        <v>0.390625</v>
       </c>
       <c r="P27">
-        <v>0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q27">
-        <v>0.0390625</v>
+        <v>0.390625</v>
       </c>
       <c r="R27">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S27">
-        <v>-0.0390625</v>
+        <v>0.390625</v>
       </c>
       <c r="T27">
-        <v>0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U27">
-        <v>0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="V27">
-        <v>-0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="28" spans="1:22">
@@ -1855,28 +1855,28 @@
         <v>0</v>
       </c>
       <c r="O28">
-        <v>-0.0390625</v>
+        <v>-0.390625</v>
       </c>
       <c r="P28">
-        <v>-0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q28">
-        <v>-0.0390625</v>
+        <v>-0.390625</v>
       </c>
       <c r="R28">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S28">
-        <v>0.0390625</v>
+        <v>-0.234375</v>
       </c>
       <c r="T28">
-        <v>-0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U28">
-        <v>0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V28">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -1905,28 +1905,28 @@
         <v>0</v>
       </c>
       <c r="O29">
-        <v>-0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="P29">
-        <v>0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q29">
-        <v>-0.0390625</v>
+        <v>-0.234375</v>
       </c>
       <c r="R29">
-        <v>0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S29">
-        <v>-0.1171875</v>
+        <v>-0.078125</v>
       </c>
       <c r="T29">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U29">
-        <v>0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V29">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -1955,28 +1955,28 @@
         <v>0</v>
       </c>
       <c r="O30">
-        <v>0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="P30">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q30">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="R30">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S30">
-        <v>0.1953125</v>
+        <v>-0.078125</v>
       </c>
       <c r="T30">
-        <v>-0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U30">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V30">
-        <v>0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -2005,28 +2005,28 @@
         <v>1</v>
       </c>
       <c r="O31">
-        <v>-0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="P31">
-        <v>0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q31">
-        <v>-0.1953125</v>
+        <v>0.234375</v>
       </c>
       <c r="R31">
-        <v>0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S31">
-        <v>-0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="T31">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U31">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V31">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -2055,28 +2055,28 @@
         <v>0</v>
       </c>
       <c r="O32">
-        <v>-0.0390625</v>
+        <v>0.390625</v>
       </c>
       <c r="P32">
-        <v>0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q32">
-        <v>0.0390625</v>
+        <v>0.390625</v>
       </c>
       <c r="R32">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S32">
-        <v>-0.0390625</v>
+        <v>0.390625</v>
       </c>
       <c r="T32">
-        <v>0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U32">
-        <v>0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="V32">
-        <v>-0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -2105,28 +2105,28 @@
         <v>0</v>
       </c>
       <c r="O33">
-        <v>-0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="P33">
-        <v>0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q33">
-        <v>-0.1953125</v>
+        <v>0.234375</v>
       </c>
       <c r="R33">
-        <v>0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S33">
-        <v>-0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="T33">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U33">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V33">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -2155,28 +2155,28 @@
         <v>3</v>
       </c>
       <c r="O34">
-        <v>-0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="P34">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q34">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="R34">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S34">
-        <v>-0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="T34">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U34">
-        <v>0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V34">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="35" spans="1:22">
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="O35">
-        <v>0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="P35">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q35">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="R35">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S35">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="T35">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U35">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V35">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -2255,28 +2255,28 @@
         <v>2</v>
       </c>
       <c r="O36">
-        <v>-0.1953125</v>
+        <v>0.234375</v>
       </c>
       <c r="P36">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q36">
-        <v>-0.1171875</v>
+        <v>0.078125</v>
       </c>
       <c r="R36">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S36">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="T36">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U36">
-        <v>0.0390625</v>
+        <v>-0.234375</v>
       </c>
       <c r="V36">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="37" spans="1:22">
@@ -2305,28 +2305,28 @@
         <v>4</v>
       </c>
       <c r="O37">
-        <v>-0.0390625</v>
+        <v>-0.234375</v>
       </c>
       <c r="P37">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q37">
-        <v>0.0390625</v>
+        <v>-0.234375</v>
       </c>
       <c r="R37">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S37">
-        <v>-0.0390625</v>
+        <v>-0.078125</v>
       </c>
       <c r="T37">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U37">
-        <v>0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V37">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="38" spans="1:22">
@@ -2355,28 +2355,28 @@
         <v>0</v>
       </c>
       <c r="O38">
-        <v>-0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="P38">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q38">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="R38">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S38">
-        <v>-0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="T38">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U38">
-        <v>0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V38">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="39" spans="1:22">
@@ -2405,28 +2405,28 @@
         <v>0</v>
       </c>
       <c r="O39">
-        <v>-0.1953125</v>
+        <v>0.234375</v>
       </c>
       <c r="P39">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q39">
-        <v>-0.1171875</v>
+        <v>0.078125</v>
       </c>
       <c r="R39">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S39">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="T39">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U39">
-        <v>0.0390625</v>
+        <v>-0.234375</v>
       </c>
       <c r="V39">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="40" spans="1:22">
@@ -2455,28 +2455,28 @@
         <v>4</v>
       </c>
       <c r="O40">
-        <v>-0.0390625</v>
+        <v>0.390625</v>
       </c>
       <c r="P40">
-        <v>0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q40">
-        <v>-0.0390625</v>
+        <v>0.234375</v>
       </c>
       <c r="R40">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S40">
-        <v>-0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="T40">
-        <v>0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U40">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V40">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="41" spans="1:22">
@@ -2505,28 +2505,28 @@
         <v>0</v>
       </c>
       <c r="O41">
-        <v>0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="P41">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q41">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="R41">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S41">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="T41">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U41">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V41">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="42" spans="1:22">
@@ -2555,28 +2555,28 @@
         <v>0</v>
       </c>
       <c r="O42">
-        <v>0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="P42">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q42">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="R42">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S42">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="T42">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U42">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V42">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="43" spans="1:22">
@@ -2605,28 +2605,28 @@
         <v>5</v>
       </c>
       <c r="O43">
-        <v>0.1953125</v>
+        <v>0.234375</v>
       </c>
       <c r="P43">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q43">
-        <v>0.1171875</v>
+        <v>0.234375</v>
       </c>
       <c r="R43">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S43">
-        <v>0.1953125</v>
+        <v>0.078125</v>
       </c>
       <c r="T43">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U43">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V43">
-        <v>-0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="44" spans="1:22">
@@ -2655,28 +2655,28 @@
         <v>5</v>
       </c>
       <c r="O44">
-        <v>-0.1953125</v>
+        <v>0.078125</v>
       </c>
       <c r="P44">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q44">
-        <v>-0.1171875</v>
+        <v>0.234375</v>
       </c>
       <c r="R44">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S44">
-        <v>-0.1953125</v>
+        <v>0.078125</v>
       </c>
       <c r="T44">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U44">
-        <v>0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="V44">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="45" spans="1:22">
@@ -2705,28 +2705,28 @@
         <v>0</v>
       </c>
       <c r="O45">
-        <v>-0.0390625</v>
+        <v>0.390625</v>
       </c>
       <c r="P45">
-        <v>0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q45">
-        <v>-0.0390625</v>
+        <v>0.234375</v>
       </c>
       <c r="R45">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S45">
-        <v>-0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="T45">
-        <v>0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U45">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V45">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="46" spans="1:22">
@@ -2755,28 +2755,28 @@
         <v>4</v>
       </c>
       <c r="O46">
-        <v>-0.0390625</v>
+        <v>-0.234375</v>
       </c>
       <c r="P46">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q46">
-        <v>0.0390625</v>
+        <v>-0.390625</v>
       </c>
       <c r="R46">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S46">
-        <v>-0.0390625</v>
+        <v>-0.078125</v>
       </c>
       <c r="T46">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U46">
-        <v>0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V46">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="47" spans="1:22">
@@ -2805,28 +2805,28 @@
         <v>5</v>
       </c>
       <c r="O47">
-        <v>-0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="P47">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q47">
-        <v>-0.0390625</v>
+        <v>-0.390625</v>
       </c>
       <c r="R47">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S47">
-        <v>-0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="T47">
-        <v>0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U47">
-        <v>0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V47">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="48" spans="1:22">
@@ -2855,28 +2855,28 @@
         <v>3</v>
       </c>
       <c r="O48">
-        <v>0.0390625</v>
+        <v>-0.390625</v>
       </c>
       <c r="P48">
-        <v>-0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q48">
-        <v>-0.0390625</v>
+        <v>-0.234375</v>
       </c>
       <c r="R48">
-        <v>-0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S48">
-        <v>0.0390625</v>
+        <v>-0.390625</v>
       </c>
       <c r="T48">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U48">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V48">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="49" spans="1:22">
@@ -2905,28 +2905,28 @@
         <v>0</v>
       </c>
       <c r="O49">
-        <v>0.1953125</v>
+        <v>0.234375</v>
       </c>
       <c r="P49">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q49">
-        <v>0.1171875</v>
+        <v>0.234375</v>
       </c>
       <c r="R49">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S49">
-        <v>0.1953125</v>
+        <v>0.078125</v>
       </c>
       <c r="T49">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U49">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V49">
-        <v>-0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="50" spans="1:22">
@@ -2955,28 +2955,28 @@
         <v>0</v>
       </c>
       <c r="O50">
-        <v>-0.1953125</v>
+        <v>0.078125</v>
       </c>
       <c r="P50">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q50">
-        <v>-0.1171875</v>
+        <v>0.234375</v>
       </c>
       <c r="R50">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S50">
-        <v>-0.1953125</v>
+        <v>0.078125</v>
       </c>
       <c r="T50">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U50">
-        <v>0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="V50">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="51" spans="1:22">
@@ -3005,28 +3005,28 @@
         <v>0</v>
       </c>
       <c r="O51">
-        <v>-0.0390625</v>
+        <v>-0.234375</v>
       </c>
       <c r="P51">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q51">
-        <v>0.0390625</v>
+        <v>-0.390625</v>
       </c>
       <c r="R51">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S51">
-        <v>-0.0390625</v>
+        <v>-0.078125</v>
       </c>
       <c r="T51">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U51">
-        <v>0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V51">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="52" spans="1:22">
@@ -3055,28 +3055,28 @@
         <v>0</v>
       </c>
       <c r="O52">
-        <v>0.0390625</v>
+        <v>-0.390625</v>
       </c>
       <c r="P52">
-        <v>-0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q52">
-        <v>-0.0390625</v>
+        <v>-0.234375</v>
       </c>
       <c r="R52">
-        <v>-0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S52">
-        <v>0.0390625</v>
+        <v>-0.390625</v>
       </c>
       <c r="T52">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U52">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V52">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="53" spans="1:22">
@@ -3105,28 +3105,28 @@
         <v>0</v>
       </c>
       <c r="O53">
-        <v>-0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="P53">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q53">
-        <v>-0.0390625</v>
+        <v>-0.390625</v>
       </c>
       <c r="R53">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S53">
-        <v>-0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="T53">
-        <v>0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U53">
-        <v>0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V53">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="54" spans="1:22">
@@ -3155,28 +3155,28 @@
         <v>1</v>
       </c>
       <c r="O54">
-        <v>-0.1171875</v>
+        <v>-0.078125</v>
       </c>
       <c r="P54">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q54">
-        <v>-0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="R54">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S54">
-        <v>-0.0390625</v>
+        <v>0.078125</v>
       </c>
       <c r="T54">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U54">
-        <v>0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="V54">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="55" spans="1:22">
@@ -3205,28 +3205,28 @@
         <v>3</v>
       </c>
       <c r="O55">
-        <v>0.1171875</v>
+        <v>0.078125</v>
       </c>
       <c r="P55">
-        <v>-0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q55">
-        <v>0.1171875</v>
+        <v>-0.078125</v>
       </c>
       <c r="R55">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S55">
-        <v>0.0390625</v>
+        <v>0.078125</v>
       </c>
       <c r="T55">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U55">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V55">
-        <v>0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="56" spans="1:22">
@@ -3255,28 +3255,28 @@
         <v>0</v>
       </c>
       <c r="O56">
-        <v>-0.1171875</v>
+        <v>-0.078125</v>
       </c>
       <c r="P56">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q56">
-        <v>-0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="R56">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S56">
-        <v>-0.0390625</v>
+        <v>0.078125</v>
       </c>
       <c r="T56">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U56">
-        <v>0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="V56">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="57" spans="1:22">
@@ -3305,28 +3305,28 @@
         <v>2</v>
       </c>
       <c r="O57">
-        <v>-0.1171875</v>
+        <v>0.078125</v>
       </c>
       <c r="P57">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q57">
-        <v>-0.1953125</v>
+        <v>-0.078125</v>
       </c>
       <c r="R57">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S57">
-        <v>-0.1171875</v>
+        <v>0.078125</v>
       </c>
       <c r="T57">
-        <v>0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U57">
-        <v>0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="V57">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="58" spans="1:22">
@@ -3355,28 +3355,28 @@
         <v>2</v>
       </c>
       <c r="O58">
-        <v>-0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="P58">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q58">
-        <v>-0.0390625</v>
+        <v>0.390625</v>
       </c>
       <c r="R58">
-        <v>0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S58">
-        <v>-0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="T58">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U58">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V58">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="59" spans="1:22">
@@ -3405,28 +3405,28 @@
         <v>0</v>
       </c>
       <c r="O59">
-        <v>0.1171875</v>
+        <v>0.078125</v>
       </c>
       <c r="P59">
-        <v>-0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q59">
-        <v>0.1171875</v>
+        <v>-0.078125</v>
       </c>
       <c r="R59">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S59">
-        <v>0.0390625</v>
+        <v>0.078125</v>
       </c>
       <c r="T59">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U59">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V59">
-        <v>0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="60" spans="1:22">
@@ -3455,28 +3455,28 @@
         <v>0</v>
       </c>
       <c r="O60">
-        <v>-0.1171875</v>
+        <v>0.078125</v>
       </c>
       <c r="P60">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q60">
-        <v>-0.1953125</v>
+        <v>-0.078125</v>
       </c>
       <c r="R60">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S60">
-        <v>-0.1171875</v>
+        <v>0.078125</v>
       </c>
       <c r="T60">
-        <v>0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U60">
-        <v>0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="V60">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="61" spans="1:22">
@@ -3505,28 +3505,28 @@
         <v>0</v>
       </c>
       <c r="O61">
-        <v>-0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="P61">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q61">
-        <v>-0.0390625</v>
+        <v>0.390625</v>
       </c>
       <c r="R61">
-        <v>0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S61">
-        <v>-0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="T61">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U61">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V61">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="62" spans="1:22">
@@ -3555,28 +3555,28 @@
         <v>1</v>
       </c>
       <c r="O62">
-        <v>0.0390625</v>
+        <v>-0.078125</v>
       </c>
       <c r="P62">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q62">
-        <v>0.1171875</v>
+        <v>0.078125</v>
       </c>
       <c r="R62">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S62">
-        <v>0.0390625</v>
+        <v>-0.078125</v>
       </c>
       <c r="T62">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U62">
-        <v>0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V62">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="63" spans="1:22">
@@ -3605,28 +3605,28 @@
         <v>1</v>
       </c>
       <c r="O63">
-        <v>0.0390625</v>
+        <v>-0.390625</v>
       </c>
       <c r="P63">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q63">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="R63">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S63">
-        <v>0.0390625</v>
+        <v>-0.390625</v>
       </c>
       <c r="T63">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U63">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V63">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="64" spans="1:22">
@@ -3655,28 +3655,28 @@
         <v>0</v>
       </c>
       <c r="O64">
-        <v>0.0390625</v>
+        <v>-0.078125</v>
       </c>
       <c r="P64">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q64">
-        <v>0.1171875</v>
+        <v>0.078125</v>
       </c>
       <c r="R64">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S64">
-        <v>0.0390625</v>
+        <v>-0.078125</v>
       </c>
       <c r="T64">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U64">
-        <v>0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V64">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="65" spans="1:22">
@@ -3705,28 +3705,28 @@
         <v>0</v>
       </c>
       <c r="O65">
-        <v>0.0390625</v>
+        <v>-0.390625</v>
       </c>
       <c r="P65">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q65">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="R65">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S65">
-        <v>0.0390625</v>
+        <v>-0.390625</v>
       </c>
       <c r="T65">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U65">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V65">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="66" spans="1:22">
@@ -3755,28 +3755,28 @@
         <v>0</v>
       </c>
       <c r="O66">
-        <v>0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="P66">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q66">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="R66">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S66">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="T66">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U66">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V66">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="67" spans="1:22">
@@ -3805,28 +3805,28 @@
         <v>4</v>
       </c>
       <c r="O67">
-        <v>-0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="P67">
-        <v>-0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q67">
-        <v>-0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="R67">
-        <v>-0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S67">
-        <v>-0.0390625</v>
+        <v>-0.078125</v>
       </c>
       <c r="T67">
-        <v>-0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U67">
-        <v>0.1171875</v>
+        <v>0.234375</v>
       </c>
       <c r="V67">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="68" spans="1:22">
@@ -3855,28 +3855,28 @@
         <v>4</v>
       </c>
       <c r="O68">
-        <v>0.1953125</v>
+        <v>0.078125</v>
       </c>
       <c r="P68">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q68">
-        <v>0.1171875</v>
+        <v>0.234375</v>
       </c>
       <c r="R68">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S68">
-        <v>0.1953125</v>
+        <v>-0.078125</v>
       </c>
       <c r="T68">
-        <v>-0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U68">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V68">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="69" spans="1:22">
@@ -3905,28 +3905,28 @@
         <v>5</v>
       </c>
       <c r="O69">
-        <v>0.1171875</v>
+        <v>0.078125</v>
       </c>
       <c r="P69">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q69">
-        <v>0.1171875</v>
+        <v>0.234375</v>
       </c>
       <c r="R69">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S69">
-        <v>0.1953125</v>
+        <v>-0.078125</v>
       </c>
       <c r="T69">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U69">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V69">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="70" spans="1:22">
@@ -3955,28 +3955,28 @@
         <v>3</v>
       </c>
       <c r="O70">
-        <v>-0.1171875</v>
+        <v>0.234375</v>
       </c>
       <c r="P70">
-        <v>-0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q70">
-        <v>-0.0390625</v>
+        <v>0.234375</v>
       </c>
       <c r="R70">
-        <v>-0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S70">
-        <v>-0.1953125</v>
+        <v>0.234375</v>
       </c>
       <c r="T70">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U70">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="V70">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="71" spans="1:22">
@@ -4005,28 +4005,28 @@
         <v>5</v>
       </c>
       <c r="O71">
-        <v>-0.1953125</v>
+        <v>0.234375</v>
       </c>
       <c r="P71">
-        <v>-0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q71">
-        <v>-0.1953125</v>
+        <v>0.234375</v>
       </c>
       <c r="R71">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S71">
-        <v>-0.1171875</v>
+        <v>0.078125</v>
       </c>
       <c r="T71">
-        <v>-0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U71">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V71">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="72" spans="1:22">
@@ -4055,28 +4055,28 @@
         <v>0</v>
       </c>
       <c r="O72">
-        <v>-0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="P72">
-        <v>-0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q72">
-        <v>-0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="R72">
-        <v>-0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S72">
-        <v>-0.0390625</v>
+        <v>-0.078125</v>
       </c>
       <c r="T72">
-        <v>-0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U72">
-        <v>0.1171875</v>
+        <v>0.234375</v>
       </c>
       <c r="V72">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="73" spans="1:22">
@@ -4105,28 +4105,28 @@
         <v>0</v>
       </c>
       <c r="O73">
-        <v>0.1953125</v>
+        <v>0.078125</v>
       </c>
       <c r="P73">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q73">
-        <v>0.1171875</v>
+        <v>0.234375</v>
       </c>
       <c r="R73">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S73">
-        <v>0.1953125</v>
+        <v>-0.078125</v>
       </c>
       <c r="T73">
-        <v>-0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U73">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V73">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="74" spans="1:22">
@@ -4155,28 +4155,28 @@
         <v>0</v>
       </c>
       <c r="O74">
-        <v>-0.1171875</v>
+        <v>0.234375</v>
       </c>
       <c r="P74">
-        <v>-0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q74">
-        <v>-0.0390625</v>
+        <v>0.234375</v>
       </c>
       <c r="R74">
-        <v>-0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S74">
-        <v>-0.1953125</v>
+        <v>0.234375</v>
       </c>
       <c r="T74">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U74">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="V74">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="75" spans="1:22">
@@ -4205,28 +4205,28 @@
         <v>0</v>
       </c>
       <c r="O75">
-        <v>0.1171875</v>
+        <v>0.078125</v>
       </c>
       <c r="P75">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q75">
-        <v>0.1171875</v>
+        <v>0.234375</v>
       </c>
       <c r="R75">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S75">
-        <v>0.1953125</v>
+        <v>-0.078125</v>
       </c>
       <c r="T75">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U75">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V75">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="76" spans="1:22">
@@ -4255,28 +4255,28 @@
         <v>3</v>
       </c>
       <c r="O76">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="P76">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q76">
-        <v>0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="R76">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S76">
-        <v>0.0390625</v>
+        <v>-0.078125</v>
       </c>
       <c r="T76">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U76">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V76">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="77" spans="1:22">
@@ -4305,28 +4305,28 @@
         <v>0</v>
       </c>
       <c r="O77">
-        <v>-0.1953125</v>
+        <v>0.234375</v>
       </c>
       <c r="P77">
-        <v>-0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q77">
-        <v>-0.1953125</v>
+        <v>0.234375</v>
       </c>
       <c r="R77">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S77">
-        <v>-0.1171875</v>
+        <v>0.078125</v>
       </c>
       <c r="T77">
-        <v>-0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U77">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V77">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="78" spans="1:22">
@@ -4355,28 +4355,28 @@
         <v>5</v>
       </c>
       <c r="O78">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="P78">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q78">
-        <v>-0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="R78">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S78">
-        <v>-0.1953125</v>
+        <v>0.234375</v>
       </c>
       <c r="T78">
-        <v>-0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U78">
-        <v>0.0390625</v>
+        <v>-0.234375</v>
       </c>
       <c r="V78">
-        <v>0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="79" spans="1:22">
@@ -4405,28 +4405,28 @@
         <v>1</v>
       </c>
       <c r="O79">
-        <v>-0.0390625</v>
+        <v>0.234375</v>
       </c>
       <c r="P79">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q79">
-        <v>-0.0390625</v>
+        <v>0.234375</v>
       </c>
       <c r="R79">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S79">
-        <v>0.0390625</v>
+        <v>0.078125</v>
       </c>
       <c r="T79">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U79">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V79">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="80" spans="1:22">
@@ -4455,28 +4455,28 @@
         <v>0</v>
       </c>
       <c r="O80">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="P80">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q80">
-        <v>0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="R80">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S80">
-        <v>0.0390625</v>
+        <v>-0.078125</v>
       </c>
       <c r="T80">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U80">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V80">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="81" spans="1:22">
@@ -4505,28 +4505,28 @@
         <v>0</v>
       </c>
       <c r="O81">
-        <v>-0.0390625</v>
+        <v>0.234375</v>
       </c>
       <c r="P81">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q81">
-        <v>-0.0390625</v>
+        <v>0.234375</v>
       </c>
       <c r="R81">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S81">
-        <v>0.0390625</v>
+        <v>0.078125</v>
       </c>
       <c r="T81">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U81">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V81">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="82" spans="1:22">
@@ -4555,28 +4555,28 @@
         <v>2</v>
       </c>
       <c r="O82">
-        <v>0.0390625</v>
+        <v>0.078125</v>
       </c>
       <c r="P82">
-        <v>-0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q82">
-        <v>-0.0390625</v>
+        <v>-0.078125</v>
       </c>
       <c r="R82">
-        <v>-0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S82">
-        <v>0.0390625</v>
+        <v>0.078125</v>
       </c>
       <c r="T82">
-        <v>-0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U82">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V82">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="83" spans="1:22">
@@ -4605,28 +4605,28 @@
         <v>2</v>
       </c>
       <c r="O83">
-        <v>-0.0390625</v>
+        <v>-0.078125</v>
       </c>
       <c r="P83">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q83">
-        <v>0.0390625</v>
+        <v>-0.234375</v>
       </c>
       <c r="R83">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S83">
-        <v>-0.0390625</v>
+        <v>0.078125</v>
       </c>
       <c r="T83">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U83">
-        <v>0.1953125</v>
+        <v>0.234375</v>
       </c>
       <c r="V83">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="84" spans="1:22">
@@ -4655,28 +4655,28 @@
         <v>0</v>
       </c>
       <c r="O84">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="P84">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q84">
-        <v>-0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="R84">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S84">
-        <v>-0.1953125</v>
+        <v>0.234375</v>
       </c>
       <c r="T84">
-        <v>-0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U84">
-        <v>0.0390625</v>
+        <v>-0.234375</v>
       </c>
       <c r="V84">
-        <v>0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="85" spans="1:22">
@@ -4705,28 +4705,28 @@
         <v>0</v>
       </c>
       <c r="O85">
-        <v>0.0390625</v>
+        <v>0.078125</v>
       </c>
       <c r="P85">
-        <v>-0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q85">
-        <v>-0.0390625</v>
+        <v>-0.078125</v>
       </c>
       <c r="R85">
-        <v>-0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S85">
-        <v>0.0390625</v>
+        <v>0.078125</v>
       </c>
       <c r="T85">
-        <v>-0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U85">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V85">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="86" spans="1:22">
@@ -4755,28 +4755,28 @@
         <v>0</v>
       </c>
       <c r="O86">
-        <v>-0.0390625</v>
+        <v>-0.078125</v>
       </c>
       <c r="P86">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q86">
-        <v>0.0390625</v>
+        <v>-0.234375</v>
       </c>
       <c r="R86">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S86">
-        <v>-0.0390625</v>
+        <v>0.078125</v>
       </c>
       <c r="T86">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U86">
-        <v>0.1953125</v>
+        <v>0.234375</v>
       </c>
       <c r="V86">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="87" spans="1:22">
@@ -4805,28 +4805,28 @@
         <v>1</v>
       </c>
       <c r="O87">
-        <v>-0.0390625</v>
+        <v>0.078125</v>
       </c>
       <c r="P87">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q87">
-        <v>-0.1171875</v>
+        <v>-0.078125</v>
       </c>
       <c r="R87">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S87">
-        <v>-0.0390625</v>
+        <v>0.078125</v>
       </c>
       <c r="T87">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U87">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V87">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="88" spans="1:22">
@@ -4855,28 +4855,28 @@
         <v>1</v>
       </c>
       <c r="O88">
-        <v>0.0390625</v>
+        <v>0.078125</v>
       </c>
       <c r="P88">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q88">
-        <v>0.0390625</v>
+        <v>0.234375</v>
       </c>
       <c r="R88">
-        <v>0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S88">
-        <v>-0.0390625</v>
+        <v>0.078125</v>
       </c>
       <c r="T88">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U88">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V88">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="89" spans="1:22">
@@ -4905,28 +4905,28 @@
         <v>0</v>
       </c>
       <c r="O89">
-        <v>-0.0390625</v>
+        <v>0.078125</v>
       </c>
       <c r="P89">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q89">
-        <v>-0.1171875</v>
+        <v>-0.078125</v>
       </c>
       <c r="R89">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S89">
-        <v>-0.0390625</v>
+        <v>0.078125</v>
       </c>
       <c r="T89">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U89">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V89">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="90" spans="1:22">
@@ -4955,28 +4955,28 @@
         <v>0</v>
       </c>
       <c r="O90">
-        <v>0.0390625</v>
+        <v>0.078125</v>
       </c>
       <c r="P90">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q90">
-        <v>0.0390625</v>
+        <v>0.234375</v>
       </c>
       <c r="R90">
-        <v>0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S90">
-        <v>-0.0390625</v>
+        <v>0.078125</v>
       </c>
       <c r="T90">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U90">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V90">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="91" spans="1:22">
@@ -5005,28 +5005,28 @@
         <v>4</v>
       </c>
       <c r="O91">
-        <v>0.0390625</v>
+        <v>0.078125</v>
       </c>
       <c r="P91">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q91">
-        <v>0.1171875</v>
+        <v>-0.078125</v>
       </c>
       <c r="R91">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S91">
-        <v>0.0390625</v>
+        <v>0.234375</v>
       </c>
       <c r="T91">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U91">
-        <v>-0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="V91">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="92" spans="1:22">
@@ -5055,28 +5055,28 @@
         <v>2</v>
       </c>
       <c r="O92">
-        <v>-0.1953125</v>
+        <v>-0.078125</v>
       </c>
       <c r="P92">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q92">
-        <v>-0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="R92">
-        <v>-0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S92">
-        <v>-0.1171875</v>
+        <v>0.078125</v>
       </c>
       <c r="T92">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U92">
-        <v>0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="V92">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="93" spans="1:22">
@@ -5105,28 +5105,28 @@
         <v>3</v>
       </c>
       <c r="O93">
-        <v>-0.1953125</v>
+        <v>0.234375</v>
       </c>
       <c r="P93">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q93">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="R93">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S93">
-        <v>-0.1171875</v>
+        <v>0.078125</v>
       </c>
       <c r="T93">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U93">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="V93">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="94" spans="1:22">
@@ -5155,28 +5155,28 @@
         <v>0</v>
       </c>
       <c r="O94">
-        <v>0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="P94">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q94">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="R94">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S94">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="T94">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U94">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V94">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="95" spans="1:22">
@@ -5205,28 +5205,28 @@
         <v>0</v>
       </c>
       <c r="O95">
-        <v>0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="P95">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q95">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="R95">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S95">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="T95">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U95">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V95">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="96" spans="1:22">
@@ -5255,28 +5255,28 @@
         <v>0</v>
       </c>
       <c r="O96">
-        <v>0.0390625</v>
+        <v>0.078125</v>
       </c>
       <c r="P96">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q96">
-        <v>0.1171875</v>
+        <v>-0.078125</v>
       </c>
       <c r="R96">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S96">
-        <v>0.0390625</v>
+        <v>0.234375</v>
       </c>
       <c r="T96">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U96">
-        <v>-0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="V96">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="97" spans="1:22">
@@ -5305,28 +5305,28 @@
         <v>0</v>
       </c>
       <c r="O97">
-        <v>-0.1953125</v>
+        <v>0.234375</v>
       </c>
       <c r="P97">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q97">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="R97">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S97">
-        <v>-0.1171875</v>
+        <v>0.078125</v>
       </c>
       <c r="T97">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U97">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="V97">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="98" spans="1:22">
@@ -5355,28 +5355,28 @@
         <v>3</v>
       </c>
       <c r="O98">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="P98">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q98">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="R98">
-        <v>-0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S98">
-        <v>0.0390625</v>
+        <v>-0.390625</v>
       </c>
       <c r="T98">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U98">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V98">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="99" spans="1:22">
@@ -5405,28 +5405,28 @@
         <v>4</v>
       </c>
       <c r="O99">
-        <v>0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="P99">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q99">
-        <v>0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="R99">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S99">
-        <v>0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="T99">
-        <v>0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U99">
-        <v>-0.1171875</v>
+        <v>0.078125</v>
       </c>
       <c r="V99">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="100" spans="1:22">
@@ -5455,28 +5455,28 @@
         <v>5</v>
       </c>
       <c r="O100">
-        <v>0.0390625</v>
+        <v>0.234375</v>
       </c>
       <c r="P100">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q100">
-        <v>-0.0390625</v>
+        <v>0.234375</v>
       </c>
       <c r="R100">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S100">
-        <v>0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="T100">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U100">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V100">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="101" spans="1:22">
@@ -5505,28 +5505,28 @@
         <v>1</v>
       </c>
       <c r="O101">
-        <v>0.0390625</v>
+        <v>0.078125</v>
       </c>
       <c r="P101">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q101">
-        <v>-0.0390625</v>
+        <v>0.078125</v>
       </c>
       <c r="R101">
-        <v>-0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S101">
-        <v>0.1171875</v>
+        <v>0.234375</v>
       </c>
       <c r="T101">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U101">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V101">
-        <v>0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="102" spans="1:22">
@@ -5555,28 +5555,28 @@
         <v>0</v>
       </c>
       <c r="O102">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="P102">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q102">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="R102">
-        <v>-0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S102">
-        <v>0.0390625</v>
+        <v>-0.390625</v>
       </c>
       <c r="T102">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U102">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V102">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="103" spans="1:22">
@@ -5605,28 +5605,28 @@
         <v>0</v>
       </c>
       <c r="O103">
-        <v>0.0390625</v>
+        <v>0.078125</v>
       </c>
       <c r="P103">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q103">
-        <v>-0.0390625</v>
+        <v>0.078125</v>
       </c>
       <c r="R103">
-        <v>-0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S103">
-        <v>0.1171875</v>
+        <v>0.234375</v>
       </c>
       <c r="T103">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U103">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V103">
-        <v>0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="104" spans="1:22">
@@ -5655,28 +5655,28 @@
         <v>0</v>
       </c>
       <c r="O104">
-        <v>0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="P104">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q104">
-        <v>0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="R104">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S104">
-        <v>0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="T104">
-        <v>0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U104">
-        <v>-0.1171875</v>
+        <v>0.078125</v>
       </c>
       <c r="V104">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="105" spans="1:22">
@@ -5705,28 +5705,28 @@
         <v>2</v>
       </c>
       <c r="O105">
-        <v>-0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="P105">
-        <v>-0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q105">
-        <v>-0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="R105">
-        <v>-0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S105">
-        <v>-0.0390625</v>
+        <v>-0.234375</v>
       </c>
       <c r="T105">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U105">
-        <v>0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="V105">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="106" spans="1:22">
@@ -5755,28 +5755,28 @@
         <v>0</v>
       </c>
       <c r="O106">
-        <v>0.0390625</v>
+        <v>0.234375</v>
       </c>
       <c r="P106">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q106">
-        <v>-0.0390625</v>
+        <v>0.234375</v>
       </c>
       <c r="R106">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S106">
-        <v>0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="T106">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U106">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V106">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="107" spans="1:22">
@@ -5805,28 +5805,28 @@
         <v>1</v>
       </c>
       <c r="O107">
-        <v>0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="P107">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q107">
-        <v>0.0390625</v>
+        <v>-0.390625</v>
       </c>
       <c r="R107">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S107">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="T107">
-        <v>0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U107">
-        <v>-0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="V107">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="108" spans="1:22">
@@ -5855,28 +5855,28 @@
         <v>0</v>
       </c>
       <c r="O108">
-        <v>-0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="P108">
-        <v>-0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q108">
-        <v>-0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="R108">
-        <v>-0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S108">
-        <v>-0.0390625</v>
+        <v>-0.234375</v>
       </c>
       <c r="T108">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U108">
-        <v>0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="V108">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="109" spans="1:22">
@@ -5905,28 +5905,28 @@
         <v>0</v>
       </c>
       <c r="O109">
-        <v>0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="P109">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q109">
-        <v>0.0390625</v>
+        <v>-0.390625</v>
       </c>
       <c r="R109">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S109">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="T109">
-        <v>0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U109">
-        <v>-0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="V109">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="110" spans="1:22">
@@ -5955,28 +5955,28 @@
         <v>5</v>
       </c>
       <c r="O110">
-        <v>0.0390625</v>
+        <v>0.390625</v>
       </c>
       <c r="P110">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q110">
-        <v>0.0390625</v>
+        <v>0.390625</v>
       </c>
       <c r="R110">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S110">
-        <v>0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="T110">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U110">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V110">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="111" spans="1:22">
@@ -6005,28 +6005,28 @@
         <v>2</v>
       </c>
       <c r="O111">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="P111">
-        <v>-0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q111">
-        <v>-0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="R111">
-        <v>-0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S111">
-        <v>-0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="T111">
-        <v>-0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U111">
-        <v>0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V111">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="112" spans="1:22">
@@ -6055,28 +6055,28 @@
         <v>4</v>
       </c>
       <c r="O112">
-        <v>0.0390625</v>
+        <v>-0.234375</v>
       </c>
       <c r="P112">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q112">
-        <v>0.0390625</v>
+        <v>-0.078125</v>
       </c>
       <c r="R112">
-        <v>0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S112">
-        <v>-0.0390625</v>
+        <v>-0.234375</v>
       </c>
       <c r="T112">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U112">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V112">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="113" spans="1:22">
@@ -6105,28 +6105,28 @@
         <v>4</v>
       </c>
       <c r="O113">
-        <v>0.1171875</v>
+        <v>0.078125</v>
       </c>
       <c r="P113">
-        <v>0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q113">
-        <v>0.1953125</v>
+        <v>0.078125</v>
       </c>
       <c r="R113">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S113">
-        <v>0.1171875</v>
+        <v>0.078125</v>
       </c>
       <c r="T113">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U113">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V113">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="114" spans="1:22">
@@ -6155,28 +6155,28 @@
         <v>0</v>
       </c>
       <c r="O114">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="P114">
-        <v>-0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q114">
-        <v>-0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="R114">
-        <v>-0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S114">
-        <v>-0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="T114">
-        <v>-0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U114">
-        <v>0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V114">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="115" spans="1:22">
@@ -6205,28 +6205,28 @@
         <v>3</v>
       </c>
       <c r="O115">
-        <v>0.0390625</v>
+        <v>0.078125</v>
       </c>
       <c r="P115">
-        <v>-0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q115">
-        <v>0.0390625</v>
+        <v>0.234375</v>
       </c>
       <c r="R115">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S115">
-        <v>0.1171875</v>
+        <v>0.078125</v>
       </c>
       <c r="T115">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U115">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V115">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="116" spans="1:22">
@@ -6255,28 +6255,28 @@
         <v>0</v>
       </c>
       <c r="O116">
-        <v>0.0390625</v>
+        <v>0.390625</v>
       </c>
       <c r="P116">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q116">
-        <v>0.0390625</v>
+        <v>0.390625</v>
       </c>
       <c r="R116">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S116">
-        <v>0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="T116">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U116">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V116">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="117" spans="1:22">
@@ -6305,28 +6305,28 @@
         <v>0</v>
       </c>
       <c r="O117">
-        <v>0.0390625</v>
+        <v>-0.234375</v>
       </c>
       <c r="P117">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q117">
-        <v>0.0390625</v>
+        <v>-0.078125</v>
       </c>
       <c r="R117">
-        <v>0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S117">
-        <v>-0.0390625</v>
+        <v>-0.234375</v>
       </c>
       <c r="T117">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U117">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V117">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="118" spans="1:22">
@@ -6355,28 +6355,28 @@
         <v>0</v>
       </c>
       <c r="O118">
-        <v>0.1171875</v>
+        <v>0.078125</v>
       </c>
       <c r="P118">
-        <v>0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q118">
-        <v>0.1953125</v>
+        <v>0.078125</v>
       </c>
       <c r="R118">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S118">
-        <v>0.1171875</v>
+        <v>0.078125</v>
       </c>
       <c r="T118">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U118">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V118">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="119" spans="1:22">
@@ -6405,28 +6405,28 @@
         <v>0</v>
       </c>
       <c r="O119">
-        <v>0.0390625</v>
+        <v>0.078125</v>
       </c>
       <c r="P119">
-        <v>-0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q119">
-        <v>0.0390625</v>
+        <v>0.234375</v>
       </c>
       <c r="R119">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S119">
-        <v>0.1171875</v>
+        <v>0.078125</v>
       </c>
       <c r="T119">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U119">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V119">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="120" spans="1:22">
@@ -6455,28 +6455,28 @@
         <v>3</v>
       </c>
       <c r="O120">
-        <v>0.1953125</v>
+        <v>0.078125</v>
       </c>
       <c r="P120">
-        <v>0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q120">
-        <v>0.1171875</v>
+        <v>0.234375</v>
       </c>
       <c r="R120">
-        <v>0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S120">
-        <v>0.1953125</v>
+        <v>0.078125</v>
       </c>
       <c r="T120">
-        <v>-0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U120">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V120">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="121" spans="1:22">
@@ -6505,28 +6505,28 @@
         <v>0</v>
       </c>
       <c r="O121">
-        <v>0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="P121">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q121">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="R121">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S121">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="T121">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U121">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V121">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="122" spans="1:22">
@@ -6555,28 +6555,28 @@
         <v>5</v>
       </c>
       <c r="O122">
-        <v>0.1171875</v>
+        <v>0.234375</v>
       </c>
       <c r="P122">
-        <v>0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q122">
-        <v>0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="R122">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S122">
-        <v>0.1953125</v>
+        <v>0.234375</v>
       </c>
       <c r="T122">
-        <v>0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U122">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V122">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="123" spans="1:22">
@@ -6605,28 +6605,28 @@
         <v>1</v>
       </c>
       <c r="O123">
-        <v>0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="P123">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q123">
-        <v>0.1953125</v>
+        <v>0.234375</v>
       </c>
       <c r="R123">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S123">
-        <v>0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="T123">
-        <v>0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U123">
-        <v>-0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="V123">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="124" spans="1:22">
@@ -6655,28 +6655,28 @@
         <v>0</v>
       </c>
       <c r="O124">
-        <v>0.1953125</v>
+        <v>0.078125</v>
       </c>
       <c r="P124">
-        <v>0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q124">
-        <v>0.1171875</v>
+        <v>0.234375</v>
       </c>
       <c r="R124">
-        <v>0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S124">
-        <v>0.1953125</v>
+        <v>0.078125</v>
       </c>
       <c r="T124">
-        <v>-0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U124">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V124">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="125" spans="1:22">
@@ -6705,28 +6705,28 @@
         <v>0</v>
       </c>
       <c r="O125">
-        <v>0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="P125">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q125">
-        <v>0.1953125</v>
+        <v>0.234375</v>
       </c>
       <c r="R125">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S125">
-        <v>0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="T125">
-        <v>0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U125">
-        <v>-0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="V125">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="126" spans="1:22">
@@ -6755,28 +6755,28 @@
         <v>2</v>
       </c>
       <c r="O126">
-        <v>0.1171875</v>
+        <v>0.234375</v>
       </c>
       <c r="P126">
-        <v>-0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q126">
-        <v>0.0390625</v>
+        <v>0.234375</v>
       </c>
       <c r="R126">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S126">
-        <v>0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="T126">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U126">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V126">
-        <v>-0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="127" spans="1:22">
@@ -6805,28 +6805,28 @@
         <v>0</v>
       </c>
       <c r="O127">
-        <v>0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="P127">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q127">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="R127">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S127">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="T127">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U127">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V127">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="128" spans="1:22">
@@ -6855,28 +6855,28 @@
         <v>0</v>
       </c>
       <c r="O128">
-        <v>0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="P128">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q128">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="R128">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S128">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="T128">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U128">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V128">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="129" spans="1:22">
@@ -6905,28 +6905,28 @@
         <v>0</v>
       </c>
       <c r="O129">
-        <v>0.1171875</v>
+        <v>0.234375</v>
       </c>
       <c r="P129">
-        <v>-0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q129">
-        <v>0.0390625</v>
+        <v>0.234375</v>
       </c>
       <c r="R129">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S129">
-        <v>0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="T129">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U129">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V129">
-        <v>-0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="130" spans="1:22">
@@ -6955,28 +6955,28 @@
         <v>4</v>
       </c>
       <c r="O130">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="P130">
-        <v>0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q130">
-        <v>-0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="R130">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S130">
-        <v>-0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="T130">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U130">
-        <v>0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V130">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="131" spans="1:22">
@@ -7005,28 +7005,28 @@
         <v>2</v>
       </c>
       <c r="O131">
-        <v>0.0390625</v>
+        <v>-0.390625</v>
       </c>
       <c r="P131">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q131">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="R131">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S131">
-        <v>-0.0390625</v>
+        <v>-0.390625</v>
       </c>
       <c r="T131">
-        <v>-0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U131">
-        <v>-0.1953125</v>
+        <v>0.234375</v>
       </c>
       <c r="V131">
-        <v>0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="132" spans="1:22">
@@ -7055,28 +7055,28 @@
         <v>0</v>
       </c>
       <c r="O132">
-        <v>0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="P132">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q132">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="R132">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S132">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="T132">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U132">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V132">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="133" spans="1:22">
@@ -7105,28 +7105,28 @@
         <v>4</v>
       </c>
       <c r="O133">
-        <v>-0.1171875</v>
+        <v>-0.078125</v>
       </c>
       <c r="P133">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q133">
-        <v>-0.1171875</v>
+        <v>-0.078125</v>
       </c>
       <c r="R133">
-        <v>0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S133">
-        <v>-0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="T133">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U133">
-        <v>0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V133">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="134" spans="1:22">
@@ -7155,28 +7155,28 @@
         <v>0</v>
       </c>
       <c r="O134">
-        <v>0.0390625</v>
+        <v>-0.390625</v>
       </c>
       <c r="P134">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q134">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="R134">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S134">
-        <v>-0.0390625</v>
+        <v>-0.390625</v>
       </c>
       <c r="T134">
-        <v>-0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U134">
-        <v>-0.1953125</v>
+        <v>0.234375</v>
       </c>
       <c r="V134">
-        <v>0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="135" spans="1:22">
@@ -7205,28 +7205,28 @@
         <v>0</v>
       </c>
       <c r="O135">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="P135">
-        <v>0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q135">
-        <v>-0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="R135">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S135">
-        <v>-0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="T135">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U135">
-        <v>0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V135">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="136" spans="1:22">
@@ -7255,28 +7255,28 @@
         <v>0</v>
       </c>
       <c r="O136">
-        <v>0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="P136">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q136">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="R136">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S136">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="T136">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U136">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V136">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="137" spans="1:22">
@@ -7305,28 +7305,28 @@
         <v>2</v>
       </c>
       <c r="O137">
-        <v>-0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="P137">
-        <v>-0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q137">
-        <v>-0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="R137">
-        <v>0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S137">
-        <v>-0.0390625</v>
+        <v>0.234375</v>
       </c>
       <c r="T137">
-        <v>-0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U137">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V137">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="138" spans="1:22">
@@ -7355,28 +7355,28 @@
         <v>0</v>
       </c>
       <c r="O138">
-        <v>-0.1171875</v>
+        <v>-0.078125</v>
       </c>
       <c r="P138">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q138">
-        <v>-0.1171875</v>
+        <v>-0.078125</v>
       </c>
       <c r="R138">
-        <v>0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S138">
-        <v>-0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="T138">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U138">
-        <v>0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V138">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="139" spans="1:22">
@@ -7405,28 +7405,28 @@
         <v>1</v>
       </c>
       <c r="O139">
-        <v>0.1171875</v>
+        <v>0.234375</v>
       </c>
       <c r="P139">
-        <v>-0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q139">
-        <v>0.1953125</v>
+        <v>0.234375</v>
       </c>
       <c r="R139">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S139">
-        <v>0.1171875</v>
+        <v>0.234375</v>
       </c>
       <c r="T139">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U139">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V139">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="140" spans="1:22">
@@ -7455,28 +7455,28 @@
         <v>0</v>
       </c>
       <c r="O140">
-        <v>-0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="P140">
-        <v>-0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q140">
-        <v>-0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="R140">
-        <v>0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S140">
-        <v>-0.0390625</v>
+        <v>0.234375</v>
       </c>
       <c r="T140">
-        <v>-0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U140">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V140">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="141" spans="1:22">
@@ -7505,28 +7505,28 @@
         <v>0</v>
       </c>
       <c r="O141">
-        <v>0.1171875</v>
+        <v>0.234375</v>
       </c>
       <c r="P141">
-        <v>-0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q141">
-        <v>0.1953125</v>
+        <v>0.234375</v>
       </c>
       <c r="R141">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S141">
-        <v>0.1171875</v>
+        <v>0.234375</v>
       </c>
       <c r="T141">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U141">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V141">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="142" spans="1:22">
@@ -7555,28 +7555,28 @@
         <v>5</v>
       </c>
       <c r="O142">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="P142">
-        <v>0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q142">
-        <v>-0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="R142">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S142">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="T142">
-        <v>-0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U142">
-        <v>0.1953125</v>
+        <v>0.078125</v>
       </c>
       <c r="V142">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="143" spans="1:22">
@@ -7605,28 +7605,28 @@
         <v>3</v>
       </c>
       <c r="O143">
-        <v>0.0390625</v>
+        <v>-0.390625</v>
       </c>
       <c r="P143">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q143">
-        <v>0.0390625</v>
+        <v>-0.390625</v>
       </c>
       <c r="R143">
-        <v>0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S143">
-        <v>0.0390625</v>
+        <v>-0.234375</v>
       </c>
       <c r="T143">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U143">
-        <v>-0.1953125</v>
+        <v>0.078125</v>
       </c>
       <c r="V143">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="144" spans="1:22">
@@ -7655,28 +7655,28 @@
         <v>1</v>
       </c>
       <c r="O144">
-        <v>0.0390625</v>
+        <v>-0.390625</v>
       </c>
       <c r="P144">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q144">
-        <v>-0.0390625</v>
+        <v>-0.234375</v>
       </c>
       <c r="R144">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S144">
-        <v>0.0390625</v>
+        <v>-0.390625</v>
       </c>
       <c r="T144">
-        <v>-0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U144">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V144">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="145" spans="1:22">
@@ -7705,28 +7705,28 @@
         <v>5</v>
       </c>
       <c r="O145">
-        <v>0.1953125</v>
+        <v>-0.078125</v>
       </c>
       <c r="P145">
-        <v>0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q145">
-        <v>0.1953125</v>
+        <v>0.078125</v>
       </c>
       <c r="R145">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S145">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="T145">
-        <v>0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U145">
-        <v>-0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="V145">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="146" spans="1:22">
@@ -7755,28 +7755,28 @@
         <v>0</v>
       </c>
       <c r="O146">
-        <v>0.0390625</v>
+        <v>-0.390625</v>
       </c>
       <c r="P146">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q146">
-        <v>-0.0390625</v>
+        <v>-0.234375</v>
       </c>
       <c r="R146">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S146">
-        <v>0.0390625</v>
+        <v>-0.390625</v>
       </c>
       <c r="T146">
-        <v>-0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U146">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V146">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="147" spans="1:22">
@@ -7805,28 +7805,28 @@
         <v>0</v>
       </c>
       <c r="O147">
-        <v>0.0390625</v>
+        <v>-0.390625</v>
       </c>
       <c r="P147">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q147">
-        <v>0.0390625</v>
+        <v>-0.390625</v>
       </c>
       <c r="R147">
-        <v>0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S147">
-        <v>0.0390625</v>
+        <v>-0.234375</v>
       </c>
       <c r="T147">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U147">
-        <v>-0.1953125</v>
+        <v>0.078125</v>
       </c>
       <c r="V147">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="148" spans="1:22">
@@ -7855,28 +7855,28 @@
         <v>0</v>
       </c>
       <c r="O148">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="P148">
-        <v>0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q148">
-        <v>-0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="R148">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S148">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="T148">
-        <v>-0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U148">
-        <v>0.1953125</v>
+        <v>0.078125</v>
       </c>
       <c r="V148">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="149" spans="1:22">
@@ -7905,28 +7905,28 @@
         <v>4</v>
       </c>
       <c r="O149">
-        <v>-0.0390625</v>
+        <v>-0.078125</v>
       </c>
       <c r="P149">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q149">
-        <v>-0.0390625</v>
+        <v>-0.078125</v>
       </c>
       <c r="R149">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S149">
-        <v>-0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="T149">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U149">
-        <v>0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V149">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="150" spans="1:22">
@@ -7955,28 +7955,28 @@
         <v>1</v>
       </c>
       <c r="O150">
-        <v>0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="P150">
-        <v>-0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q150">
-        <v>0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="R150">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S150">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="T150">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U150">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V150">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="151" spans="1:22">
@@ -8005,28 +8005,28 @@
         <v>0</v>
       </c>
       <c r="O151">
-        <v>0.1953125</v>
+        <v>-0.078125</v>
       </c>
       <c r="P151">
-        <v>0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q151">
-        <v>0.1953125</v>
+        <v>0.078125</v>
       </c>
       <c r="R151">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S151">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="T151">
-        <v>0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U151">
-        <v>-0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="V151">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="152" spans="1:22">
@@ -8055,28 +8055,28 @@
         <v>0</v>
       </c>
       <c r="O152">
-        <v>0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="P152">
-        <v>-0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q152">
-        <v>0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="R152">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S152">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="T152">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U152">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V152">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="153" spans="1:22">
@@ -8105,28 +8105,28 @@
         <v>5</v>
       </c>
       <c r="O153">
-        <v>0.1171875</v>
+        <v>-0.078125</v>
       </c>
       <c r="P153">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q153">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="R153">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S153">
-        <v>0.1953125</v>
+        <v>-0.078125</v>
       </c>
       <c r="T153">
-        <v>-0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U153">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V153">
-        <v>-0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="154" spans="1:22">
@@ -8155,28 +8155,28 @@
         <v>0</v>
       </c>
       <c r="O154">
-        <v>-0.0390625</v>
+        <v>-0.078125</v>
       </c>
       <c r="P154">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q154">
-        <v>-0.0390625</v>
+        <v>-0.078125</v>
       </c>
       <c r="R154">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S154">
-        <v>-0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="T154">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U154">
-        <v>0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V154">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="155" spans="1:22">
@@ -8205,28 +8205,28 @@
         <v>2</v>
       </c>
       <c r="O155">
-        <v>0.1953125</v>
+        <v>0.078125</v>
       </c>
       <c r="P155">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q155">
-        <v>0.1171875</v>
+        <v>-0.078125</v>
       </c>
       <c r="R155">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S155">
-        <v>0.1953125</v>
+        <v>0.078125</v>
       </c>
       <c r="T155">
-        <v>-0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U155">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V155">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="156" spans="1:22">
@@ -8255,28 +8255,28 @@
         <v>3</v>
       </c>
       <c r="O156">
-        <v>-0.1953125</v>
+        <v>-0.078125</v>
       </c>
       <c r="P156">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q156">
-        <v>-0.1171875</v>
+        <v>-0.078125</v>
       </c>
       <c r="R156">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S156">
-        <v>-0.1953125</v>
+        <v>0.078125</v>
       </c>
       <c r="T156">
-        <v>0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U156">
-        <v>0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V156">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="157" spans="1:22">
@@ -8305,28 +8305,28 @@
         <v>3</v>
       </c>
       <c r="O157">
-        <v>-0.1171875</v>
+        <v>-0.078125</v>
       </c>
       <c r="P157">
-        <v>-0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q157">
-        <v>-0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="R157">
-        <v>-0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S157">
-        <v>-0.1171875</v>
+        <v>0.078125</v>
       </c>
       <c r="T157">
-        <v>0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U157">
-        <v>0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V157">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="158" spans="1:22">
@@ -8355,28 +8355,28 @@
         <v>0</v>
       </c>
       <c r="O158">
-        <v>0.1953125</v>
+        <v>0.078125</v>
       </c>
       <c r="P158">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q158">
-        <v>0.1171875</v>
+        <v>-0.078125</v>
       </c>
       <c r="R158">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S158">
-        <v>0.1953125</v>
+        <v>0.078125</v>
       </c>
       <c r="T158">
-        <v>-0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U158">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V158">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="159" spans="1:22">
@@ -8405,28 +8405,28 @@
         <v>0</v>
       </c>
       <c r="O159">
-        <v>0.1171875</v>
+        <v>-0.078125</v>
       </c>
       <c r="P159">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q159">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="R159">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S159">
-        <v>0.1953125</v>
+        <v>-0.078125</v>
       </c>
       <c r="T159">
-        <v>-0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U159">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V159">
-        <v>-0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="160" spans="1:22">
@@ -8455,28 +8455,28 @@
         <v>0</v>
       </c>
       <c r="O160">
-        <v>-0.1953125</v>
+        <v>-0.078125</v>
       </c>
       <c r="P160">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q160">
-        <v>-0.1171875</v>
+        <v>-0.078125</v>
       </c>
       <c r="R160">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S160">
-        <v>-0.1953125</v>
+        <v>0.078125</v>
       </c>
       <c r="T160">
-        <v>0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U160">
-        <v>0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V160">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="161" spans="1:22">
@@ -8505,28 +8505,28 @@
         <v>0</v>
       </c>
       <c r="O161">
-        <v>-0.1171875</v>
+        <v>-0.078125</v>
       </c>
       <c r="P161">
-        <v>-0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q161">
-        <v>-0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="R161">
-        <v>-0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S161">
-        <v>-0.1171875</v>
+        <v>0.078125</v>
       </c>
       <c r="T161">
-        <v>0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U161">
-        <v>0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V161">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="162" spans="1:22">
@@ -8555,28 +8555,28 @@
         <v>4</v>
       </c>
       <c r="O162">
-        <v>-0.0390625</v>
+        <v>-0.078125</v>
       </c>
       <c r="P162">
-        <v>-0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q162">
-        <v>-0.1171875</v>
+        <v>0.078125</v>
       </c>
       <c r="R162">
-        <v>-0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S162">
-        <v>-0.0390625</v>
+        <v>-0.234375</v>
       </c>
       <c r="T162">
-        <v>-0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U162">
-        <v>0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V162">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="163" spans="1:22">
@@ -8605,28 +8605,28 @@
         <v>1</v>
       </c>
       <c r="O163">
-        <v>-0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="P163">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q163">
-        <v>-0.1953125</v>
+        <v>-0.078125</v>
       </c>
       <c r="R163">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S163">
-        <v>-0.0390625</v>
+        <v>-0.234375</v>
       </c>
       <c r="T163">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U163">
-        <v>0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V163">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="164" spans="1:22">
@@ -8655,28 +8655,28 @@
         <v>0</v>
       </c>
       <c r="O164">
-        <v>0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="P164">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q164">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="R164">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S164">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="T164">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U164">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V164">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="165" spans="1:22">
@@ -8705,28 +8705,28 @@
         <v>0</v>
       </c>
       <c r="O165">
-        <v>0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="P165">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q165">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="R165">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S165">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="T165">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U165">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V165">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="166" spans="1:22">
@@ -8755,28 +8755,28 @@
         <v>5</v>
       </c>
       <c r="O166">
-        <v>0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="P166">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q166">
-        <v>0.1953125</v>
+        <v>-0.078125</v>
       </c>
       <c r="R166">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S166">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="T166">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U166">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V166">
-        <v>0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="167" spans="1:22">
@@ -8805,28 +8805,28 @@
         <v>0</v>
       </c>
       <c r="O167">
-        <v>-0.0390625</v>
+        <v>-0.078125</v>
       </c>
       <c r="P167">
-        <v>-0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q167">
-        <v>-0.1171875</v>
+        <v>0.078125</v>
       </c>
       <c r="R167">
-        <v>-0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S167">
-        <v>-0.0390625</v>
+        <v>-0.234375</v>
       </c>
       <c r="T167">
-        <v>-0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U167">
-        <v>0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V167">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="168" spans="1:22">
@@ -8855,28 +8855,28 @@
         <v>4</v>
       </c>
       <c r="O168">
-        <v>0.0390625</v>
+        <v>0.078125</v>
       </c>
       <c r="P168">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q168">
-        <v>0.1171875</v>
+        <v>0.078125</v>
       </c>
       <c r="R168">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S168">
-        <v>-0.0390625</v>
+        <v>-0.078125</v>
       </c>
       <c r="T168">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U168">
-        <v>-0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="V168">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="169" spans="1:22">
@@ -8905,28 +8905,28 @@
         <v>5</v>
       </c>
       <c r="O169">
-        <v>0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="P169">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q169">
-        <v>0.1171875</v>
+        <v>0.234375</v>
       </c>
       <c r="R169">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S169">
-        <v>0.0390625</v>
+        <v>0.390625</v>
       </c>
       <c r="T169">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U169">
-        <v>-0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="V169">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="170" spans="1:22">
@@ -8955,28 +8955,28 @@
         <v>3</v>
       </c>
       <c r="O170">
-        <v>0.1171875</v>
+        <v>-0.078125</v>
       </c>
       <c r="P170">
-        <v>0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q170">
-        <v>0.0390625</v>
+        <v>-0.078125</v>
       </c>
       <c r="R170">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S170">
-        <v>0.1953125</v>
+        <v>-0.078125</v>
       </c>
       <c r="T170">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U170">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V170">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="171" spans="1:22">
@@ -9005,28 +9005,28 @@
         <v>4</v>
       </c>
       <c r="O171">
-        <v>-0.0390625</v>
+        <v>-0.078125</v>
       </c>
       <c r="P171">
-        <v>-0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q171">
-        <v>0.0390625</v>
+        <v>-0.078125</v>
       </c>
       <c r="R171">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S171">
-        <v>-0.1171875</v>
+        <v>-0.078125</v>
       </c>
       <c r="T171">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U171">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V171">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="172" spans="1:22">
@@ -9055,28 +9055,28 @@
         <v>0</v>
       </c>
       <c r="O172">
-        <v>0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="P172">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q172">
-        <v>0.1953125</v>
+        <v>-0.078125</v>
       </c>
       <c r="R172">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S172">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="T172">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U172">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V172">
-        <v>0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="173" spans="1:22">
@@ -9105,28 +9105,28 @@
         <v>0</v>
       </c>
       <c r="O173">
-        <v>0.0390625</v>
+        <v>0.078125</v>
       </c>
       <c r="P173">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q173">
-        <v>0.1171875</v>
+        <v>0.078125</v>
       </c>
       <c r="R173">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S173">
-        <v>-0.0390625</v>
+        <v>-0.078125</v>
       </c>
       <c r="T173">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U173">
-        <v>-0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="V173">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="174" spans="1:22">
@@ -9155,28 +9155,28 @@
         <v>0</v>
       </c>
       <c r="O174">
-        <v>0.1171875</v>
+        <v>-0.078125</v>
       </c>
       <c r="P174">
-        <v>0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q174">
-        <v>0.0390625</v>
+        <v>-0.078125</v>
       </c>
       <c r="R174">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S174">
-        <v>0.1953125</v>
+        <v>-0.078125</v>
       </c>
       <c r="T174">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U174">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V174">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="175" spans="1:22">
@@ -9205,28 +9205,28 @@
         <v>0</v>
       </c>
       <c r="O175">
-        <v>0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="P175">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q175">
-        <v>0.1171875</v>
+        <v>0.234375</v>
       </c>
       <c r="R175">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S175">
-        <v>0.0390625</v>
+        <v>0.390625</v>
       </c>
       <c r="T175">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U175">
-        <v>-0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="V175">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="176" spans="1:22">
@@ -9255,28 +9255,28 @@
         <v>0</v>
       </c>
       <c r="O176">
-        <v>-0.0390625</v>
+        <v>-0.078125</v>
       </c>
       <c r="P176">
-        <v>-0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q176">
-        <v>0.0390625</v>
+        <v>-0.078125</v>
       </c>
       <c r="R176">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S176">
-        <v>-0.1171875</v>
+        <v>-0.078125</v>
       </c>
       <c r="T176">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U176">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V176">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="177" spans="1:22">
@@ -9305,28 +9305,28 @@
         <v>2</v>
       </c>
       <c r="O177">
-        <v>0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="P177">
-        <v>-0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q177">
-        <v>0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="R177">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S177">
-        <v>0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="T177">
-        <v>0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U177">
-        <v>-0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="V177">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="178" spans="1:22">
@@ -9355,28 +9355,28 @@
         <v>0</v>
       </c>
       <c r="O178">
-        <v>0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="P178">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q178">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="R178">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S178">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="T178">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U178">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V178">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="179" spans="1:22">
@@ -9405,28 +9405,28 @@
         <v>2</v>
       </c>
       <c r="O179">
-        <v>-0.1953125</v>
+        <v>0.234375</v>
       </c>
       <c r="P179">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q179">
-        <v>-0.1953125</v>
+        <v>0.234375</v>
       </c>
       <c r="R179">
-        <v>-0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S179">
-        <v>-0.1171875</v>
+        <v>0.078125</v>
       </c>
       <c r="T179">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U179">
-        <v>0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="V179">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="180" spans="1:22">
@@ -9455,28 +9455,28 @@
         <v>0</v>
       </c>
       <c r="O180">
-        <v>0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="P180">
-        <v>-0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q180">
-        <v>0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="R180">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S180">
-        <v>0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="T180">
-        <v>0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U180">
-        <v>-0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="V180">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="181" spans="1:22">
@@ -9505,28 +9505,28 @@
         <v>3</v>
       </c>
       <c r="O181">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="P181">
-        <v>0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q181">
-        <v>-0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="R181">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S181">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="T181">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U181">
-        <v>0.0390625</v>
+        <v>0.234375</v>
       </c>
       <c r="V181">
-        <v>-0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="182" spans="1:22">
@@ -9555,28 +9555,28 @@
         <v>0</v>
       </c>
       <c r="O182">
-        <v>-0.1953125</v>
+        <v>0.234375</v>
       </c>
       <c r="P182">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q182">
-        <v>-0.1953125</v>
+        <v>0.234375</v>
       </c>
       <c r="R182">
-        <v>-0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S182">
-        <v>-0.1171875</v>
+        <v>0.078125</v>
       </c>
       <c r="T182">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U182">
-        <v>0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="V182">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="183" spans="1:22">
@@ -9605,28 +9605,28 @@
         <v>5</v>
       </c>
       <c r="O183">
-        <v>0.1953125</v>
+        <v>0.234375</v>
       </c>
       <c r="P183">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q183">
-        <v>0.1171875</v>
+        <v>0.234375</v>
       </c>
       <c r="R183">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S183">
-        <v>0.1953125</v>
+        <v>0.078125</v>
       </c>
       <c r="T183">
-        <v>0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U183">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V183">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="184" spans="1:22">
@@ -9655,28 +9655,28 @@
         <v>1</v>
       </c>
       <c r="O184">
-        <v>0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="P184">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q184">
-        <v>0.0390625</v>
+        <v>0.390625</v>
       </c>
       <c r="R184">
-        <v>-0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S184">
-        <v>0.1953125</v>
+        <v>0.234375</v>
       </c>
       <c r="T184">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U184">
-        <v>-0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="V184">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="185" spans="1:22">
@@ -9705,28 +9705,28 @@
         <v>0</v>
       </c>
       <c r="O185">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="P185">
-        <v>0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q185">
-        <v>-0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="R185">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S185">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="T185">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U185">
-        <v>0.0390625</v>
+        <v>0.234375</v>
       </c>
       <c r="V185">
-        <v>-0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="186" spans="1:22">
@@ -9755,28 +9755,28 @@
         <v>0</v>
       </c>
       <c r="O186">
-        <v>0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="P186">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q186">
-        <v>0.0390625</v>
+        <v>0.390625</v>
       </c>
       <c r="R186">
-        <v>-0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S186">
-        <v>0.1953125</v>
+        <v>0.234375</v>
       </c>
       <c r="T186">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U186">
-        <v>-0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="V186">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="187" spans="1:22">
@@ -9805,28 +9805,28 @@
         <v>2</v>
       </c>
       <c r="O187">
-        <v>-0.1171875</v>
+        <v>0.078125</v>
       </c>
       <c r="P187">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q187">
-        <v>-0.1171875</v>
+        <v>-0.078125</v>
       </c>
       <c r="R187">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S187">
-        <v>-0.0390625</v>
+        <v>0.078125</v>
       </c>
       <c r="T187">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U187">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V187">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="188" spans="1:22">
@@ -9855,28 +9855,28 @@
         <v>3</v>
       </c>
       <c r="O188">
-        <v>0.0390625</v>
+        <v>0.390625</v>
       </c>
       <c r="P188">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q188">
-        <v>0.0390625</v>
+        <v>0.234375</v>
       </c>
       <c r="R188">
-        <v>0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S188">
-        <v>0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="T188">
-        <v>-0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U188">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V188">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="189" spans="1:22">
@@ -9905,28 +9905,28 @@
         <v>0</v>
       </c>
       <c r="O189">
-        <v>0.1953125</v>
+        <v>0.234375</v>
       </c>
       <c r="P189">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q189">
-        <v>0.1171875</v>
+        <v>0.234375</v>
       </c>
       <c r="R189">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S189">
-        <v>0.1953125</v>
+        <v>0.078125</v>
       </c>
       <c r="T189">
-        <v>0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U189">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V189">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="190" spans="1:22">
@@ -9955,28 +9955,28 @@
         <v>0</v>
       </c>
       <c r="O190">
-        <v>-0.1171875</v>
+        <v>0.078125</v>
       </c>
       <c r="P190">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q190">
-        <v>-0.1171875</v>
+        <v>-0.078125</v>
       </c>
       <c r="R190">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S190">
-        <v>-0.0390625</v>
+        <v>0.078125</v>
       </c>
       <c r="T190">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U190">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V190">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="191" spans="1:22">
@@ -10005,28 +10005,28 @@
         <v>1</v>
       </c>
       <c r="O191">
-        <v>-0.0390625</v>
+        <v>-0.078125</v>
       </c>
       <c r="P191">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q191">
-        <v>-0.0390625</v>
+        <v>-0.078125</v>
       </c>
       <c r="R191">
-        <v>-0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S191">
-        <v>0.0390625</v>
+        <v>0.078125</v>
       </c>
       <c r="T191">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U191">
-        <v>0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V191">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="192" spans="1:22">
@@ -10055,28 +10055,28 @@
         <v>0</v>
       </c>
       <c r="O192">
-        <v>0.0390625</v>
+        <v>0.390625</v>
       </c>
       <c r="P192">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q192">
-        <v>0.0390625</v>
+        <v>0.234375</v>
       </c>
       <c r="R192">
-        <v>0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S192">
-        <v>0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="T192">
-        <v>-0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U192">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V192">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="193" spans="1:22">
@@ -10105,28 +10105,28 @@
         <v>0</v>
       </c>
       <c r="O193">
-        <v>-0.0390625</v>
+        <v>-0.078125</v>
       </c>
       <c r="P193">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q193">
-        <v>-0.0390625</v>
+        <v>-0.078125</v>
       </c>
       <c r="R193">
-        <v>-0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S193">
-        <v>0.0390625</v>
+        <v>0.078125</v>
       </c>
       <c r="T193">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U193">
-        <v>0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V193">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="194" spans="1:22">
@@ -10155,28 +10155,28 @@
         <v>4</v>
       </c>
       <c r="O194">
-        <v>-0.0390625</v>
+        <v>0.390625</v>
       </c>
       <c r="P194">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q194">
-        <v>0.0390625</v>
+        <v>0.390625</v>
       </c>
       <c r="R194">
-        <v>-0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S194">
-        <v>-0.0390625</v>
+        <v>0.234375</v>
       </c>
       <c r="T194">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U194">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="V194">
-        <v>0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="195" spans="1:22">
@@ -10205,28 +10205,28 @@
         <v>2</v>
       </c>
       <c r="O195">
-        <v>0.0390625</v>
+        <v>-0.234375</v>
       </c>
       <c r="P195">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q195">
-        <v>0.0390625</v>
+        <v>-0.234375</v>
       </c>
       <c r="R195">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S195">
-        <v>0.0390625</v>
+        <v>-0.234375</v>
       </c>
       <c r="T195">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U195">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V195">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="196" spans="1:22">
@@ -10255,28 +10255,28 @@
         <v>5</v>
       </c>
       <c r="O196">
-        <v>-0.1953125</v>
+        <v>-0.078125</v>
       </c>
       <c r="P196">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q196">
-        <v>-0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="R196">
-        <v>-0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S196">
-        <v>-0.1171875</v>
+        <v>0.078125</v>
       </c>
       <c r="T196">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U196">
-        <v>0.0390625</v>
+        <v>0.390625</v>
       </c>
       <c r="V196">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="197" spans="1:22">
@@ -10305,28 +10305,28 @@
         <v>0</v>
       </c>
       <c r="O197">
-        <v>0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="P197">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q197">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="R197">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S197">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="T197">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U197">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V197">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="198" spans="1:22">
@@ -10355,28 +10355,28 @@
         <v>0</v>
       </c>
       <c r="O198">
-        <v>0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="P198">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q198">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="R198">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S198">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="T198">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U198">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V198">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="199" spans="1:22">
@@ -10405,28 +10405,28 @@
         <v>0</v>
       </c>
       <c r="O199">
-        <v>-0.0390625</v>
+        <v>0.390625</v>
       </c>
       <c r="P199">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q199">
-        <v>0.0390625</v>
+        <v>0.390625</v>
       </c>
       <c r="R199">
-        <v>-0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S199">
-        <v>-0.0390625</v>
+        <v>0.234375</v>
       </c>
       <c r="T199">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U199">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="V199">
-        <v>0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="200" spans="1:22">
@@ -10455,28 +10455,28 @@
         <v>4</v>
       </c>
       <c r="O200">
-        <v>0.0390625</v>
+        <v>-0.390625</v>
       </c>
       <c r="P200">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q200">
-        <v>-0.0390625</v>
+        <v>-0.234375</v>
       </c>
       <c r="R200">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S200">
-        <v>0.0390625</v>
+        <v>-0.390625</v>
       </c>
       <c r="T200">
-        <v>0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U200">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V200">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="201" spans="1:22">
@@ -10505,28 +10505,28 @@
         <v>1</v>
       </c>
       <c r="O201">
-        <v>0.1953125</v>
+        <v>0.078125</v>
       </c>
       <c r="P201">
-        <v>0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q201">
-        <v>0.1953125</v>
+        <v>0.078125</v>
       </c>
       <c r="R201">
-        <v>0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S201">
-        <v>0.1953125</v>
+        <v>0.078125</v>
       </c>
       <c r="T201">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U201">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V201">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="202" spans="1:22">
@@ -10555,28 +10555,28 @@
         <v>0</v>
       </c>
       <c r="O202">
-        <v>-0.1953125</v>
+        <v>-0.078125</v>
       </c>
       <c r="P202">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q202">
-        <v>-0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="R202">
-        <v>-0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S202">
-        <v>-0.1171875</v>
+        <v>0.078125</v>
       </c>
       <c r="T202">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U202">
-        <v>0.0390625</v>
+        <v>0.390625</v>
       </c>
       <c r="V202">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="203" spans="1:22">
@@ -10605,28 +10605,28 @@
         <v>0</v>
       </c>
       <c r="O203">
-        <v>0.1953125</v>
+        <v>0.078125</v>
       </c>
       <c r="P203">
-        <v>0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q203">
-        <v>0.1953125</v>
+        <v>0.078125</v>
       </c>
       <c r="R203">
-        <v>0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S203">
-        <v>0.1953125</v>
+        <v>0.078125</v>
       </c>
       <c r="T203">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U203">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V203">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="204" spans="1:22">
@@ -10655,28 +10655,28 @@
         <v>3</v>
       </c>
       <c r="O204">
-        <v>0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="P204">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q204">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="R204">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S204">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="T204">
-        <v>-0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U204">
-        <v>-0.1953125</v>
+        <v>0.234375</v>
       </c>
       <c r="V204">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="205" spans="1:22">
@@ -10705,28 +10705,28 @@
         <v>0</v>
       </c>
       <c r="O205">
-        <v>0.0390625</v>
+        <v>-0.390625</v>
       </c>
       <c r="P205">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q205">
-        <v>-0.0390625</v>
+        <v>-0.234375</v>
       </c>
       <c r="R205">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S205">
-        <v>0.0390625</v>
+        <v>-0.390625</v>
       </c>
       <c r="T205">
-        <v>0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U205">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V205">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="206" spans="1:22">
@@ -10755,28 +10755,28 @@
         <v>5</v>
       </c>
       <c r="O206">
-        <v>0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="P206">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q206">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="R206">
-        <v>-0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S206">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="T206">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U206">
-        <v>-0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="V206">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="207" spans="1:22">
@@ -10805,28 +10805,28 @@
         <v>1</v>
       </c>
       <c r="O207">
-        <v>-0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="P207">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q207">
-        <v>-0.0390625</v>
+        <v>-0.234375</v>
       </c>
       <c r="R207">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S207">
-        <v>-0.1953125</v>
+        <v>-0.078125</v>
       </c>
       <c r="T207">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U207">
-        <v>0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V207">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="208" spans="1:22">
@@ -10855,28 +10855,28 @@
         <v>0</v>
       </c>
       <c r="O208">
-        <v>0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="P208">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q208">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="R208">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S208">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="T208">
-        <v>-0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U208">
-        <v>-0.1953125</v>
+        <v>0.234375</v>
       </c>
       <c r="V208">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="209" spans="1:22">
@@ -10905,28 +10905,28 @@
         <v>0</v>
       </c>
       <c r="O209">
-        <v>-0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="P209">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q209">
-        <v>-0.0390625</v>
+        <v>-0.234375</v>
       </c>
       <c r="R209">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S209">
-        <v>-0.1953125</v>
+        <v>-0.078125</v>
       </c>
       <c r="T209">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U209">
-        <v>0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V209">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="210" spans="1:22">
@@ -10955,28 +10955,28 @@
         <v>2</v>
       </c>
       <c r="O210">
-        <v>-0.1171875</v>
+        <v>0.234375</v>
       </c>
       <c r="P210">
-        <v>-0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q210">
-        <v>-0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="R210">
-        <v>-0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S210">
-        <v>-0.0390625</v>
+        <v>0.078125</v>
       </c>
       <c r="T210">
-        <v>-0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U210">
-        <v>0.0390625</v>
+        <v>-0.390625</v>
       </c>
       <c r="V210">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="211" spans="1:22">
@@ -11005,28 +11005,28 @@
         <v>3</v>
       </c>
       <c r="O211">
-        <v>-0.1953125</v>
+        <v>-0.078125</v>
       </c>
       <c r="P211">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q211">
-        <v>-0.1953125</v>
+        <v>0.078125</v>
       </c>
       <c r="R211">
-        <v>-0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S211">
-        <v>-0.1171875</v>
+        <v>-0.078125</v>
       </c>
       <c r="T211">
-        <v>0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U211">
-        <v>0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V211">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="212" spans="1:22">
@@ -11055,28 +11055,28 @@
         <v>0</v>
       </c>
       <c r="O212">
-        <v>0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="P212">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q212">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="R212">
-        <v>-0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S212">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="T212">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U212">
-        <v>-0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="V212">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="213" spans="1:22">
@@ -11105,28 +11105,28 @@
         <v>0</v>
       </c>
       <c r="O213">
-        <v>-0.1171875</v>
+        <v>0.234375</v>
       </c>
       <c r="P213">
-        <v>-0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q213">
-        <v>-0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="R213">
-        <v>-0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S213">
-        <v>-0.0390625</v>
+        <v>0.078125</v>
       </c>
       <c r="T213">
-        <v>-0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U213">
-        <v>0.0390625</v>
+        <v>-0.390625</v>
       </c>
       <c r="V213">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="214" spans="1:22">
@@ -11155,28 +11155,28 @@
         <v>5</v>
       </c>
       <c r="O214">
-        <v>-0.1171875</v>
+        <v>0.234375</v>
       </c>
       <c r="P214">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q214">
-        <v>-0.1171875</v>
+        <v>0.234375</v>
       </c>
       <c r="R214">
-        <v>0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S214">
-        <v>-0.0390625</v>
+        <v>0.390625</v>
       </c>
       <c r="T214">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U214">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V214">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="215" spans="1:22">
@@ -11205,28 +11205,28 @@
         <v>0</v>
       </c>
       <c r="O215">
-        <v>-0.1953125</v>
+        <v>-0.078125</v>
       </c>
       <c r="P215">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q215">
-        <v>-0.1953125</v>
+        <v>0.078125</v>
       </c>
       <c r="R215">
-        <v>-0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S215">
-        <v>-0.1171875</v>
+        <v>-0.078125</v>
       </c>
       <c r="T215">
-        <v>0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U215">
-        <v>0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V215">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="216" spans="1:22">
@@ -11255,28 +11255,28 @@
         <v>2</v>
       </c>
       <c r="O216">
-        <v>0.1953125</v>
+        <v>-0.078125</v>
       </c>
       <c r="P216">
-        <v>0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q216">
-        <v>0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="R216">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S216">
-        <v>0.1171875</v>
+        <v>-0.078125</v>
       </c>
       <c r="T216">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U216">
-        <v>0.0390625</v>
+        <v>0.390625</v>
       </c>
       <c r="V216">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="217" spans="1:22">
@@ -11305,28 +11305,28 @@
         <v>0</v>
       </c>
       <c r="O217">
-        <v>0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="P217">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q217">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="R217">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S217">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="T217">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U217">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V217">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="218" spans="1:22">
@@ -11355,28 +11355,28 @@
         <v>4</v>
       </c>
       <c r="O218">
-        <v>-0.0390625</v>
+        <v>0.234375</v>
       </c>
       <c r="P218">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q218">
-        <v>-0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="R218">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S218">
-        <v>-0.0390625</v>
+        <v>0.078125</v>
       </c>
       <c r="T218">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U218">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V218">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="219" spans="1:22">
@@ -11405,28 +11405,28 @@
         <v>0</v>
       </c>
       <c r="O219">
-        <v>0.1953125</v>
+        <v>-0.078125</v>
       </c>
       <c r="P219">
-        <v>0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q219">
-        <v>0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="R219">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S219">
-        <v>0.1171875</v>
+        <v>-0.078125</v>
       </c>
       <c r="T219">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U219">
-        <v>0.0390625</v>
+        <v>0.390625</v>
       </c>
       <c r="V219">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="220" spans="1:22">
@@ -11455,28 +11455,28 @@
         <v>0</v>
       </c>
       <c r="O220">
-        <v>-0.1171875</v>
+        <v>0.234375</v>
       </c>
       <c r="P220">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q220">
-        <v>-0.1171875</v>
+        <v>0.234375</v>
       </c>
       <c r="R220">
-        <v>0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S220">
-        <v>-0.0390625</v>
+        <v>0.390625</v>
       </c>
       <c r="T220">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U220">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V220">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
     </row>
     <row r="221" spans="1:22">
@@ -11505,28 +11505,28 @@
         <v>3</v>
       </c>
       <c r="O221">
-        <v>-0.0390625</v>
+        <v>-0.390625</v>
       </c>
       <c r="P221">
-        <v>0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q221">
-        <v>-0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="R221">
-        <v>0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S221">
-        <v>-0.0390625</v>
+        <v>-0.390625</v>
       </c>
       <c r="T221">
-        <v>-0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U221">
-        <v>0.1953125</v>
+        <v>0.078125</v>
       </c>
       <c r="V221">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="222" spans="1:22">
@@ -11555,28 +11555,28 @@
         <v>1</v>
       </c>
       <c r="O222">
-        <v>0.1953125</v>
+        <v>0.234375</v>
       </c>
       <c r="P222">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q222">
-        <v>0.1953125</v>
+        <v>0.234375</v>
       </c>
       <c r="R222">
-        <v>0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S222">
-        <v>0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="T222">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U222">
-        <v>-0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="V222">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="223" spans="1:22">
@@ -11605,28 +11605,28 @@
         <v>0</v>
       </c>
       <c r="O223">
-        <v>-0.0390625</v>
+        <v>0.234375</v>
       </c>
       <c r="P223">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q223">
-        <v>-0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="R223">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S223">
-        <v>-0.0390625</v>
+        <v>0.078125</v>
       </c>
       <c r="T223">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U223">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V223">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="224" spans="1:22">
@@ -11655,28 +11655,28 @@
         <v>0</v>
       </c>
       <c r="O224">
-        <v>0.1953125</v>
+        <v>0.234375</v>
       </c>
       <c r="P224">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q224">
-        <v>0.1953125</v>
+        <v>0.234375</v>
       </c>
       <c r="R224">
-        <v>0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S224">
-        <v>0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="T224">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U224">
-        <v>-0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="V224">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="225" spans="1:22">
@@ -11705,28 +11705,28 @@
         <v>0</v>
       </c>
       <c r="O225">
-        <v>-0.0390625</v>
+        <v>-0.390625</v>
       </c>
       <c r="P225">
-        <v>0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q225">
-        <v>-0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="R225">
-        <v>0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S225">
-        <v>-0.0390625</v>
+        <v>-0.390625</v>
       </c>
       <c r="T225">
-        <v>-0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U225">
-        <v>0.1953125</v>
+        <v>0.078125</v>
       </c>
       <c r="V225">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="226" spans="1:22">
@@ -11755,28 +11755,28 @@
         <v>1</v>
       </c>
       <c r="O226">
-        <v>-0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="P226">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q226">
-        <v>-0.0390625</v>
+        <v>-0.234375</v>
       </c>
       <c r="R226">
-        <v>-0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S226">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="T226">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U226">
-        <v>0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V226">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="227" spans="1:22">
@@ -11805,28 +11805,28 @@
         <v>2</v>
       </c>
       <c r="O227">
-        <v>0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="P227">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q227">
-        <v>0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="R227">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S227">
-        <v>0.0390625</v>
+        <v>0.234375</v>
       </c>
       <c r="T227">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U227">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V227">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="228" spans="1:22">
@@ -11855,28 +11855,28 @@
         <v>0</v>
       </c>
       <c r="O228">
-        <v>-0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="P228">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q228">
-        <v>-0.0390625</v>
+        <v>-0.234375</v>
       </c>
       <c r="R228">
-        <v>-0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S228">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="T228">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U228">
-        <v>0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V228">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="229" spans="1:22">
@@ -11905,28 +11905,28 @@
         <v>1</v>
       </c>
       <c r="O229">
-        <v>0.1953125</v>
+        <v>0.078125</v>
       </c>
       <c r="P229">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q229">
-        <v>0.1953125</v>
+        <v>-0.078125</v>
       </c>
       <c r="R229">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S229">
-        <v>0.1953125</v>
+        <v>0.234375</v>
       </c>
       <c r="T229">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U229">
-        <v>-0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="V229">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="230" spans="1:22">
@@ -11955,28 +11955,28 @@
         <v>0</v>
       </c>
       <c r="O230">
-        <v>0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="P230">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q230">
-        <v>0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="R230">
-        <v>-0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S230">
-        <v>0.0390625</v>
+        <v>0.234375</v>
       </c>
       <c r="T230">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U230">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V230">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="231" spans="1:22">
@@ -12005,28 +12005,28 @@
         <v>0</v>
       </c>
       <c r="O231">
-        <v>0.1953125</v>
+        <v>0.078125</v>
       </c>
       <c r="P231">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q231">
-        <v>0.1953125</v>
+        <v>-0.078125</v>
       </c>
       <c r="R231">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S231">
-        <v>0.1953125</v>
+        <v>0.234375</v>
       </c>
       <c r="T231">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U231">
-        <v>-0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="V231">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="232" spans="1:22">
@@ -12055,28 +12055,28 @@
         <v>5</v>
       </c>
       <c r="O232">
-        <v>-0.1953125</v>
+        <v>0.234375</v>
       </c>
       <c r="P232">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q232">
-        <v>-0.1171875</v>
+        <v>0.078125</v>
       </c>
       <c r="R232">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S232">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="T232">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U232">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="V232">
-        <v>0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="233" spans="1:22">
@@ -12105,28 +12105,28 @@
         <v>3</v>
       </c>
       <c r="O233">
-        <v>-0.1953125</v>
+        <v>0.234375</v>
       </c>
       <c r="P233">
-        <v>0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q233">
-        <v>-0.1953125</v>
+        <v>0.234375</v>
       </c>
       <c r="R233">
-        <v>0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S233">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="T233">
-        <v>-0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U233">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V233">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="234" spans="1:22">
@@ -12155,28 +12155,28 @@
         <v>5</v>
       </c>
       <c r="O234">
-        <v>0.1171875</v>
+        <v>0.078125</v>
       </c>
       <c r="P234">
-        <v>0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q234">
-        <v>0.1171875</v>
+        <v>0.078125</v>
       </c>
       <c r="R234">
-        <v>0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S234">
-        <v>0.0390625</v>
+        <v>0.078125</v>
       </c>
       <c r="T234">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U234">
-        <v>-0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="V234">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="235" spans="1:22">
@@ -12205,28 +12205,28 @@
         <v>5</v>
       </c>
       <c r="O235">
-        <v>0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="P235">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q235">
-        <v>0.0390625</v>
+        <v>0.390625</v>
       </c>
       <c r="R235">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S235">
-        <v>0.1171875</v>
+        <v>0.234375</v>
       </c>
       <c r="T235">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U235">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V235">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="236" spans="1:22">
@@ -12255,28 +12255,28 @@
         <v>2</v>
       </c>
       <c r="O236">
-        <v>-0.0390625</v>
+        <v>0.078125</v>
       </c>
       <c r="P236">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q236">
-        <v>0.0390625</v>
+        <v>0.234375</v>
       </c>
       <c r="R236">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S236">
-        <v>-0.0390625</v>
+        <v>-0.078125</v>
       </c>
       <c r="T236">
-        <v>0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U236">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V236">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="237" spans="1:22">
@@ -12305,28 +12305,28 @@
         <v>0</v>
       </c>
       <c r="O237">
-        <v>-0.1953125</v>
+        <v>0.234375</v>
       </c>
       <c r="P237">
-        <v>0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q237">
-        <v>-0.1953125</v>
+        <v>0.234375</v>
       </c>
       <c r="R237">
-        <v>0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S237">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="T237">
-        <v>-0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U237">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V237">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="238" spans="1:22">
@@ -12355,28 +12355,28 @@
         <v>0</v>
       </c>
       <c r="O238">
-        <v>-0.1953125</v>
+        <v>0.234375</v>
       </c>
       <c r="P238">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q238">
-        <v>-0.1171875</v>
+        <v>0.078125</v>
       </c>
       <c r="R238">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S238">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="T238">
-        <v>-0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U238">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="V238">
-        <v>0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="239" spans="1:22">
@@ -12405,28 +12405,28 @@
         <v>0</v>
       </c>
       <c r="O239">
-        <v>-0.0390625</v>
+        <v>0.078125</v>
       </c>
       <c r="P239">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q239">
-        <v>0.0390625</v>
+        <v>0.234375</v>
       </c>
       <c r="R239">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S239">
-        <v>-0.0390625</v>
+        <v>-0.078125</v>
       </c>
       <c r="T239">
-        <v>0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U239">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V239">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="240" spans="1:22">
@@ -12455,28 +12455,28 @@
         <v>0</v>
       </c>
       <c r="O240">
-        <v>0.1171875</v>
+        <v>0.078125</v>
       </c>
       <c r="P240">
-        <v>0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q240">
-        <v>0.1171875</v>
+        <v>0.078125</v>
       </c>
       <c r="R240">
-        <v>0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S240">
-        <v>0.0390625</v>
+        <v>0.078125</v>
       </c>
       <c r="T240">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U240">
-        <v>-0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="V240">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="241" spans="1:22">
@@ -12505,28 +12505,28 @@
         <v>0</v>
       </c>
       <c r="O241">
-        <v>0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="P241">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q241">
-        <v>0.0390625</v>
+        <v>0.390625</v>
       </c>
       <c r="R241">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S241">
-        <v>0.1171875</v>
+        <v>0.234375</v>
       </c>
       <c r="T241">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U241">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V241">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="242" spans="1:22">
@@ -12555,28 +12555,28 @@
         <v>4</v>
       </c>
       <c r="O242">
-        <v>0.1953125</v>
+        <v>-0.078125</v>
       </c>
       <c r="P242">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q242">
-        <v>0.1953125</v>
+        <v>-0.078125</v>
       </c>
       <c r="R242">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S242">
-        <v>0.1953125</v>
+        <v>0.078125</v>
       </c>
       <c r="T242">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U242">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V242">
-        <v>0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="243" spans="1:22">
@@ -12605,28 +12605,28 @@
         <v>4</v>
       </c>
       <c r="O243">
-        <v>0.1171875</v>
+        <v>0.234375</v>
       </c>
       <c r="P243">
-        <v>0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q243">
-        <v>0.0390625</v>
+        <v>0.390625</v>
       </c>
       <c r="R243">
-        <v>0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S243">
-        <v>0.1953125</v>
+        <v>0.234375</v>
       </c>
       <c r="T243">
-        <v>0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U243">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V243">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="244" spans="1:22">
@@ -12655,28 +12655,28 @@
         <v>1</v>
       </c>
       <c r="O244">
-        <v>0.0390625</v>
+        <v>0.078125</v>
       </c>
       <c r="P244">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q244">
-        <v>0.1171875</v>
+        <v>-0.078125</v>
       </c>
       <c r="R244">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S244">
-        <v>-0.0390625</v>
+        <v>0.234375</v>
       </c>
       <c r="T244">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U244">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V244">
-        <v>0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="245" spans="1:22">
@@ -12705,28 +12705,28 @@
         <v>0</v>
       </c>
       <c r="O245">
-        <v>0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="P245">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q245">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="R245">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S245">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="T245">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U245">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V245">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="246" spans="1:22">
@@ -12755,28 +12755,28 @@
         <v>0</v>
       </c>
       <c r="O246">
-        <v>0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="P246">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q246">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="R246">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S246">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="T246">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U246">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V246">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="247" spans="1:22">
@@ -12805,28 +12805,28 @@
         <v>0</v>
       </c>
       <c r="O247">
-        <v>0.1953125</v>
+        <v>-0.078125</v>
       </c>
       <c r="P247">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q247">
-        <v>0.1953125</v>
+        <v>-0.078125</v>
       </c>
       <c r="R247">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S247">
-        <v>0.1953125</v>
+        <v>0.078125</v>
       </c>
       <c r="T247">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U247">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V247">
-        <v>0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="248" spans="1:22">
@@ -12855,28 +12855,28 @@
         <v>0</v>
       </c>
       <c r="O248">
-        <v>0.1171875</v>
+        <v>0.234375</v>
       </c>
       <c r="P248">
-        <v>0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="Q248">
-        <v>0.0390625</v>
+        <v>0.390625</v>
       </c>
       <c r="R248">
-        <v>0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="S248">
-        <v>0.1953125</v>
+        <v>0.234375</v>
       </c>
       <c r="T248">
-        <v>0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U248">
-        <v>-0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V248">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="249" spans="1:22">
@@ -12905,28 +12905,28 @@
         <v>0</v>
       </c>
       <c r="O249">
-        <v>0.1171875</v>
+        <v>-0.390625</v>
       </c>
       <c r="P249">
-        <v>0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q249">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="R249">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S249">
-        <v>0.1171875</v>
+        <v>-0.234375</v>
       </c>
       <c r="T249">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U249">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V249">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="250" spans="1:22">
@@ -12955,28 +12955,28 @@
         <v>3</v>
       </c>
       <c r="O250">
-        <v>0.0390625</v>
+        <v>-0.234375</v>
       </c>
       <c r="P250">
-        <v>0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q250">
-        <v>0.1171875</v>
+        <v>-0.078125</v>
       </c>
       <c r="R250">
-        <v>0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S250">
-        <v>-0.0390625</v>
+        <v>-0.390625</v>
       </c>
       <c r="T250">
-        <v>0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U250">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V250">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="251" spans="1:22">
@@ -13005,28 +13005,28 @@
         <v>4</v>
       </c>
       <c r="O251">
-        <v>-0.1953125</v>
+        <v>0.078125</v>
       </c>
       <c r="P251">
-        <v>-0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q251">
-        <v>-0.1171875</v>
+        <v>0.078125</v>
       </c>
       <c r="R251">
-        <v>-0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S251">
-        <v>-0.1953125</v>
+        <v>-0.078125</v>
       </c>
       <c r="T251">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U251">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V251">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="252" spans="1:22">
@@ -13055,28 +13055,28 @@
         <v>2</v>
       </c>
       <c r="O252">
-        <v>-0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="P252">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q252">
-        <v>-0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="R252">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S252">
-        <v>-0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="T252">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U252">
-        <v>0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V252">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="253" spans="1:22">
@@ -13105,28 +13105,28 @@
         <v>3</v>
       </c>
       <c r="O253">
-        <v>-0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="P253">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q253">
-        <v>-0.0390625</v>
+        <v>0.234375</v>
       </c>
       <c r="R253">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S253">
-        <v>-0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="T253">
-        <v>0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U253">
-        <v>0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="V253">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="254" spans="1:22">
@@ -13155,28 +13155,28 @@
         <v>0</v>
       </c>
       <c r="O254">
-        <v>0.0390625</v>
+        <v>-0.234375</v>
       </c>
       <c r="P254">
-        <v>0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q254">
-        <v>0.1171875</v>
+        <v>-0.078125</v>
       </c>
       <c r="R254">
-        <v>0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S254">
-        <v>-0.0390625</v>
+        <v>-0.390625</v>
       </c>
       <c r="T254">
-        <v>0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="U254">
-        <v>-0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V254">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="255" spans="1:22">
@@ -13205,28 +13205,28 @@
         <v>0</v>
       </c>
       <c r="O255">
-        <v>-0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="P255">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q255">
-        <v>-0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="R255">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S255">
-        <v>-0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="T255">
-        <v>-0.06944444444444445</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="U255">
-        <v>0.1953125</v>
+        <v>0.390625</v>
       </c>
       <c r="V255">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="256" spans="1:22">
@@ -13255,28 +13255,28 @@
         <v>0</v>
       </c>
       <c r="O256">
-        <v>-0.1953125</v>
+        <v>0.078125</v>
       </c>
       <c r="P256">
-        <v>-0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="Q256">
-        <v>-0.1171875</v>
+        <v>0.078125</v>
       </c>
       <c r="R256">
-        <v>-0.06944444444444445</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S256">
-        <v>-0.1953125</v>
+        <v>-0.078125</v>
       </c>
       <c r="T256">
-        <v>0.06944444444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="U256">
-        <v>0.1953125</v>
+        <v>-0.390625</v>
       </c>
       <c r="V256">
-        <v>0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
     </row>
     <row r="257" spans="1:22">
@@ -13305,28 +13305,28 @@
         <v>0</v>
       </c>
       <c r="O257">
-        <v>-0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="P257">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="Q257">
-        <v>-0.0390625</v>
+        <v>0.234375</v>
       </c>
       <c r="R257">
-        <v>0.2083333333333333</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="S257">
-        <v>-0.1171875</v>
+        <v>0.390625</v>
       </c>
       <c r="T257">
-        <v>0.06944444444444445</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="U257">
-        <v>0.1953125</v>
+        <v>-0.234375</v>
       </c>
       <c r="V257">
-        <v>-0.2083333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
   </sheetData>
